--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7034772A-B207-4CF8-B4EF-6F0FDC0E4591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33A4A0-F6F7-4A05-8B4D-D46B478F46D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="FX rates" sheetId="3" r:id="rId3"/>
     <sheet name="Interest Rates" sheetId="4" r:id="rId4"/>
     <sheet name="Chart" sheetId="5" r:id="rId5"/>
+    <sheet name="Transform-GDP" sheetId="6" r:id="rId6"/>
+    <sheet name="Transform-Policy" sheetId="7" r:id="rId7"/>
+    <sheet name="Transform-FX" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'FX rates'!#REF!</definedName>
@@ -129,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="231">
   <si>
     <t>DBS forecasts</t>
   </si>
@@ -762,6 +765,66 @@
   </si>
   <si>
     <t>1Q20 actual updated, SG rates re-centred lower</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>USD/USD</t>
+  </si>
+  <si>
+    <t>USD/TWD</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -775,7 +838,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="mmm\ d"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="53">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1078,8 +1141,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1183,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,11 +1670,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1989,6 +2078,29 @@
     </xf>
     <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2011,10 +2123,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3669,8 +3784,8 @@
   </sheetPr>
   <dimension ref="A3:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
@@ -3718,13 +3833,13 @@
       <c r="C5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
       <c r="I5" s="79"/>
       <c r="J5" s="78" t="s">
         <v>32</v>
@@ -3732,12 +3847,12 @@
       <c r="K5" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="192" t="s">
+      <c r="L5" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
       <c r="Q5" s="80" t="s">
         <v>5</v>
       </c>
@@ -4963,18 +5078,18 @@
       <c r="A38" s="77"/>
       <c r="B38" s="78"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
       <c r="I38" s="79"/>
       <c r="J38" s="78"/>
       <c r="K38" s="78"/>
-      <c r="L38" s="192"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="193"/>
-      <c r="O38" s="193"/>
+      <c r="L38" s="203"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="204"/>
       <c r="R38" s="74"/>
       <c r="S38" s="74"/>
     </row>
@@ -5053,8 +5168,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A6:V43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
@@ -5082,22 +5197,22 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="194" t="s">
+      <c r="I6" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
     </row>
     <row r="7" spans="1:22" s="33" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="29"/>
@@ -5108,20 +5223,20 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="195"/>
-      <c r="R7" s="195"/>
-      <c r="S7" s="195"/>
-      <c r="T7" s="195"/>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
+      <c r="I7" s="206"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="206"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="206"/>
+      <c r="Q7" s="206"/>
+      <c r="R7" s="206"/>
+      <c r="S7" s="206"/>
+      <c r="T7" s="206"/>
+      <c r="U7" s="206"/>
+      <c r="V7" s="206"/>
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" ht="13">
       <c r="A8" s="176"/>
@@ -6229,15 +6344,15 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="194"/>
-      <c r="P39" s="194"/>
-      <c r="Q39" s="194"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
     </row>
     <row r="40" spans="1:17" ht="13">
       <c r="A40" s="34"/>
@@ -6334,8 +6449,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12"/>
@@ -6382,22 +6497,22 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="13">
       <c r="C6" s="2"/>
-      <c r="D6" s="194" t="s">
+      <c r="D6" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="1"/>
@@ -7366,15 +7481,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="196"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="196"/>
-      <c r="L40" s="196"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
     </row>
     <row r="41" spans="1:23" ht="13">
       <c r="A41" s="1" t="s">
@@ -7382,17 +7497,17 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="196"/>
-      <c r="L41" s="196"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
     </row>
     <row r="42" spans="1:23" ht="13">
       <c r="A42" s="1"/>
@@ -8016,18 +8131,18 @@
     <row r="3" spans="1:20">
       <c r="B3" s="117"/>
       <c r="C3" s="129"/>
-      <c r="D3" s="197">
+      <c r="D3" s="208">
         <v>2020</v>
       </c>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="197">
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="208">
         <v>2021</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="199"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="210"/>
       <c r="L3" s="50"/>
       <c r="Q3" s="1" t="s">
         <v>110</v>
@@ -10971,7 +11086,7 @@
   <dimension ref="C2:E16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -11182,4 +11297,3219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B39A16-63F6-410C-BFC0-6353BABC143C}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13">
+      <c r="C1" s="192" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>7</v>
+      </c>
+      <c r="G1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="D2" s="193">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="193">
+        <v>2019</v>
+      </c>
+      <c r="F2" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="193" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>2.9</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>6.6</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>6.1</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>3.1</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>2.7</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>2.4</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-5.5</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>4.7</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>6.2</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>5.9</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>7.1</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>6.8</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>5.3</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
+        <v>5.2</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5585B902-316A-4FB2-A7BC-42386362E5D9}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" customWidth="1"/>
+    <col min="14" max="27" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="13">
+      <c r="C1" s="192" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197">
+        <v>15</v>
+      </c>
+      <c r="F1" s="197">
+        <v>16</v>
+      </c>
+      <c r="G1" s="197">
+        <v>17</v>
+      </c>
+      <c r="H1" s="197">
+        <v>19</v>
+      </c>
+      <c r="I1" s="197">
+        <v>20</v>
+      </c>
+      <c r="J1" s="197">
+        <v>21</v>
+      </c>
+      <c r="K1" s="197">
+        <v>22</v>
+      </c>
+      <c r="N1" s="197">
+        <v>2</v>
+      </c>
+      <c r="O1" s="197">
+        <v>3</v>
+      </c>
+      <c r="P1" s="197">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="197">
+        <v>5</v>
+      </c>
+      <c r="R1" s="197">
+        <v>6</v>
+      </c>
+      <c r="S1" s="197">
+        <v>7</v>
+      </c>
+      <c r="T1" s="197">
+        <v>8</v>
+      </c>
+      <c r="U1" s="197">
+        <v>9</v>
+      </c>
+      <c r="V1" s="197">
+        <v>10</v>
+      </c>
+      <c r="W1" s="197">
+        <v>11</v>
+      </c>
+      <c r="X1" s="197">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="197">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="197">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="D2" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="196" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="196" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="196" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="196" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="194" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="201" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="197" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="197" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="197" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="197" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="197" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="197" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="197" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="197" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="197" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="197" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="197" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="195">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="199" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="211">
+        <f t="shared" ref="N3:AA10" si="0">HLOOKUP($M3,$C$2:$K$16,N$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="211">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="211">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="Q3" s="211">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+      <c r="R3" s="211">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="211">
+        <f t="shared" si="0"/>
+        <v>0.92317000000000005</v>
+      </c>
+      <c r="T3" s="211">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="U3" s="211">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="V3" s="211">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="W3" s="211">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="X3" s="211">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="Y3" s="211">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z3" s="211">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA3" s="211">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="195">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="199" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="R4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="195">
+        <v>-0.1</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="K5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="M5" s="199" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="R5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="195">
+        <v>4.05</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>3.85</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>3.7</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>3.55</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>3.55</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>3.55</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>3.55</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>3.55</v>
+      </c>
+      <c r="M6" s="199" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+      <c r="R6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="195"/>
+      <c r="E7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+      <c r="R7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="198">
+        <v>0.92317000000000005</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+      <c r="R8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="195">
+        <v>1.125</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="199" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="195">
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="199" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="195">
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="195">
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>2.25</v>
+      </c>
+      <c r="K12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="195">
+        <v>3.25</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="195">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="195">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+      <c r="K15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="195">
+        <v>4.5</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA66C54-171D-4A74-B9A8-7B1D6A62280E}">
+  <dimension ref="A1:AO16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="13">
+      <c r="C1" s="192" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197">
+        <v>10</v>
+      </c>
+      <c r="F1" s="197">
+        <v>11</v>
+      </c>
+      <c r="G1" s="197">
+        <v>12</v>
+      </c>
+      <c r="H1" s="197">
+        <v>14</v>
+      </c>
+      <c r="I1" s="197">
+        <v>15</v>
+      </c>
+      <c r="J1" s="197">
+        <v>16</v>
+      </c>
+      <c r="K1" s="197">
+        <v>17</v>
+      </c>
+      <c r="N1" s="202">
+        <v>2</v>
+      </c>
+      <c r="O1" s="202">
+        <v>3</v>
+      </c>
+      <c r="P1" s="202">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="202">
+        <v>5</v>
+      </c>
+      <c r="R1" s="202">
+        <v>6</v>
+      </c>
+      <c r="S1" s="202">
+        <v>7</v>
+      </c>
+      <c r="T1" s="202">
+        <v>8</v>
+      </c>
+      <c r="U1" s="202">
+        <v>9</v>
+      </c>
+      <c r="V1" s="202">
+        <v>10</v>
+      </c>
+      <c r="W1" s="202">
+        <v>11</v>
+      </c>
+      <c r="X1" s="202">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="202">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="202">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="D2" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="196" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="196" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="196" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="196" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="194" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>N2&amp;"%"</f>
+        <v>USD%</v>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" ref="AC2:AO2" si="0">O2&amp;"%"</f>
+        <v>EUR%</v>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" si="0"/>
+        <v>JPY%</v>
+      </c>
+      <c r="AE2" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY%</v>
+      </c>
+      <c r="AF2" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD%</v>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" si="0"/>
+        <v>SGD%</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" si="0"/>
+        <v>TWD%</v>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" si="0"/>
+        <v>KRW%</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="0"/>
+        <v>THB%</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR%</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP%</v>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" si="0"/>
+        <v>VND%</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" si="0"/>
+        <v>INR%</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="195">
+        <v>1</v>
+      </c>
+      <c r="E3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M3" s="199" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="211">
+        <f>HLOOKUP($M3,$A$2:$K$16,N$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="211">
+        <f t="shared" ref="O3:AA10" si="1">HLOOKUP($M3,$A$2:$K$16,O$1,FALSE)</f>
+        <v>1.1031</v>
+      </c>
+      <c r="P3" s="211">
+        <f t="shared" si="1"/>
+        <v>107.54</v>
+      </c>
+      <c r="Q3" s="211">
+        <f t="shared" si="1"/>
+        <v>7.0824999999999996</v>
+      </c>
+      <c r="R3" s="211">
+        <f t="shared" si="1"/>
+        <v>7.7511000000000001</v>
+      </c>
+      <c r="S3" s="211">
+        <f t="shared" si="1"/>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="T3" s="211">
+        <f t="shared" si="1"/>
+        <v>30.238</v>
+      </c>
+      <c r="U3" s="211">
+        <f t="shared" si="1"/>
+        <v>1218.55</v>
+      </c>
+      <c r="V3" s="211">
+        <f t="shared" si="1"/>
+        <v>32.798000000000002</v>
+      </c>
+      <c r="W3" s="211">
+        <f t="shared" si="1"/>
+        <v>4.3212000000000002</v>
+      </c>
+      <c r="X3" s="211">
+        <f t="shared" si="1"/>
+        <v>50.698999999999998</v>
+      </c>
+      <c r="Y3" s="211">
+        <f t="shared" si="1"/>
+        <v>23637</v>
+      </c>
+      <c r="Z3" s="211">
+        <f t="shared" si="1"/>
+        <v>75.542500000000004</v>
+      </c>
+      <c r="AA3" s="211">
+        <f t="shared" si="1"/>
+        <v>16310</v>
+      </c>
+      <c r="AB3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="200">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="195">
+        <v>1.1031</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M4" s="199" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" t="e">
+        <f t="shared" ref="N4:N10" si="2">HLOOKUP($M4,$A$2:$K$16,N$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>108.66020654044749</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>1.41</v>
+      </c>
+      <c r="T4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>1220</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>51.879915966386555</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>23300</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>75.5</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>15800</v>
+      </c>
+      <c r="AC4" s="212">
+        <f>(O4-O$3)/O$3</f>
+        <v>-1.1875623243586157E-2</v>
+      </c>
+      <c r="AD4" s="212">
+        <f>(P$3-P4)/P$3</f>
+        <v>-1.0416649994862224E-2</v>
+      </c>
+      <c r="AE4" s="212">
+        <f t="shared" ref="AE4:AE10" si="3">(Q$3-Q4)/Q$3</f>
+        <v>4.5887751500174887E-3</v>
+      </c>
+      <c r="AF4" s="212">
+        <f t="shared" ref="AF4:AF10" si="4">(R$3-R4)/R$3</f>
+        <v>-6.3087819793319301E-3</v>
+      </c>
+      <c r="AG4" s="212">
+        <f t="shared" ref="AG4:AG10" si="5">(S$3-S4)/S$3</f>
+        <v>8.4388185654008518E-3</v>
+      </c>
+      <c r="AH4" s="212" t="e">
+        <f t="shared" ref="AH4:AH10" si="6">(T$3-T4)/T$3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI4" s="212">
+        <f t="shared" ref="AI4:AI10" si="7">(U$3-U4)/U$3</f>
+        <v>-1.1899388617619675E-3</v>
+      </c>
+      <c r="AJ4" s="212">
+        <f t="shared" ref="AJ4:AJ10" si="8">(V$3-V4)/V$3</f>
+        <v>1.5183852673943675E-2</v>
+      </c>
+      <c r="AK4" s="212">
+        <f t="shared" ref="AK4:AK10" si="9">(W$3-W4)/W$3</f>
+        <v>4.9060446172360288E-3</v>
+      </c>
+      <c r="AL4" s="212">
+        <f t="shared" ref="AL4:AL10" si="10">(X$3-X4)/X$3</f>
+        <v>-2.3292687555702424E-2</v>
+      </c>
+      <c r="AM4" s="212">
+        <f t="shared" ref="AM4:AM10" si="11">(Y$3-Y4)/Y$3</f>
+        <v>1.4257308457080002E-2</v>
+      </c>
+      <c r="AN4" s="212">
+        <f t="shared" ref="AN4:AN10" si="12">(Z$3-Z4)/Z$3</f>
+        <v>5.625972134891482E-4</v>
+      </c>
+      <c r="AO4" s="212">
+        <f t="shared" ref="AO4:AO10" si="13">(AA$3-AA4)/AA$3</f>
+        <v>3.1269160024524831E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="195">
+        <v>107.54</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>108.66020654044749</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>106.80165232358002</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>104.94309810671255</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>104.47218588640274</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>103.99604130808949</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>103.5146643717728</v>
+      </c>
+      <c r="K5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>103.03328743545609</v>
+      </c>
+      <c r="M5" s="199" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>106.80165232358002</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>7.78</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="T5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>31.75</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>51.296244469679763</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>23250</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>75.5</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+      <c r="AC5" s="212">
+        <f t="shared" ref="AC5:AC10" si="14">(O5-O$3)/O$3</f>
+        <v>-2.8102619889401512E-3</v>
+      </c>
+      <c r="AD5" s="212">
+        <f t="shared" ref="AD5:AD10" si="15">(P$3-P5)/P$3</f>
+        <v>6.8657957636227562E-3</v>
+      </c>
+      <c r="AE5" s="212">
+        <f t="shared" si="3"/>
+        <v>1.164842922696782E-2</v>
+      </c>
+      <c r="AF5" s="212">
+        <f t="shared" si="4"/>
+        <v>-3.7285030511798514E-3</v>
+      </c>
+      <c r="AG5" s="212">
+        <f t="shared" si="5"/>
+        <v>2.2503516174402115E-2</v>
+      </c>
+      <c r="AH5" s="212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI5" s="212">
+        <f t="shared" si="7"/>
+        <v>1.5223010955643967E-2</v>
+      </c>
+      <c r="AJ5" s="212">
+        <f t="shared" si="8"/>
+        <v>3.1953167876090059E-2</v>
+      </c>
+      <c r="AK5" s="212">
+        <f t="shared" si="9"/>
+        <v>1.6476904563547199E-2</v>
+      </c>
+      <c r="AL5" s="212">
+        <f t="shared" si="10"/>
+        <v>-1.17802021672965E-2</v>
+      </c>
+      <c r="AM5" s="212">
+        <f t="shared" si="11"/>
+        <v>1.6372636121335195E-2</v>
+      </c>
+      <c r="AN5" s="212">
+        <f t="shared" si="12"/>
+        <v>5.625972134891482E-4</v>
+      </c>
+      <c r="AO5" s="212">
+        <f t="shared" si="13"/>
+        <v>4.3531575720416923E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="195">
+        <v>7.0824999999999996</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>6.95</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>6.9</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>6.8500000000000005</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>6.75</v>
+      </c>
+      <c r="M6" s="199" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>104.94309810671255</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>6.95</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>7.77</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>1.37</v>
+      </c>
+      <c r="T6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>50.712572972972971</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>23200</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>15400</v>
+      </c>
+      <c r="AC6" s="212">
+        <f t="shared" si="14"/>
+        <v>6.255099265705855E-3</v>
+      </c>
+      <c r="AD6" s="212">
+        <f t="shared" si="15"/>
+        <v>2.4148241522107605E-2</v>
+      </c>
+      <c r="AE6" s="212">
+        <f t="shared" si="3"/>
+        <v>1.8708083303918023E-2</v>
+      </c>
+      <c r="AF6" s="212">
+        <f t="shared" si="4"/>
+        <v>-2.4383635871036979E-3</v>
+      </c>
+      <c r="AG6" s="212">
+        <f t="shared" si="5"/>
+        <v>3.6568213783403532E-2</v>
+      </c>
+      <c r="AH6" s="212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI6" s="212">
+        <f t="shared" si="7"/>
+        <v>3.16359607730499E-2</v>
+      </c>
+      <c r="AJ6" s="212">
+        <f t="shared" si="8"/>
+        <v>4.8722483078236553E-2</v>
+      </c>
+      <c r="AK6" s="212">
+        <f t="shared" si="9"/>
+        <v>2.8047764509858367E-2</v>
+      </c>
+      <c r="AL6" s="212">
+        <f t="shared" si="10"/>
+        <v>-2.6771677889057415E-4</v>
+      </c>
+      <c r="AM6" s="212">
+        <f t="shared" si="11"/>
+        <v>1.8487963785590387E-2</v>
+      </c>
+      <c r="AN6" s="212">
+        <f t="shared" si="12"/>
+        <v>7.1813879604196839E-3</v>
+      </c>
+      <c r="AO6" s="212">
+        <f t="shared" si="13"/>
+        <v>5.5793991416309016E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="195">
+        <v>7.7511000000000001</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>7.8</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>7.78</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>7.77</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>7.76</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>7.76</v>
+      </c>
+      <c r="J7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>7.75</v>
+      </c>
+      <c r="K7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>7.75</v>
+      </c>
+      <c r="M7" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>104.47218588640274</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>7.76</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>1160</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>4.18</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>50.512572972972968</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>23170</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>15200</v>
+      </c>
+      <c r="AC7" s="212">
+        <f t="shared" si="14"/>
+        <v>1.5320460520351862E-2</v>
+      </c>
+      <c r="AD7" s="212">
+        <f t="shared" si="15"/>
+        <v>2.8527190939159987E-2</v>
+      </c>
+      <c r="AE7" s="212">
+        <f t="shared" si="3"/>
+        <v>2.5767737380868228E-2</v>
+      </c>
+      <c r="AF7" s="212">
+        <f t="shared" si="4"/>
+        <v>-1.1482241230276588E-3</v>
+      </c>
+      <c r="AG7" s="212">
+        <f t="shared" si="5"/>
+        <v>4.3600562587904242E-2</v>
+      </c>
+      <c r="AH7" s="212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI7" s="212">
+        <f t="shared" si="7"/>
+        <v>4.8048910590455837E-2</v>
+      </c>
+      <c r="AJ7" s="212">
+        <f t="shared" si="8"/>
+        <v>5.4820415879017065E-2</v>
+      </c>
+      <c r="AK7" s="212">
+        <f t="shared" si="9"/>
+        <v>3.2676108488382954E-2</v>
+      </c>
+      <c r="AL7" s="212">
+        <f t="shared" si="10"/>
+        <v>3.6771342043635897E-3</v>
+      </c>
+      <c r="AM7" s="212">
+        <f t="shared" si="11"/>
+        <v>1.9757160384143505E-2</v>
+      </c>
+      <c r="AN7" s="212">
+        <f t="shared" si="12"/>
+        <v>7.1813879604196839E-3</v>
+      </c>
+      <c r="AO7" s="212">
+        <f t="shared" si="13"/>
+        <v>6.8056407112201109E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="195">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>1.41</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>1.37</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>1.36</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>1.34</v>
+      </c>
+      <c r="K8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>1.33</v>
+      </c>
+      <c r="M8" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>103.99604130808949</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>6.8500000000000005</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>7.76</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="T8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>30.8</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>4.16</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>50.312572972972966</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>23170</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="AC8" s="212">
+        <f t="shared" si="14"/>
+        <v>2.4385821774997665E-2</v>
+      </c>
+      <c r="AD8" s="212">
+        <f t="shared" si="15"/>
+        <v>3.2954795349735153E-2</v>
+      </c>
+      <c r="AE8" s="212">
+        <f t="shared" si="3"/>
+        <v>3.2827391457818433E-2</v>
+      </c>
+      <c r="AF8" s="212">
+        <f t="shared" si="4"/>
+        <v>-1.1482241230276588E-3</v>
+      </c>
+      <c r="AG8" s="212">
+        <f t="shared" si="5"/>
+        <v>5.0632911392404951E-2</v>
+      </c>
+      <c r="AH8" s="212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI8" s="212">
+        <f t="shared" si="7"/>
+        <v>6.4461860407861768E-2</v>
+      </c>
+      <c r="AJ8" s="212">
+        <f t="shared" si="8"/>
+        <v>6.0918348679797577E-2</v>
+      </c>
+      <c r="AK8" s="212">
+        <f t="shared" si="9"/>
+        <v>3.7304452466907341E-2</v>
+      </c>
+      <c r="AL8" s="212">
+        <f t="shared" si="10"/>
+        <v>7.6219851876177533E-3</v>
+      </c>
+      <c r="AM8" s="212">
+        <f t="shared" si="11"/>
+        <v>1.9757160384143505E-2</v>
+      </c>
+      <c r="AN8" s="212">
+        <f t="shared" si="12"/>
+        <v>1.380017870735022E-2</v>
+      </c>
+      <c r="AO8" s="212">
+        <f t="shared" si="13"/>
+        <v>8.0318822808093188E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="195">
+        <v>30.238</v>
+      </c>
+      <c r="E9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="199" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>103.5146643717728</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>1.34</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>50.112572972972963</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>23170</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>14800</v>
+      </c>
+      <c r="AC9" s="212">
+        <f t="shared" si="14"/>
+        <v>3.3451183029643672E-2</v>
+      </c>
+      <c r="AD9" s="212">
+        <f t="shared" si="15"/>
+        <v>3.7431054753833091E-2</v>
+      </c>
+      <c r="AE9" s="212">
+        <f t="shared" si="3"/>
+        <v>3.9887045534768635E-2</v>
+      </c>
+      <c r="AF9" s="212">
+        <f t="shared" si="4"/>
+        <v>1.4191534104838035E-4</v>
+      </c>
+      <c r="AG9" s="212">
+        <f t="shared" si="5"/>
+        <v>5.7665260196905661E-2</v>
+      </c>
+      <c r="AH9" s="212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" s="212">
+        <f t="shared" si="7"/>
+        <v>8.0874810225267699E-2</v>
+      </c>
+      <c r="AJ9" s="212">
+        <f t="shared" si="8"/>
+        <v>6.7016281480578088E-2</v>
+      </c>
+      <c r="AK9" s="212">
+        <f t="shared" si="9"/>
+        <v>4.1932796445431929E-2</v>
+      </c>
+      <c r="AL9" s="212">
+        <f t="shared" si="10"/>
+        <v>1.1566836170871918E-2</v>
+      </c>
+      <c r="AM9" s="212">
+        <f t="shared" si="11"/>
+        <v>1.9757160384143505E-2</v>
+      </c>
+      <c r="AN9" s="212">
+        <f t="shared" si="12"/>
+        <v>1.380017870735022E-2</v>
+      </c>
+      <c r="AO9" s="212">
+        <f t="shared" si="13"/>
+        <v>9.258123850398528E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="195">
+        <v>1218.55</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>1220</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>1180</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>1160</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>1140</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>1120</v>
+      </c>
+      <c r="K10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>1100</v>
+      </c>
+      <c r="M10" s="199" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>103.03328743545609</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>30.400000000000002</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>49.91257297297296</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>23170</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>14600</v>
+      </c>
+      <c r="AC10" s="212">
+        <f t="shared" si="14"/>
+        <v>4.2516544284289678E-2</v>
+      </c>
+      <c r="AD10" s="212">
+        <f t="shared" si="15"/>
+        <v>4.1907314157931162E-2</v>
+      </c>
+      <c r="AE10" s="212">
+        <f t="shared" si="3"/>
+        <v>4.6946699611718969E-2</v>
+      </c>
+      <c r="AF10" s="212">
+        <f t="shared" si="4"/>
+        <v>1.4191534104838035E-4</v>
+      </c>
+      <c r="AG10" s="212">
+        <f t="shared" si="5"/>
+        <v>6.4697609001406378E-2</v>
+      </c>
+      <c r="AH10" s="212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" s="212">
+        <f t="shared" si="7"/>
+        <v>9.7287760042673629E-2</v>
+      </c>
+      <c r="AJ10" s="212">
+        <f t="shared" si="8"/>
+        <v>7.31142142813586E-2</v>
+      </c>
+      <c r="AK10" s="212">
+        <f t="shared" si="9"/>
+        <v>5.118948440248091E-2</v>
+      </c>
+      <c r="AL10" s="212">
+        <f t="shared" si="10"/>
+        <v>1.5511687154126081E-2</v>
+      </c>
+      <c r="AM10" s="212">
+        <f t="shared" si="11"/>
+        <v>1.9757160384143505E-2</v>
+      </c>
+      <c r="AN10" s="212">
+        <f t="shared" si="12"/>
+        <v>2.0418969454280754E-2</v>
+      </c>
+      <c r="AO10" s="212">
+        <f t="shared" si="13"/>
+        <v>0.10484365419987737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="195">
+        <v>32.798000000000002</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>31.75</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>31.2</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>30.8</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>30.6</v>
+      </c>
+      <c r="K11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>30.400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="195">
+        <v>4.3212000000000002</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>4.18</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>4.16</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="195">
+        <v>50.698999999999998</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>51.879915966386555</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>51.296244469679763</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>50.712572972972971</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>50.512572972972968</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>50.312572972972966</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>50.112572972972963</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>49.91257297297296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="195">
+        <v>23637</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>23300</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>23250</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>23200</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>23170</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>23170</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>23170</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>23170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="195">
+        <v>75.542500000000004</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>75.5</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>75.5</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>74.5</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>74.5</v>
+      </c>
+      <c r="K15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="195">
+        <v>16310</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>15800</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>15600</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>15400</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>15200</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>14800</v>
+      </c>
+      <c r="K16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>14600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1673DA70-EE94-4E41-B04A-7180976D976E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9201CC-514F-4E81-86C0-33FDB32A81FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="168" formatCode="mmm\ d"/>
+    <numFmt numFmtId="167" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -958,19 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,6 +1002,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,8 +1341,8 @@
   </sheetPr>
   <dimension ref="A3:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView showGridLines="0" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
@@ -1390,13 +1390,13 @@
       <c r="C5" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55" t="s">
         <v>32</v>
@@ -1404,12 +1404,12 @@
       <c r="K5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
       <c r="Q5" s="57" t="s">
         <v>5</v>
       </c>
@@ -1517,38 +1517,38 @@
       <c r="D9" s="70">
         <v>6.9</v>
       </c>
-      <c r="E9" s="128">
+      <c r="E9" s="123">
         <v>6.6</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="123">
         <v>6.1</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="123">
         <v>2</v>
       </c>
-      <c r="H9" s="128">
+      <c r="H9" s="123">
         <v>5.6</v>
       </c>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128">
+      <c r="I9" s="123"/>
+      <c r="J9" s="123">
         <v>1.4</v>
       </c>
-      <c r="K9" s="128">
+      <c r="K9" s="123">
         <v>2</v>
       </c>
-      <c r="L9" s="128">
+      <c r="L9" s="123">
         <v>1.6</v>
       </c>
-      <c r="M9" s="128">
+      <c r="M9" s="123">
         <v>2.1</v>
       </c>
-      <c r="N9" s="128">
+      <c r="N9" s="123">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O9" s="128">
+      <c r="O9" s="123">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P9" s="128">
+      <c r="P9" s="123">
         <v>2.5</v>
       </c>
       <c r="Q9" s="71">
@@ -1576,38 +1576,38 @@
       <c r="D10" s="70">
         <v>3.8</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="123">
         <v>3</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="123">
         <v>-1.2</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="123">
         <v>-4</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="123">
         <v>1.5</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128">
+      <c r="I10" s="123"/>
+      <c r="J10" s="123">
         <v>3</v>
       </c>
-      <c r="K10" s="128">
+      <c r="K10" s="123">
         <v>2.4</v>
       </c>
-      <c r="L10" s="128">
+      <c r="L10" s="123">
         <v>1.5</v>
       </c>
-      <c r="M10" s="128">
+      <c r="M10" s="123">
         <v>2.4</v>
       </c>
-      <c r="N10" s="128">
+      <c r="N10" s="123">
         <v>2.7</v>
       </c>
-      <c r="O10" s="128">
+      <c r="O10" s="123">
         <v>2.5</v>
       </c>
-      <c r="P10" s="128">
+      <c r="P10" s="123">
         <v>2.5</v>
       </c>
       <c r="Q10" s="71">
@@ -1635,38 +1635,38 @@
       <c r="D11" s="70">
         <v>6.9</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="123">
         <v>6.8</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="123">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="123">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="123">
         <v>4</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128">
+      <c r="I11" s="123"/>
+      <c r="J11" s="123">
         <v>5.967008052399378</v>
       </c>
-      <c r="K11" s="128">
+      <c r="K11" s="123">
         <v>4.9096291370985332</v>
       </c>
-      <c r="L11" s="128">
+      <c r="L11" s="123">
         <v>3.3</v>
       </c>
-      <c r="M11" s="128">
+      <c r="M11" s="123">
         <v>4</v>
       </c>
-      <c r="N11" s="128">
+      <c r="N11" s="123">
         <v>3.7</v>
       </c>
-      <c r="O11" s="128">
+      <c r="O11" s="123">
         <v>4.8</v>
       </c>
-      <c r="P11" s="128">
+      <c r="P11" s="123">
         <v>3.5</v>
       </c>
       <c r="Q11" s="71">
@@ -1690,34 +1690,34 @@
       <c r="D12" s="86">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E12" s="129">
+      <c r="E12" s="124">
         <v>6.2</v>
       </c>
-      <c r="F12" s="129">
+      <c r="F12" s="124">
         <v>4.2</v>
       </c>
-      <c r="G12" s="129">
+      <c r="G12" s="124">
         <v>-4.8</v>
       </c>
-      <c r="H12" s="129">
+      <c r="H12" s="124">
         <v>4.5</v>
       </c>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129">
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124">
         <v>4.5</v>
       </c>
-      <c r="M12" s="129">
+      <c r="M12" s="124">
         <v>3.4</v>
       </c>
-      <c r="N12" s="129">
+      <c r="N12" s="124">
         <v>4.8</v>
       </c>
-      <c r="O12" s="129">
+      <c r="O12" s="124">
         <v>3.9</v>
       </c>
-      <c r="P12" s="129">
+      <c r="P12" s="124">
         <v>4.0999999999999996</v>
       </c>
       <c r="Q12" s="87"/>
@@ -1737,38 +1737,38 @@
       <c r="D13" s="70">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="123">
         <v>5.2</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="123">
         <v>5</v>
       </c>
-      <c r="G13" s="128">
+      <c r="G13" s="123">
         <v>-1</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="123">
         <v>3.5</v>
       </c>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128">
+      <c r="I13" s="123"/>
+      <c r="J13" s="123">
         <v>6.4</v>
       </c>
-      <c r="K13" s="128">
+      <c r="K13" s="123">
         <v>3.5</v>
       </c>
-      <c r="L13" s="128">
+      <c r="L13" s="123">
         <v>3.8</v>
       </c>
-      <c r="M13" s="128">
+      <c r="M13" s="123">
         <v>3.2</v>
       </c>
-      <c r="N13" s="128">
+      <c r="N13" s="123">
         <v>2.8</v>
       </c>
-      <c r="O13" s="128">
+      <c r="O13" s="123">
         <v>2.7</v>
       </c>
-      <c r="P13" s="128">
+      <c r="P13" s="123">
         <v>3</v>
       </c>
       <c r="Q13" s="71">
@@ -1796,38 +1796,38 @@
       <c r="D14" s="74">
         <v>5.9</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="123">
         <v>4.7</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="123">
         <v>4.3</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="123">
         <v>-1.6</v>
       </c>
-      <c r="H14" s="128">
+      <c r="H14" s="123">
         <v>3.2</v>
       </c>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128">
+      <c r="I14" s="123"/>
+      <c r="J14" s="123">
         <v>2.1</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="123">
         <v>2.1</v>
       </c>
-      <c r="L14" s="128">
+      <c r="L14" s="123">
         <v>3.8</v>
       </c>
-      <c r="M14" s="128">
+      <c r="M14" s="123">
         <v>1</v>
       </c>
-      <c r="N14" s="128">
+      <c r="N14" s="123">
         <v>0.7</v>
       </c>
-      <c r="O14" s="128">
-        <v>-0.4</v>
-      </c>
-      <c r="P14" s="128">
+      <c r="O14" s="123">
+        <v>-1.5</v>
+      </c>
+      <c r="P14" s="123">
         <v>1.8</v>
       </c>
       <c r="Q14" s="71">
@@ -1855,38 +1855,38 @@
       <c r="D15" s="70">
         <v>6.7</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="123">
         <v>6.2</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="123">
         <v>5.9</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="123">
         <v>-2.5</v>
       </c>
-      <c r="H15" s="128">
+      <c r="H15" s="123">
         <v>3.5</v>
       </c>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128">
+      <c r="I15" s="123"/>
+      <c r="J15" s="123">
         <v>1.4</v>
       </c>
-      <c r="K15" s="128">
+      <c r="K15" s="123">
         <v>1.3</v>
       </c>
-      <c r="L15" s="128">
+      <c r="L15" s="123">
         <v>2.9</v>
       </c>
-      <c r="M15" s="128">
+      <c r="M15" s="123">
         <v>5.2</v>
       </c>
-      <c r="N15" s="128">
+      <c r="N15" s="123">
         <v>2.5</v>
       </c>
-      <c r="O15" s="128">
+      <c r="O15" s="123">
         <v>2.4</v>
       </c>
-      <c r="P15" s="128">
+      <c r="P15" s="123">
         <v>3</v>
       </c>
       <c r="Q15" s="71">
@@ -1914,38 +1914,38 @@
       <c r="D16" s="81">
         <v>3.9</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E16" s="123">
         <v>3.1</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="123">
         <v>0.7</v>
       </c>
-      <c r="G16" s="128">
+      <c r="G16" s="123">
         <v>-5.7</v>
       </c>
-      <c r="H16" s="128">
+      <c r="H16" s="123">
         <v>3.5</v>
       </c>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128">
+      <c r="I16" s="123"/>
+      <c r="J16" s="123">
         <v>-0.5</v>
       </c>
-      <c r="K16" s="128">
+      <c r="K16" s="123">
         <v>-0.5</v>
       </c>
-      <c r="L16" s="128">
+      <c r="L16" s="123">
         <v>0.6</v>
       </c>
-      <c r="M16" s="128">
+      <c r="M16" s="123">
         <v>0.4</v>
       </c>
-      <c r="N16" s="128">
+      <c r="N16" s="123">
         <v>0.6</v>
       </c>
-      <c r="O16" s="128">
+      <c r="O16" s="123">
         <v>-0.7</v>
       </c>
-      <c r="P16" s="128">
+      <c r="P16" s="123">
         <v>1.5</v>
       </c>
       <c r="Q16" s="83">
@@ -1973,38 +1973,38 @@
       <c r="D17" s="70">
         <v>3.1</v>
       </c>
-      <c r="E17" s="128">
+      <c r="E17" s="123">
         <v>2.7</v>
       </c>
-      <c r="F17" s="128">
+      <c r="F17" s="123">
         <v>2</v>
       </c>
-      <c r="G17" s="128">
+      <c r="G17" s="123">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H17" s="128">
+      <c r="H17" s="123">
         <v>2.9</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128">
+      <c r="I17" s="123"/>
+      <c r="J17" s="123">
         <v>0.7</v>
       </c>
-      <c r="K17" s="128">
+      <c r="K17" s="123">
         <v>1</v>
       </c>
-      <c r="L17" s="128">
+      <c r="L17" s="123">
         <v>1.9</v>
       </c>
-      <c r="M17" s="128">
+      <c r="M17" s="123">
         <v>1.5</v>
       </c>
-      <c r="N17" s="128">
+      <c r="N17" s="123">
         <v>0.4</v>
       </c>
-      <c r="O17" s="128">
+      <c r="O17" s="123">
         <v>0.2</v>
       </c>
-      <c r="P17" s="128">
+      <c r="P17" s="123">
         <v>0.5</v>
       </c>
       <c r="Q17" s="71">
@@ -2032,38 +2032,38 @@
       <c r="D18" s="70">
         <v>3.1</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="123">
         <v>2.7</v>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="123">
         <v>2.7</v>
       </c>
-      <c r="G18" s="128">
+      <c r="G18" s="123">
         <v>-1</v>
       </c>
-      <c r="H18" s="128">
+      <c r="H18" s="123">
         <v>2.9</v>
       </c>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128">
+      <c r="I18" s="123"/>
+      <c r="J18" s="123">
         <v>-0.3</v>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="123">
         <v>1.4</v>
       </c>
-      <c r="L18" s="128">
+      <c r="L18" s="123">
         <v>0.6</v>
       </c>
-      <c r="M18" s="128">
+      <c r="M18" s="123">
         <v>1.3</v>
       </c>
-      <c r="N18" s="128">
+      <c r="N18" s="123">
         <v>0.6</v>
       </c>
-      <c r="O18" s="128">
+      <c r="O18" s="123">
         <v>0.1</v>
       </c>
-      <c r="P18" s="128">
+      <c r="P18" s="123">
         <v>0.5</v>
       </c>
       <c r="Q18" s="71">
@@ -2091,38 +2091,38 @@
       <c r="D19" s="70">
         <v>3.3</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="123">
         <v>4.2</v>
       </c>
-      <c r="F19" s="128">
+      <c r="F19" s="123">
         <v>2.4</v>
       </c>
-      <c r="G19" s="128">
+      <c r="G19" s="123">
         <v>-5.5</v>
       </c>
-      <c r="H19" s="128">
+      <c r="H19" s="123">
         <v>2</v>
       </c>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128">
+      <c r="I19" s="123"/>
+      <c r="J19" s="123">
         <v>-0.9</v>
       </c>
-      <c r="K19" s="128">
+      <c r="K19" s="123">
         <v>0.2</v>
       </c>
-      <c r="L19" s="128">
+      <c r="L19" s="123">
         <v>0.7</v>
       </c>
-      <c r="M19" s="128">
+      <c r="M19" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N19" s="128">
+      <c r="N19" s="123">
         <v>0.7</v>
       </c>
-      <c r="O19" s="128">
+      <c r="O19" s="123">
         <v>-2.5</v>
       </c>
-      <c r="P19" s="128">
+      <c r="P19" s="123">
         <v>1</v>
       </c>
       <c r="Q19" s="71"/>
@@ -2142,38 +2142,38 @@
       <c r="D20" s="74">
         <v>6.8</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="125">
         <v>7.1</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="126">
         <v>7</v>
       </c>
-      <c r="G20" s="130">
+      <c r="G20" s="125">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H20" s="128">
+      <c r="H20" s="123">
         <v>6.2</v>
       </c>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128">
+      <c r="I20" s="123"/>
+      <c r="J20" s="123">
         <v>0.6</v>
       </c>
-      <c r="K20" s="128">
+      <c r="K20" s="123">
         <v>2.7</v>
       </c>
-      <c r="L20" s="128">
+      <c r="L20" s="123">
         <v>3.5</v>
       </c>
-      <c r="M20" s="128">
+      <c r="M20" s="123">
         <v>3.5</v>
       </c>
-      <c r="N20" s="128">
+      <c r="N20" s="123">
         <v>2.8</v>
       </c>
-      <c r="O20" s="128">
+      <c r="O20" s="123">
         <v>2.6</v>
       </c>
-      <c r="P20" s="128">
+      <c r="P20" s="123">
         <v>3</v>
       </c>
       <c r="Q20" s="71">
@@ -2230,38 +2230,38 @@
       <c r="D22" s="70">
         <v>2.5</v>
       </c>
-      <c r="E22" s="128">
+      <c r="E22" s="123">
         <v>1.9</v>
       </c>
-      <c r="F22" s="128">
+      <c r="F22" s="123">
         <v>0.9</v>
       </c>
-      <c r="G22" s="128">
+      <c r="G22" s="123">
         <v>-8</v>
       </c>
-      <c r="H22" s="128">
+      <c r="H22" s="123">
         <v>1.5</v>
       </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128">
+      <c r="I22" s="123"/>
+      <c r="J22" s="123">
         <v>0</v>
       </c>
-      <c r="K22" s="128">
+      <c r="K22" s="123">
         <v>0.2</v>
       </c>
-      <c r="L22" s="128">
+      <c r="L22" s="123">
         <v>1.5</v>
       </c>
-      <c r="M22" s="128">
+      <c r="M22" s="123">
         <v>1.8</v>
       </c>
-      <c r="N22" s="128">
+      <c r="N22" s="123">
         <v>1.2</v>
       </c>
-      <c r="O22" s="128">
+      <c r="O22" s="123">
         <v>1</v>
       </c>
-      <c r="P22" s="128">
+      <c r="P22" s="123">
         <v>1.2</v>
       </c>
       <c r="Q22" s="71">
@@ -2289,38 +2289,38 @@
       <c r="D23" s="70">
         <v>1.9</v>
       </c>
-      <c r="E23" s="128">
+      <c r="E23" s="123">
         <v>0.3</v>
       </c>
-      <c r="F23" s="128">
+      <c r="F23" s="123">
         <v>0.7</v>
       </c>
-      <c r="G23" s="128">
+      <c r="G23" s="123">
         <v>-3</v>
       </c>
-      <c r="H23" s="128">
+      <c r="H23" s="123">
         <v>2.8</v>
       </c>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128">
+      <c r="I23" s="123"/>
+      <c r="J23" s="123">
         <v>0.8</v>
       </c>
-      <c r="K23" s="128">
+      <c r="K23" s="123">
         <v>-0.1</v>
       </c>
-      <c r="L23" s="128">
+      <c r="L23" s="123">
         <v>0.5</v>
       </c>
-      <c r="M23" s="128">
+      <c r="M23" s="123">
         <v>1</v>
       </c>
-      <c r="N23" s="128">
+      <c r="N23" s="123">
         <v>0.5</v>
       </c>
-      <c r="O23" s="128">
+      <c r="O23" s="123">
         <v>-0.1</v>
       </c>
-      <c r="P23" s="128">
+      <c r="P23" s="123">
         <v>0</v>
       </c>
       <c r="Q23" s="71">
@@ -2348,38 +2348,38 @@
       <c r="D24" s="70">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="123">
         <v>2.9</v>
       </c>
-      <c r="F24" s="128">
+      <c r="F24" s="123">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G24" s="128">
+      <c r="G24" s="123">
         <v>-5</v>
       </c>
-      <c r="H24" s="128">
+      <c r="H24" s="123">
         <v>5</v>
       </c>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128">
+      <c r="I24" s="123"/>
+      <c r="J24" s="123">
         <v>0.1</v>
       </c>
-      <c r="K24" s="128">
+      <c r="K24" s="123">
         <v>1.3</v>
       </c>
-      <c r="L24" s="128">
+      <c r="L24" s="123">
         <v>2.1</v>
       </c>
-      <c r="M24" s="128">
+      <c r="M24" s="123">
         <v>1.9</v>
       </c>
-      <c r="N24" s="128">
+      <c r="N24" s="123">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O24" s="128">
+      <c r="O24" s="123">
         <v>1.3</v>
       </c>
-      <c r="P24" s="128">
+      <c r="P24" s="123">
         <v>1.5</v>
       </c>
       <c r="Q24" s="71">
@@ -2635,18 +2635,18 @@
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
       <c r="I38" s="56"/>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
+      <c r="O38" s="142"/>
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
     </row>
@@ -2725,8 +2725,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A6:V43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView showGridLines="0" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
@@ -2754,22 +2754,22 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
     </row>
     <row r="7" spans="1:22" s="31" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="27"/>
@@ -2780,20 +2780,20 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
     </row>
     <row r="8" spans="1:22" s="31" customFormat="1" ht="13">
       <c r="A8" s="98"/>
@@ -2911,29 +2911,29 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="M10" s="104"/>
-      <c r="N10" s="132">
+      <c r="N10" s="127">
         <v>4.3499999999999996</v>
       </c>
-      <c r="O10" s="132">
+      <c r="O10" s="127">
         <v>3.85</v>
       </c>
-      <c r="P10" s="132">
+      <c r="P10" s="127">
         <v>3.7</v>
       </c>
-      <c r="Q10" s="132">
+      <c r="Q10" s="127">
         <v>3.55</v>
       </c>
-      <c r="R10" s="133"/>
-      <c r="S10" s="134">
+      <c r="R10" s="128"/>
+      <c r="S10" s="129">
         <v>3.55</v>
       </c>
-      <c r="T10" s="134">
+      <c r="T10" s="129">
         <v>3.55</v>
       </c>
-      <c r="U10" s="134">
+      <c r="U10" s="129">
         <v>3.55</v>
       </c>
-      <c r="V10" s="134">
+      <c r="V10" s="129">
         <v>3.55</v>
       </c>
     </row>
@@ -2971,29 +2971,29 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="M11" s="102"/>
-      <c r="N11" s="134">
+      <c r="N11" s="129">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O11" s="134">
+      <c r="O11" s="129">
         <v>4</v>
       </c>
-      <c r="P11" s="134">
+      <c r="P11" s="129">
         <v>3.65</v>
       </c>
-      <c r="Q11" s="134">
+      <c r="Q11" s="129">
         <v>3.65</v>
       </c>
-      <c r="R11" s="133"/>
-      <c r="S11" s="134">
+      <c r="R11" s="128"/>
+      <c r="S11" s="129">
         <v>3.65</v>
       </c>
-      <c r="T11" s="134">
+      <c r="T11" s="129">
         <v>3.65</v>
       </c>
-      <c r="U11" s="134">
+      <c r="U11" s="129">
         <v>3.65</v>
       </c>
-      <c r="V11" s="134">
+      <c r="V11" s="129">
         <v>3.65</v>
       </c>
     </row>
@@ -3032,30 +3032,30 @@
         <v>5</v>
       </c>
       <c r="M12" s="102"/>
-      <c r="N12" s="135">
+      <c r="N12" s="130">
         <v>4.5</v>
       </c>
-      <c r="O12" s="135">
-        <v>4.5</v>
-      </c>
-      <c r="P12" s="135">
+      <c r="O12" s="130">
         <v>4.25</v>
       </c>
-      <c r="Q12" s="135">
-        <v>4.25</v>
-      </c>
-      <c r="R12" s="133"/>
-      <c r="S12" s="135">
-        <v>4.25</v>
-      </c>
-      <c r="T12" s="135">
-        <v>4.25</v>
-      </c>
-      <c r="U12" s="135">
-        <v>4.25</v>
-      </c>
-      <c r="V12" s="135">
-        <v>4.25</v>
+      <c r="P12" s="130">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="130">
+        <v>4</v>
+      </c>
+      <c r="R12" s="128"/>
+      <c r="S12" s="130">
+        <v>4</v>
+      </c>
+      <c r="T12" s="130">
+        <v>4</v>
+      </c>
+      <c r="U12" s="130">
+        <v>4</v>
+      </c>
+      <c r="V12" s="130">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3094,30 +3094,30 @@
         <v>3</v>
       </c>
       <c r="M13" s="102"/>
-      <c r="N13" s="134">
+      <c r="N13" s="129">
         <v>2.5</v>
       </c>
-      <c r="O13" s="134">
+      <c r="O13" s="129">
         <v>2</v>
       </c>
-      <c r="P13" s="134">
+      <c r="P13" s="129">
+        <v>1.75</v>
+      </c>
+      <c r="Q13" s="129">
+        <v>1.75</v>
+      </c>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129">
+        <v>1.75</v>
+      </c>
+      <c r="T13" s="129">
+        <v>1.75</v>
+      </c>
+      <c r="U13" s="129">
         <v>2</v>
       </c>
-      <c r="Q13" s="134">
+      <c r="V13" s="129">
         <v>2</v>
-      </c>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134">
-        <v>2</v>
-      </c>
-      <c r="T13" s="134">
-        <v>2</v>
-      </c>
-      <c r="U13" s="134">
-        <v>2.25</v>
-      </c>
-      <c r="V13" s="134">
-        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3155,29 +3155,29 @@
         <v>4</v>
       </c>
       <c r="M14" s="102"/>
-      <c r="N14" s="134">
+      <c r="N14" s="129">
         <v>3.25</v>
       </c>
-      <c r="O14" s="134">
+      <c r="O14" s="129">
         <v>2.25</v>
       </c>
-      <c r="P14" s="134">
+      <c r="P14" s="129">
         <v>2</v>
       </c>
-      <c r="Q14" s="134">
+      <c r="Q14" s="129">
         <v>2</v>
       </c>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134">
+      <c r="R14" s="129"/>
+      <c r="S14" s="129">
         <v>2</v>
       </c>
-      <c r="T14" s="134">
+      <c r="T14" s="129">
         <v>2</v>
       </c>
-      <c r="U14" s="134">
+      <c r="U14" s="129">
         <v>2</v>
       </c>
-      <c r="V14" s="134">
+      <c r="V14" s="129">
         <v>2</v>
       </c>
     </row>
@@ -3215,29 +3215,29 @@
         <v>1.6</v>
       </c>
       <c r="M15" s="102"/>
-      <c r="N15" s="134">
+      <c r="N15" s="129">
         <v>0.85</v>
       </c>
-      <c r="O15" s="134">
+      <c r="O15" s="129">
         <v>0.4</v>
       </c>
-      <c r="P15" s="134">
+      <c r="P15" s="129">
         <v>0.4</v>
       </c>
-      <c r="Q15" s="134">
+      <c r="Q15" s="129">
         <v>0.4</v>
       </c>
-      <c r="R15" s="136"/>
-      <c r="S15" s="134">
+      <c r="R15" s="131"/>
+      <c r="S15" s="129">
         <v>0.4</v>
       </c>
-      <c r="T15" s="134">
+      <c r="T15" s="129">
         <v>0.4</v>
       </c>
-      <c r="U15" s="134">
+      <c r="U15" s="129">
         <v>0.4</v>
       </c>
-      <c r="V15" s="134">
+      <c r="V15" s="129">
         <v>0.4</v>
       </c>
     </row>
@@ -3275,29 +3275,29 @@
         <v>1.25</v>
       </c>
       <c r="M16" s="102"/>
-      <c r="N16" s="134">
+      <c r="N16" s="129">
         <v>0.75</v>
       </c>
-      <c r="O16" s="134">
+      <c r="O16" s="129">
         <v>0.5</v>
       </c>
-      <c r="P16" s="134">
+      <c r="P16" s="129">
         <v>0.5</v>
       </c>
-      <c r="Q16" s="134">
+      <c r="Q16" s="129">
         <v>0.5</v>
       </c>
-      <c r="R16" s="136"/>
-      <c r="S16" s="134">
+      <c r="R16" s="131"/>
+      <c r="S16" s="129">
         <v>0.5</v>
       </c>
-      <c r="T16" s="134">
+      <c r="T16" s="129">
         <v>0.5</v>
       </c>
-      <c r="U16" s="134">
+      <c r="U16" s="129">
         <v>0.5</v>
       </c>
-      <c r="V16" s="134">
+      <c r="V16" s="129">
         <v>0.75</v>
       </c>
     </row>
@@ -3335,29 +3335,29 @@
         <v>1.375</v>
       </c>
       <c r="M17" s="102"/>
-      <c r="N17" s="134">
+      <c r="N17" s="129">
         <v>1.125</v>
       </c>
-      <c r="O17" s="134">
+      <c r="O17" s="129">
+        <v>1.125</v>
+      </c>
+      <c r="P17" s="129">
         <v>1</v>
       </c>
-      <c r="P17" s="134">
+      <c r="Q17" s="129">
         <v>1</v>
       </c>
-      <c r="Q17" s="134">
+      <c r="R17" s="131"/>
+      <c r="S17" s="129">
         <v>1</v>
       </c>
-      <c r="R17" s="136"/>
-      <c r="S17" s="134">
+      <c r="T17" s="129">
         <v>1</v>
       </c>
-      <c r="T17" s="134">
+      <c r="U17" s="129">
         <v>1</v>
       </c>
-      <c r="U17" s="134">
-        <v>1</v>
-      </c>
-      <c r="V17" s="134">
+      <c r="V17" s="129">
         <v>1</v>
       </c>
     </row>
@@ -3395,29 +3395,29 @@
         <v>1.25</v>
       </c>
       <c r="M18" s="102"/>
-      <c r="N18" s="134">
+      <c r="N18" s="129">
         <v>0.75</v>
       </c>
-      <c r="O18" s="134">
+      <c r="O18" s="129">
         <v>0.5</v>
       </c>
-      <c r="P18" s="134">
+      <c r="P18" s="129">
         <v>0.25</v>
       </c>
-      <c r="Q18" s="134">
+      <c r="Q18" s="129">
         <v>0.25</v>
       </c>
-      <c r="R18" s="136"/>
-      <c r="S18" s="134">
+      <c r="R18" s="131"/>
+      <c r="S18" s="129">
         <v>0.25</v>
       </c>
-      <c r="T18" s="134">
+      <c r="T18" s="129">
         <v>0.25</v>
       </c>
-      <c r="U18" s="134">
+      <c r="U18" s="129">
         <v>0.25</v>
       </c>
-      <c r="V18" s="134">
+      <c r="V18" s="129">
         <v>0.25</v>
       </c>
     </row>
@@ -3457,29 +3457,29 @@
         <v>6</v>
       </c>
       <c r="M19" s="102"/>
-      <c r="N19" s="134">
+      <c r="N19" s="129">
         <v>5</v>
       </c>
-      <c r="O19" s="134">
-        <v>3.5</v>
-      </c>
-      <c r="P19" s="134">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" s="134">
-        <v>3.5</v>
-      </c>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134">
+      <c r="O19" s="129">
+        <v>4.5</v>
+      </c>
+      <c r="P19" s="129">
         <v>4</v>
       </c>
-      <c r="T19" s="134">
+      <c r="Q19" s="129">
+        <v>4</v>
+      </c>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129">
+        <v>4</v>
+      </c>
+      <c r="T19" s="129">
         <v>4.5</v>
       </c>
-      <c r="U19" s="134">
+      <c r="U19" s="129">
         <v>5</v>
       </c>
-      <c r="V19" s="134">
+      <c r="V19" s="129">
         <v>5</v>
       </c>
     </row>
@@ -3541,29 +3541,29 @@
         <v>0</v>
       </c>
       <c r="M21" s="102"/>
-      <c r="N21" s="134">
+      <c r="N21" s="129">
         <v>0</v>
       </c>
-      <c r="O21" s="134">
+      <c r="O21" s="129">
         <v>0</v>
       </c>
-      <c r="P21" s="134">
+      <c r="P21" s="129">
         <v>0</v>
       </c>
-      <c r="Q21" s="134">
+      <c r="Q21" s="129">
         <v>0</v>
       </c>
-      <c r="R21" s="136"/>
-      <c r="S21" s="134">
+      <c r="R21" s="131"/>
+      <c r="S21" s="129">
         <v>0</v>
       </c>
-      <c r="T21" s="134">
+      <c r="T21" s="129">
         <v>0</v>
       </c>
-      <c r="U21" s="134">
+      <c r="U21" s="129">
         <v>0</v>
       </c>
-      <c r="V21" s="134">
+      <c r="V21" s="129">
         <v>0</v>
       </c>
     </row>
@@ -3601,29 +3601,29 @@
         <v>-0.1</v>
       </c>
       <c r="M22" s="102"/>
-      <c r="N22" s="134">
+      <c r="N22" s="129">
         <v>-0.1</v>
       </c>
-      <c r="O22" s="134">
+      <c r="O22" s="129">
+        <v>-0.1</v>
+      </c>
+      <c r="P22" s="129">
         <v>-0.2</v>
       </c>
-      <c r="P22" s="134">
+      <c r="Q22" s="129">
         <v>-0.2</v>
       </c>
-      <c r="Q22" s="134">
+      <c r="R22" s="129"/>
+      <c r="S22" s="129">
         <v>-0.2</v>
       </c>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134">
+      <c r="T22" s="129">
         <v>-0.2</v>
       </c>
-      <c r="T22" s="134">
+      <c r="U22" s="129">
         <v>-0.2</v>
       </c>
-      <c r="U22" s="134">
-        <v>-0.2</v>
-      </c>
-      <c r="V22" s="134">
+      <c r="V22" s="129">
         <v>-0.2</v>
       </c>
     </row>
@@ -3661,29 +3661,29 @@
         <v>1.75</v>
       </c>
       <c r="M23" s="102"/>
-      <c r="N23" s="134">
+      <c r="N23" s="129">
         <v>0.25</v>
       </c>
-      <c r="O23" s="134">
+      <c r="O23" s="129">
         <v>0.25</v>
       </c>
-      <c r="P23" s="134">
+      <c r="P23" s="129">
         <v>0.25</v>
       </c>
-      <c r="Q23" s="134">
+      <c r="Q23" s="129">
         <v>0.25</v>
       </c>
-      <c r="R23" s="137"/>
-      <c r="S23" s="134">
+      <c r="R23" s="132"/>
+      <c r="S23" s="129">
         <v>0.25</v>
       </c>
-      <c r="T23" s="134">
+      <c r="T23" s="129">
         <v>0.25</v>
       </c>
-      <c r="U23" s="134">
+      <c r="U23" s="129">
         <v>0.25</v>
       </c>
-      <c r="V23" s="134">
+      <c r="V23" s="129">
         <v>0.25</v>
       </c>
     </row>
@@ -3890,15 +3890,15 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="125"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
     </row>
     <row r="40" spans="1:17" ht="13">
       <c r="A40" s="32"/>
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12"/>
@@ -4043,22 +4043,22 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="13">
       <c r="C6" s="2"/>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="1"/>
@@ -4144,29 +4144,29 @@
         <v>7.1</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="138">
+      <c r="I10" s="133">
         <v>7.0960000000000001</v>
       </c>
-      <c r="J10" s="138">
+      <c r="J10" s="133">
         <v>7.1000000000000005</v>
       </c>
-      <c r="K10" s="138">
+      <c r="K10" s="133">
         <v>7.08</v>
       </c>
-      <c r="L10" s="138">
+      <c r="L10" s="133">
         <v>7.0600000000000005</v>
       </c>
-      <c r="M10" s="139"/>
-      <c r="N10" s="138">
+      <c r="M10" s="134"/>
+      <c r="N10" s="133">
         <v>7.0200000000000005</v>
       </c>
-      <c r="O10" s="138">
+      <c r="O10" s="133">
         <v>6.98</v>
       </c>
-      <c r="P10" s="138">
+      <c r="P10" s="133">
         <v>6.94</v>
       </c>
-      <c r="Q10" s="138">
+      <c r="Q10" s="133">
         <v>6.9</v>
       </c>
     </row>
@@ -4191,29 +4191,29 @@
         <v>7.85</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="138">
+      <c r="I11" s="133">
         <v>7.7518000000000002</v>
       </c>
-      <c r="J11" s="138">
+      <c r="J11" s="133">
         <v>7.75</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="133">
         <v>7.75</v>
       </c>
-      <c r="L11" s="138">
+      <c r="L11" s="133">
         <v>7.76</v>
       </c>
-      <c r="M11" s="140"/>
-      <c r="N11" s="138">
+      <c r="M11" s="135"/>
+      <c r="N11" s="133">
         <v>7.76</v>
       </c>
-      <c r="O11" s="138">
+      <c r="O11" s="133">
         <v>7.77</v>
       </c>
-      <c r="P11" s="138">
+      <c r="P11" s="133">
         <v>7.77</v>
       </c>
-      <c r="Q11" s="138">
+      <c r="Q11" s="133">
         <v>7.7799999999999994</v>
       </c>
     </row>
@@ -4238,29 +4238,29 @@
         <v>71.5</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="141">
+      <c r="I12" s="136">
         <v>74.853800000000007</v>
       </c>
-      <c r="J12" s="141">
+      <c r="J12" s="136">
         <v>76</v>
       </c>
-      <c r="K12" s="141">
+      <c r="K12" s="136">
         <v>75.5</v>
       </c>
-      <c r="L12" s="141">
+      <c r="L12" s="136">
         <v>75</v>
       </c>
-      <c r="M12" s="139"/>
-      <c r="N12" s="141">
+      <c r="M12" s="134"/>
+      <c r="N12" s="136">
         <v>74.5</v>
       </c>
-      <c r="O12" s="141">
+      <c r="O12" s="136">
         <v>74</v>
       </c>
-      <c r="P12" s="141">
+      <c r="P12" s="136">
         <v>73.5</v>
       </c>
-      <c r="Q12" s="141">
+      <c r="Q12" s="136">
         <v>73</v>
       </c>
     </row>
@@ -4285,29 +4285,29 @@
         <v>14100</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="142">
+      <c r="I13" s="137">
         <v>16000</v>
       </c>
-      <c r="J13" s="142">
+      <c r="J13" s="137">
         <v>14600</v>
       </c>
-      <c r="K13" s="142">
+      <c r="K13" s="137">
         <v>14500</v>
       </c>
-      <c r="L13" s="142">
+      <c r="L13" s="137">
         <v>14400</v>
       </c>
-      <c r="M13" s="139"/>
-      <c r="N13" s="142">
+      <c r="M13" s="134"/>
+      <c r="N13" s="137">
         <v>14300</v>
       </c>
-      <c r="O13" s="142">
+      <c r="O13" s="137">
         <v>14200</v>
       </c>
-      <c r="P13" s="142">
+      <c r="P13" s="137">
         <v>14100</v>
       </c>
-      <c r="Q13" s="142">
+      <c r="Q13" s="137">
         <v>14000</v>
       </c>
     </row>
@@ -4332,29 +4332,29 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="143">
+      <c r="I14" s="138">
         <v>4.3369999999999997</v>
       </c>
-      <c r="J14" s="143">
+      <c r="J14" s="138">
         <v>4.32</v>
       </c>
-      <c r="K14" s="143">
+      <c r="K14" s="138">
         <v>4.3</v>
       </c>
-      <c r="L14" s="143">
+      <c r="L14" s="138">
         <v>4.28</v>
       </c>
-      <c r="M14" s="139"/>
-      <c r="N14" s="143">
+      <c r="M14" s="134"/>
+      <c r="N14" s="138">
         <v>4.26</v>
       </c>
-      <c r="O14" s="143">
+      <c r="O14" s="138">
         <v>4.24</v>
       </c>
-      <c r="P14" s="143">
+      <c r="P14" s="138">
         <v>4.22</v>
       </c>
-      <c r="Q14" s="143">
+      <c r="Q14" s="138">
         <v>4.2</v>
       </c>
     </row>
@@ -4379,29 +4379,29 @@
         <v>51</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="141">
+      <c r="I15" s="136">
         <v>50.976999999999997</v>
       </c>
-      <c r="J15" s="141">
+      <c r="J15" s="136">
         <v>51</v>
       </c>
-      <c r="K15" s="141">
+      <c r="K15" s="136">
         <v>51</v>
       </c>
-      <c r="L15" s="141">
+      <c r="L15" s="136">
         <v>51</v>
       </c>
-      <c r="M15" s="139"/>
-      <c r="N15" s="141">
+      <c r="M15" s="134"/>
+      <c r="N15" s="136">
         <v>50.8</v>
       </c>
-      <c r="O15" s="141">
+      <c r="O15" s="136">
         <v>50.6</v>
       </c>
-      <c r="P15" s="141">
+      <c r="P15" s="136">
         <v>50.4</v>
       </c>
-      <c r="Q15" s="141">
+      <c r="Q15" s="136">
         <v>50.2</v>
       </c>
     </row>
@@ -4426,29 +4426,29 @@
         <v>1.38</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="143">
+      <c r="I16" s="138">
         <v>1.4268000000000001</v>
       </c>
-      <c r="J16" s="143">
+      <c r="J16" s="138">
         <v>1.41</v>
       </c>
-      <c r="K16" s="143">
+      <c r="K16" s="138">
         <v>1.4</v>
       </c>
-      <c r="L16" s="143">
+      <c r="L16" s="138">
         <v>1.39</v>
       </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="143">
+      <c r="M16" s="139"/>
+      <c r="N16" s="138">
         <v>1.38</v>
       </c>
-      <c r="O16" s="143">
+      <c r="O16" s="138">
         <v>1.3699999999999999</v>
       </c>
-      <c r="P16" s="143">
+      <c r="P16" s="138">
         <v>1.3599999999999999</v>
       </c>
-      <c r="Q16" s="143">
+      <c r="Q16" s="138">
         <v>1.3499999999999999</v>
       </c>
     </row>
@@ -4473,29 +4473,29 @@
         <v>1170</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="142">
+      <c r="I17" s="137">
         <v>1211.03</v>
       </c>
-      <c r="J17" s="142">
+      <c r="J17" s="137">
         <v>1230</v>
       </c>
-      <c r="K17" s="142">
+      <c r="K17" s="137">
         <v>1220</v>
       </c>
-      <c r="L17" s="142">
+      <c r="L17" s="137">
         <v>1210</v>
       </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="142">
+      <c r="M17" s="139"/>
+      <c r="N17" s="137">
         <v>1200</v>
       </c>
-      <c r="O17" s="142">
+      <c r="O17" s="137">
         <v>1190</v>
       </c>
-      <c r="P17" s="142">
+      <c r="P17" s="137">
         <v>1180</v>
       </c>
-      <c r="Q17" s="142">
+      <c r="Q17" s="137">
         <v>1170</v>
       </c>
     </row>
@@ -4520,29 +4520,29 @@
         <v>30.5</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="141">
+      <c r="I18" s="136">
         <v>32.564999999999998</v>
       </c>
-      <c r="J18" s="141">
+      <c r="J18" s="136">
         <v>31.8</v>
       </c>
-      <c r="K18" s="141">
+      <c r="K18" s="136">
         <v>31.700000000000003</v>
       </c>
-      <c r="L18" s="141">
+      <c r="L18" s="136">
         <v>31.6</v>
       </c>
-      <c r="M18" s="144"/>
-      <c r="N18" s="141">
+      <c r="M18" s="139"/>
+      <c r="N18" s="136">
         <v>31.5</v>
       </c>
-      <c r="O18" s="141">
+      <c r="O18" s="136">
         <v>31.400000000000002</v>
       </c>
-      <c r="P18" s="141">
+      <c r="P18" s="136">
         <v>31.3</v>
       </c>
-      <c r="Q18" s="141">
+      <c r="Q18" s="136">
         <v>31.200000000000003</v>
       </c>
     </row>
@@ -4567,29 +4567,29 @@
         <v>23200</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="142">
+      <c r="I19" s="137">
         <v>23625</v>
       </c>
-      <c r="J19" s="142">
+      <c r="J19" s="137">
         <v>23270</v>
       </c>
-      <c r="K19" s="142">
+      <c r="K19" s="137">
         <v>23250</v>
       </c>
-      <c r="L19" s="142">
+      <c r="L19" s="137">
         <v>23230</v>
       </c>
-      <c r="M19" s="144"/>
-      <c r="N19" s="142">
+      <c r="M19" s="139"/>
+      <c r="N19" s="137">
         <v>23220</v>
       </c>
-      <c r="O19" s="142">
+      <c r="O19" s="137">
         <v>23200</v>
       </c>
-      <c r="P19" s="142">
+      <c r="P19" s="137">
         <v>23190</v>
       </c>
-      <c r="Q19" s="142">
+      <c r="Q19" s="137">
         <v>23170</v>
       </c>
     </row>
@@ -4632,29 +4632,29 @@
         <v>0.66</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="143">
+      <c r="I21" s="138">
         <v>0.61680000000000001</v>
       </c>
-      <c r="J21" s="143">
+      <c r="J21" s="138">
         <v>0.66</v>
       </c>
-      <c r="K21" s="143">
+      <c r="K21" s="138">
         <v>0.66666666666666674</v>
       </c>
-      <c r="L21" s="143">
+      <c r="L21" s="138">
         <v>0.67333333333333334</v>
       </c>
-      <c r="M21" s="144"/>
-      <c r="N21" s="143">
+      <c r="M21" s="139"/>
+      <c r="N21" s="138">
         <v>0.67999999999999994</v>
       </c>
-      <c r="O21" s="143">
+      <c r="O21" s="138">
         <v>0.68666666666666654</v>
       </c>
-      <c r="P21" s="143">
+      <c r="P21" s="138">
         <v>0.69333333333333313</v>
       </c>
-      <c r="Q21" s="143">
+      <c r="Q21" s="138">
         <v>0.7</v>
       </c>
     </row>
@@ -4679,29 +4679,29 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="143">
+      <c r="I22" s="138">
         <v>1.1141000000000001</v>
       </c>
-      <c r="J22" s="143">
+      <c r="J22" s="138">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K22" s="143">
+      <c r="K22" s="138">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L22" s="143">
+      <c r="L22" s="138">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M22" s="144"/>
-      <c r="N22" s="143">
+      <c r="M22" s="139"/>
+      <c r="N22" s="138">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O22" s="143">
+      <c r="O22" s="138">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P22" s="143">
+      <c r="P22" s="138">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q22" s="143">
+      <c r="Q22" s="138">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -4726,29 +4726,29 @@
         <v>109</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="142">
+      <c r="I23" s="137">
         <v>107.94</v>
       </c>
-      <c r="J23" s="142">
+      <c r="J23" s="137">
         <v>108</v>
       </c>
-      <c r="K23" s="142">
+      <c r="K23" s="137">
         <v>108</v>
       </c>
-      <c r="L23" s="142">
+      <c r="L23" s="137">
         <v>109</v>
       </c>
-      <c r="M23" s="144"/>
-      <c r="N23" s="142">
+      <c r="M23" s="139"/>
+      <c r="N23" s="137">
         <v>109</v>
       </c>
-      <c r="O23" s="142">
+      <c r="O23" s="137">
         <v>110</v>
       </c>
-      <c r="P23" s="142">
+      <c r="P23" s="137">
         <v>111</v>
       </c>
-      <c r="Q23" s="142">
+      <c r="Q23" s="137">
         <v>112</v>
       </c>
     </row>
@@ -4773,29 +4773,29 @@
         <v>1.25</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="143">
+      <c r="I24" s="138">
         <v>1.246</v>
       </c>
-      <c r="J24" s="143">
+      <c r="J24" s="138">
         <v>1.22</v>
       </c>
-      <c r="K24" s="143">
+      <c r="K24" s="138">
         <v>1.22</v>
       </c>
-      <c r="L24" s="143">
+      <c r="L24" s="138">
         <v>1.22</v>
       </c>
-      <c r="M24" s="145"/>
-      <c r="N24" s="143">
+      <c r="M24" s="140"/>
+      <c r="N24" s="138">
         <v>1.23</v>
       </c>
-      <c r="O24" s="143">
+      <c r="O24" s="138">
         <v>1.24</v>
       </c>
-      <c r="P24" s="143">
+      <c r="P24" s="138">
         <v>1.25</v>
       </c>
-      <c r="Q24" s="143">
+      <c r="Q24" s="138">
         <v>1.26</v>
       </c>
     </row>
@@ -5028,15 +5028,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="145"/>
     </row>
     <row r="41" spans="1:23" ht="13">
       <c r="A41" s="1" t="s">
@@ -5044,17 +5044,17 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="125" t="s">
+      <c r="D41" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
     </row>
     <row r="42" spans="1:23" ht="13">
       <c r="A42" s="1"/>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="E5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
@@ -6461,15 +6461,15 @@
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6559,15 +6559,15 @@
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6655,12 +6655,12 @@
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="Y7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6753,12 +6753,12 @@
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="Y8">
         <f t="shared" si="0"/>
         <v>4.5</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="E9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="F9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -7023,27 +7023,27 @@
       </c>
       <c r="F12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="I12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="J12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -7097,15 +7097,15 @@
       </c>
       <c r="E14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
@@ -7175,31 +7175,31 @@
       </c>
       <c r="E16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>4.25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7212,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA66C54-171D-4A74-B9A8-7B1D6A62280E}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>

--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\dashboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9201CC-514F-4E81-86C0-33FDB32A81FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F890CA0-6D00-47DB-9A0B-AA36CD8C4B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
   </sheetPr>
   <dimension ref="A3:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:P24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
@@ -1583,10 +1583,10 @@
         <v>-1.2</v>
       </c>
       <c r="G10" s="123">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="H10" s="123">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="123"/>
       <c r="J10" s="123">
@@ -1605,10 +1605,10 @@
         <v>2.7</v>
       </c>
       <c r="O10" s="123">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P10" s="123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="71">
         <v>1</v>
@@ -1642,10 +1642,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G11" s="123">
-        <v>-4.4000000000000004</v>
+        <v>-5.7</v>
       </c>
       <c r="H11" s="123">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I11" s="123"/>
       <c r="J11" s="123">
@@ -1664,10 +1664,10 @@
         <v>3.7</v>
       </c>
       <c r="O11" s="123">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="P11" s="123">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q11" s="71">
         <v>1.8</v>
@@ -1697,10 +1697,10 @@
         <v>4.2</v>
       </c>
       <c r="G12" s="124">
-        <v>-4.8</v>
+        <v>-6</v>
       </c>
       <c r="H12" s="124">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I12" s="124"/>
       <c r="J12" s="124"/>
@@ -1715,10 +1715,10 @@
         <v>4.8</v>
       </c>
       <c r="O12" s="124">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="P12" s="124">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q12" s="87"/>
       <c r="R12" s="88"/>
@@ -1862,10 +1862,10 @@
         <v>5.9</v>
       </c>
       <c r="G15" s="123">
-        <v>-2.5</v>
+        <v>-6.2</v>
       </c>
       <c r="H15" s="123">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I15" s="123"/>
       <c r="J15" s="123">
@@ -1921,10 +1921,10 @@
         <v>0.7</v>
       </c>
       <c r="G16" s="123">
-        <v>-5.7</v>
+        <v>-6.5</v>
       </c>
       <c r="H16" s="123">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I16" s="123"/>
       <c r="J16" s="123">
@@ -2039,7 +2039,7 @@
         <v>2.7</v>
       </c>
       <c r="G18" s="123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="123">
         <v>2.9</v>
@@ -2098,10 +2098,10 @@
         <v>2.4</v>
       </c>
       <c r="G19" s="123">
-        <v>-5.5</v>
+        <v>-7.5</v>
       </c>
       <c r="H19" s="123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="123"/>
       <c r="J19" s="123">
@@ -2120,7 +2120,7 @@
         <v>0.7</v>
       </c>
       <c r="O19" s="123">
-        <v>-2.5</v>
+        <v>-1.2</v>
       </c>
       <c r="P19" s="123">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="125">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="H20" s="123">
         <v>6.2</v>
@@ -2171,7 +2171,7 @@
         <v>2.8</v>
       </c>
       <c r="O20" s="123">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="P20" s="123">
         <v>3</v>
@@ -2240,7 +2240,7 @@
         <v>-8</v>
       </c>
       <c r="H22" s="123">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="123"/>
       <c r="J22" s="123">
@@ -2296,7 +2296,7 @@
         <v>0.7</v>
       </c>
       <c r="G23" s="123">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H23" s="123">
         <v>2.8</v>
@@ -2725,8 +2725,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A6:V43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:V23"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="M10" s="104"/>
       <c r="N10" s="127">
-        <v>4.3499999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="O10" s="127">
         <v>3.85</v>
@@ -2978,23 +2978,23 @@
         <v>4</v>
       </c>
       <c r="P11" s="129">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="129">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="R11" s="128"/>
       <c r="S11" s="129">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T11" s="129">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="U11" s="129">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="V11" s="129">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3039,23 +3039,23 @@
         <v>4.25</v>
       </c>
       <c r="P12" s="130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" s="130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R12" s="128"/>
       <c r="S12" s="130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T12" s="130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U12" s="130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V12" s="130">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3162,23 +3162,23 @@
         <v>2.25</v>
       </c>
       <c r="P14" s="129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" s="129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R14" s="129"/>
       <c r="S14" s="129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T14" s="129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14" s="129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" s="129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3336,29 +3336,29 @@
       </c>
       <c r="M17" s="102"/>
       <c r="N17" s="129">
-        <v>1.125</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O17" s="129">
-        <v>1.125</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P17" s="129">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="Q17" s="129">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="R17" s="131"/>
       <c r="S17" s="129">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="T17" s="129">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U17" s="129">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="V17" s="129">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3402,23 +3402,23 @@
         <v>0.5</v>
       </c>
       <c r="P18" s="129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" s="129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18" s="131"/>
       <c r="S18" s="129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="T18" s="129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U18" s="129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V18" s="129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3608,23 +3608,23 @@
         <v>-0.1</v>
       </c>
       <c r="P22" s="129">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q22" s="129">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="R22" s="129"/>
       <c r="S22" s="129">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="T22" s="129">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="U22" s="129">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="V22" s="129">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="S17" sqref="S17:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12"/>
@@ -4145,20 +4145,20 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="133">
-        <v>7.0960000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="J10" s="133">
-        <v>7.1000000000000005</v>
+        <v>7.1</v>
       </c>
       <c r="K10" s="133">
         <v>7.08</v>
       </c>
       <c r="L10" s="133">
-        <v>7.0600000000000005</v>
+        <v>7.06</v>
       </c>
       <c r="M10" s="134"/>
       <c r="N10" s="133">
-        <v>7.0200000000000005</v>
+        <v>7.02</v>
       </c>
       <c r="O10" s="133">
         <v>6.98</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="133">
-        <v>7.7518000000000002</v>
+        <v>7.75</v>
       </c>
       <c r="J11" s="133">
         <v>7.75</v>
@@ -4214,7 +4214,7 @@
         <v>7.77</v>
       </c>
       <c r="Q11" s="133">
-        <v>7.7799999999999994</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="136">
-        <v>74.853800000000007</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="J12" s="136">
         <v>76</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="138">
-        <v>4.3369999999999997</v>
+        <v>4.34</v>
       </c>
       <c r="J14" s="138">
         <v>4.32</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="136">
-        <v>50.976999999999997</v>
+        <v>51</v>
       </c>
       <c r="J15" s="136">
         <v>51</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="138">
-        <v>1.4268000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="J16" s="138">
         <v>1.41</v>
@@ -4443,13 +4443,13 @@
         <v>1.38</v>
       </c>
       <c r="O16" s="138">
-        <v>1.3699999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="P16" s="138">
-        <v>1.3599999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="Q16" s="138">
-        <v>1.3499999999999999</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="137">
-        <v>1211.03</v>
+        <v>1211</v>
       </c>
       <c r="J17" s="137">
         <v>1230</v>
@@ -4521,13 +4521,13 @@
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="136">
-        <v>32.564999999999998</v>
+        <v>32.6</v>
       </c>
       <c r="J18" s="136">
         <v>31.8</v>
       </c>
       <c r="K18" s="136">
-        <v>31.700000000000003</v>
+        <v>31.7</v>
       </c>
       <c r="L18" s="136">
         <v>31.6</v>
@@ -4537,13 +4537,13 @@
         <v>31.5</v>
       </c>
       <c r="O18" s="136">
-        <v>31.400000000000002</v>
+        <v>31.4</v>
       </c>
       <c r="P18" s="136">
         <v>31.3</v>
       </c>
       <c r="Q18" s="136">
-        <v>31.200000000000003</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
@@ -4633,26 +4633,26 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="138">
-        <v>0.61680000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="J21" s="138">
         <v>0.66</v>
       </c>
       <c r="K21" s="138">
-        <v>0.66666666666666674</v>
+        <v>0.67</v>
       </c>
       <c r="L21" s="138">
-        <v>0.67333333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="M21" s="139"/>
       <c r="N21" s="138">
-        <v>0.67999999999999994</v>
+        <v>0.68</v>
       </c>
       <c r="O21" s="138">
-        <v>0.68666666666666654</v>
+        <v>0.69</v>
       </c>
       <c r="P21" s="138">
-        <v>0.69333333333333313</v>
+        <v>0.69</v>
       </c>
       <c r="Q21" s="138">
         <v>0.7</v>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="138">
-        <v>1.1141000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J22" s="138">
         <v>1.0900000000000001</v>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="137">
-        <v>107.94</v>
+        <v>108</v>
       </c>
       <c r="J23" s="137">
         <v>108</v>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="138">
-        <v>1.246</v>
+        <v>1.25</v>
       </c>
       <c r="J24" s="138">
         <v>1.22</v>
@@ -4982,11 +4982,11 @@
       </c>
       <c r="K35" s="17">
         <f>(G10/L10-1)*100</f>
-        <v>0.56657223796032774</v>
+        <v>0.56657223796034994</v>
       </c>
       <c r="L35" s="26">
         <f t="shared" si="0"/>
-        <v>4.5665722379603277</v>
+        <v>4.5665722379603499</v>
       </c>
       <c r="W35" s="18"/>
     </row>
@@ -5639,7 +5639,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="G4">
         <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="F5">
         <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G5">
         <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
@@ -5797,11 +5797,11 @@
       </c>
       <c r="F7">
         <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G7">
         <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5821,11 +5821,11 @@
       </c>
       <c r="F8">
         <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-5.7</v>
+        <v>-6.5</v>
       </c>
       <c r="G8">
         <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="F9">
         <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
@@ -5893,11 +5893,11 @@
       </c>
       <c r="F11">
         <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-5.5</v>
+        <v>-7.5</v>
       </c>
       <c r="G11">
         <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5941,11 +5941,11 @@
       </c>
       <c r="F13">
         <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-2.5</v>
+        <v>-6.2</v>
       </c>
       <c r="G13">
         <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="G14">
         <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="F15">
         <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-4.4000000000000004</v>
+        <v>-5.7</v>
       </c>
       <c r="G15">
         <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6031,7 +6031,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6196,8 +6196,7 @@
       <c r="D3" s="113">
         <v>0.25</v>
       </c>
-      <c r="E3">
-        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E3" s="113">
         <v>0.25</v>
       </c>
       <c r="F3">
@@ -6294,8 +6293,7 @@
       <c r="D4" s="113">
         <v>0</v>
       </c>
-      <c r="E4">
-        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E4" s="113">
         <v>0</v>
       </c>
       <c r="F4">
@@ -6341,13 +6339,13 @@
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-      <c r="R4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.19955999999999999</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
@@ -6392,33 +6390,32 @@
       <c r="D5" s="113">
         <v>-0.1</v>
       </c>
-      <c r="E5">
-        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E5" s="113">
         <v>-0.1</v>
       </c>
       <c r="F5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="K5">
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M5" s="117" t="s">
         <v>57</v>
@@ -6433,7 +6430,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
@@ -6449,7 +6446,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -6457,7 +6454,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
@@ -6465,7 +6462,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
@@ -6473,11 +6470,11 @@
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6490,8 +6487,7 @@
       <c r="D6" s="113">
         <v>4.05</v>
       </c>
-      <c r="E6">
-        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E6" s="113">
         <v>3.85</v>
       </c>
       <c r="F6">
@@ -6531,7 +6527,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
@@ -6547,7 +6543,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -6555,7 +6551,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
@@ -6563,7 +6559,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
@@ -6571,11 +6567,11 @@
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6586,10 +6582,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="113"/>
-      <c r="E7" t="e">
-        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="E7" s="113"/>
       <c r="F7" t="e">
         <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
         <v>#N/A</v>
@@ -6627,7 +6620,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
@@ -6643,7 +6636,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
@@ -6651,7 +6644,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
@@ -6659,7 +6652,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
@@ -6667,11 +6660,11 @@
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6684,9 +6677,8 @@
       <c r="D8" s="116">
         <v>0.92317000000000005</v>
       </c>
-      <c r="E8">
-        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
-        <v>0.4</v>
+      <c r="E8" s="116">
+        <v>0.19955999999999999</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
@@ -6725,7 +6717,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
@@ -6741,7 +6733,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
@@ -6749,7 +6741,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
@@ -6757,7 +6749,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
@@ -6765,11 +6757,11 @@
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6782,33 +6774,32 @@
       <c r="D9" s="113">
         <v>1.125</v>
       </c>
-      <c r="E9">
-        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E9" s="113">
         <v>1.125</v>
       </c>
       <c r="F9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M9" s="117" t="s">
         <v>79</v>
@@ -6823,7 +6814,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
@@ -6839,7 +6830,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
@@ -6847,7 +6838,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
@@ -6855,7 +6846,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
@@ -6863,11 +6854,11 @@
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6880,8 +6871,7 @@
       <c r="D10" s="113">
         <v>0.75</v>
       </c>
-      <c r="E10">
-        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E10" s="113">
         <v>0.5</v>
       </c>
       <c r="F10">
@@ -6921,7 +6911,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
@@ -6937,7 +6927,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
@@ -6945,7 +6935,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
@@ -6953,7 +6943,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
@@ -6961,11 +6951,11 @@
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -6978,33 +6968,32 @@
       <c r="D11" s="113">
         <v>0.75</v>
       </c>
-      <c r="E11">
-        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E11" s="113">
         <v>0.5</v>
       </c>
       <c r="F11">
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -7017,8 +7006,7 @@
       <c r="D12" s="113">
         <v>2.5</v>
       </c>
-      <c r="E12">
-        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E12" s="113">
         <v>2</v>
       </c>
       <c r="F12">
@@ -7056,33 +7044,32 @@
       <c r="D13" s="113">
         <v>3.25</v>
       </c>
-      <c r="E13">
-        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E13" s="113">
         <v>2.25</v>
       </c>
       <c r="F13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -7095,8 +7082,7 @@
       <c r="D14" s="113">
         <v>5</v>
       </c>
-      <c r="E14">
-        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E14" s="113">
         <v>4.5</v>
       </c>
       <c r="F14">
@@ -7134,33 +7120,32 @@
       <c r="D15" s="113">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E15">
-        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E15" s="113">
         <v>4</v>
       </c>
       <c r="F15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -7173,33 +7158,32 @@
       <c r="D16" s="113">
         <v>4.5</v>
       </c>
-      <c r="E16">
-        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+      <c r="E16" s="113">
         <v>4.25</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -7213,7 +7197,7 @@
   <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7429,9 +7413,8 @@
       <c r="D3" s="113">
         <v>1</v>
       </c>
-      <c r="E3" t="e">
-        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E3" s="113">
+        <v>1</v>
       </c>
       <c r="F3" t="e">
         <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -7569,9 +7552,8 @@
       <c r="D4" s="113">
         <v>1.1031</v>
       </c>
-      <c r="E4">
-        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>1.0900000000000001</v>
+      <c r="E4" s="113">
+        <v>1.1234</v>
       </c>
       <c r="F4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -7600,113 +7582,103 @@
       <c r="M4" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="e">
+      <c r="N4">
         <f t="shared" ref="N4:N10" si="2">HLOOKUP($M4,$A$2:$K$16,N$1,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>1.0900000000000001</v>
+        <v>1.1234</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107.93</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>7.1000000000000005</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>7.75</v>
+        <v>7.7504999999999997</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>1.41</v>
-      </c>
-      <c r="T4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1.3935999999999999</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>29.567</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>1230</v>
+        <v>1202.9000000000001</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>30.905000000000001</v>
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>4.32</v>
+        <v>4.2862999999999998</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49.822000000000003</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>23270</v>
+        <v>23196</v>
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75.508700000000005</v>
       </c>
       <c r="AA4">
         <f t="shared" si="1"/>
-        <v>14600</v>
-      </c>
-      <c r="AC4" s="122">
-        <f>(O4-O$3)/O$3</f>
-        <v>-1.1875623243586157E-2</v>
-      </c>
-      <c r="AD4" s="122">
-        <f>(P$3-P4)/P$3</f>
-        <v>-4.2774781476659267E-3</v>
-      </c>
-      <c r="AE4" s="122">
-        <f t="shared" ref="AE4:AE10" si="3">(Q$3-Q4)/Q$3</f>
-        <v>-2.470878926932716E-3</v>
-      </c>
-      <c r="AF4" s="122">
-        <f t="shared" ref="AF4:AF10" si="4">(R$3-R4)/R$3</f>
-        <v>1.4191534104838035E-4</v>
-      </c>
-      <c r="AG4" s="122">
-        <f t="shared" ref="AG4:AG10" si="5">(S$3-S4)/S$3</f>
-        <v>8.4388185654008518E-3</v>
-      </c>
-      <c r="AH4" s="122" t="e">
-        <f t="shared" ref="AH4:AH10" si="6">(T$3-T4)/T$3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI4" s="122">
-        <f t="shared" ref="AI4:AI10" si="7">(U$3-U4)/U$3</f>
-        <v>-9.3964137704649342E-3</v>
-      </c>
-      <c r="AJ4" s="122">
-        <f t="shared" ref="AJ4:AJ10" si="8">(V$3-V4)/V$3</f>
-        <v>3.0428684675894904E-2</v>
-      </c>
-      <c r="AK4" s="122">
-        <f t="shared" ref="AK4:AK10" si="9">(W$3-W4)/W$3</f>
-        <v>2.7770063871143842E-4</v>
-      </c>
-      <c r="AL4" s="122">
-        <f t="shared" ref="AL4:AL10" si="10">(X$3-X4)/X$3</f>
-        <v>-5.9370007297974703E-3</v>
-      </c>
-      <c r="AM4" s="122">
-        <f t="shared" ref="AM4:AM10" si="11">(Y$3-Y4)/Y$3</f>
-        <v>1.5526505055633117E-2</v>
-      </c>
-      <c r="AN4" s="122">
-        <f t="shared" ref="AN4:AN10" si="12">(Z$3-Z4)/Z$3</f>
-        <v>-6.0561935334413871E-3</v>
-      </c>
-      <c r="AO4" s="122">
-        <f t="shared" ref="AO4:AO10" si="13">(AA$3-AA4)/AA$3</f>
-        <v>0.10484365419987737</v>
+        <v>14265</v>
+      </c>
+      <c r="AB4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="118">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="118">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -7719,9 +7691,8 @@
       <c r="D5" s="113">
         <v>107.54</v>
       </c>
-      <c r="E5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>108</v>
+      <c r="E5" s="113">
+        <v>107.93</v>
       </c>
       <c r="F5">
         <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -7784,7 +7755,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>31.700000000000003</v>
+        <v>31.7</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
@@ -7807,56 +7778,56 @@
         <v>14500</v>
       </c>
       <c r="AC5" s="122">
-        <f t="shared" ref="AC5:AC10" si="14">(O5-O$3)/O$3</f>
-        <v>-2.8102619889401512E-3</v>
+        <f>(O5-O$4)/O$4</f>
+        <v>-2.0829624354637588E-2</v>
       </c>
       <c r="AD5" s="122">
-        <f t="shared" ref="AD5:AD10" si="15">(P$3-P5)/P$3</f>
-        <v>-4.2774781476659267E-3</v>
+        <f>(P$4-P5)/P$4</f>
+        <v>-6.4856851663108663E-4</v>
       </c>
       <c r="AE5" s="122">
-        <f t="shared" si="3"/>
-        <v>3.5298270384744127E-4</v>
+        <f>(Q$4-Q5)/Q$4</f>
+        <v>-2.2650056625141582E-3</v>
       </c>
       <c r="AF5" s="122">
-        <f t="shared" si="4"/>
-        <v>1.4191534104838035E-4</v>
+        <f>(R$4-R5)/R$4</f>
+        <v>6.4511966969837162E-5</v>
       </c>
       <c r="AG5" s="122">
-        <f t="shared" si="5"/>
-        <v>1.5471167369901562E-2</v>
+        <f>(S$4-S5)/S$4</f>
+        <v>-4.5924225028702364E-3</v>
       </c>
       <c r="AH5" s="122" t="e">
-        <f t="shared" si="6"/>
+        <f>(T$4-T5)/T$4</f>
         <v>#N/A</v>
       </c>
       <c r="AI5" s="122">
-        <f t="shared" si="7"/>
-        <v>-1.1899388617619675E-3</v>
+        <f>(U$4-U5)/U$4</f>
+        <v>-1.421564552331857E-2</v>
       </c>
       <c r="AJ5" s="122">
-        <f t="shared" si="8"/>
-        <v>3.3477651076285107E-2</v>
+        <f>(V$4-V5)/V$4</f>
+        <v>-2.5723992881410713E-2</v>
       </c>
       <c r="AK5" s="122">
-        <f t="shared" si="9"/>
-        <v>4.9060446172360288E-3</v>
+        <f>(W$4-W5)/W$4</f>
+        <v>-3.1962298485873706E-3</v>
       </c>
       <c r="AL5" s="122">
-        <f t="shared" si="10"/>
-        <v>-5.9370007297974703E-3</v>
+        <f>(X$4-X5)/X$4</f>
+        <v>-2.3644173256794132E-2</v>
       </c>
       <c r="AM5" s="122">
-        <f t="shared" si="11"/>
-        <v>1.6372636121335195E-2</v>
+        <f>(Y$4-Y5)/Y$4</f>
+        <v>-2.3279875840662182E-3</v>
       </c>
       <c r="AN5" s="122">
-        <f t="shared" si="12"/>
-        <v>5.625972134891482E-4</v>
+        <f>(Z$4-Z5)/Z$4</f>
+        <v>1.1521851124446047E-4</v>
       </c>
       <c r="AO5" s="122">
-        <f t="shared" si="13"/>
-        <v>0.11097486204782342</v>
+        <f>(AA$4-AA5)/AA$4</f>
+        <v>-1.6473887136347704E-2</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -7869,9 +7840,8 @@
       <c r="D6" s="113">
         <v>7.0824999999999996</v>
       </c>
-      <c r="E6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>7.1000000000000005</v>
+      <c r="E6" s="113">
+        <v>7.0640000000000001</v>
       </c>
       <c r="F6">
         <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -7879,11 +7849,11 @@
       </c>
       <c r="G6">
         <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>7.0600000000000005</v>
+        <v>7.06</v>
       </c>
       <c r="H6">
         <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>7.0200000000000005</v>
+        <v>7.02</v>
       </c>
       <c r="I6">
         <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
@@ -7914,7 +7884,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>7.0600000000000005</v>
+        <v>7.06</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
@@ -7957,56 +7927,56 @@
         <v>14400</v>
       </c>
       <c r="AC6" s="122">
-        <f t="shared" si="14"/>
-        <v>6.255099265705855E-3</v>
+        <f t="shared" ref="AC6:AC10" si="3">(O6-O$4)/O$4</f>
+        <v>-1.1928075485134287E-2</v>
       </c>
       <c r="AD6" s="122">
-        <f t="shared" si="15"/>
-        <v>-1.357634368607024E-2</v>
+        <f t="shared" ref="AD6:AD10" si="4">(P$4-P6)/P$4</f>
+        <v>-9.9138330399332255E-3</v>
       </c>
       <c r="AE6" s="122">
-        <f t="shared" si="3"/>
-        <v>3.1768443346274731E-3</v>
+        <f t="shared" ref="AE6:AE10" si="5">(Q$4-Q6)/Q$4</f>
+        <v>5.6625141562860243E-4</v>
       </c>
       <c r="AF6" s="122">
-        <f t="shared" si="4"/>
-        <v>-1.1482241230276588E-3</v>
+        <f t="shared" ref="AF6:AF10" si="6">(R$4-R6)/R$4</f>
+        <v>-1.2257273724275936E-3</v>
       </c>
       <c r="AG6" s="122">
-        <f t="shared" si="5"/>
-        <v>2.2503516174402272E-2</v>
+        <f t="shared" ref="AG6:AG10" si="7">(S$4-S6)/S$4</f>
+        <v>2.5832376578645579E-3</v>
       </c>
       <c r="AH6" s="122" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AH6:AH10" si="8">(T$4-T6)/T$4</f>
         <v>#N/A</v>
       </c>
       <c r="AI6" s="122">
-        <f t="shared" si="7"/>
-        <v>7.0165360469409991E-3</v>
+        <f t="shared" ref="AI6:AI10" si="9">(U$4-U6)/U$4</f>
+        <v>-5.9024025272257944E-3</v>
       </c>
       <c r="AJ6" s="122">
-        <f t="shared" si="8"/>
-        <v>3.6526617476675419E-2</v>
+        <f t="shared" ref="AJ6:AJ10" si="10">(V$4-V6)/V$4</f>
+        <v>-2.2488270506390559E-2</v>
       </c>
       <c r="AK6" s="122">
-        <f t="shared" si="9"/>
-        <v>9.5343885957604145E-3</v>
+        <f t="shared" ref="AK6:AK10" si="11">(W$4-W6)/W$4</f>
+        <v>1.4697991274524715E-3</v>
       </c>
       <c r="AL6" s="122">
-        <f t="shared" si="10"/>
-        <v>-5.9370007297974703E-3</v>
+        <f t="shared" ref="AL6:AL10" si="12">(X$4-X6)/X$4</f>
+        <v>-2.3644173256794132E-2</v>
       </c>
       <c r="AM6" s="122">
-        <f t="shared" si="11"/>
-        <v>1.721876718703727E-2</v>
+        <f t="shared" ref="AM6:AM10" si="13">(Y$4-Y6)/Y$4</f>
+        <v>-1.4657699603379893E-3</v>
       </c>
       <c r="AN6" s="122">
-        <f t="shared" si="12"/>
-        <v>7.1813879604196839E-3</v>
+        <f t="shared" ref="AN6:AN10" si="14">(Z$4-Z6)/Z$4</f>
+        <v>6.7369720310375431E-3</v>
       </c>
       <c r="AO6" s="122">
-        <f t="shared" si="13"/>
-        <v>0.11710606989576947</v>
+        <f t="shared" ref="AO6:AO10" si="15">(AA$4-AA6)/AA$4</f>
+        <v>-9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -8019,9 +7989,8 @@
       <c r="D7" s="113">
         <v>7.7511000000000001</v>
       </c>
-      <c r="E7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>7.75</v>
+      <c r="E7" s="113">
+        <v>7.7504999999999997</v>
       </c>
       <c r="F7">
         <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8045,7 +8014,7 @@
       </c>
       <c r="K7">
         <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>7.7799999999999994</v>
+        <v>7.78</v>
       </c>
       <c r="M7" s="117" t="s">
         <v>77</v>
@@ -8064,7 +8033,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>7.0200000000000005</v>
+        <v>7.02</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
@@ -8107,56 +8076,56 @@
         <v>14300</v>
       </c>
       <c r="AC7" s="122">
+        <f t="shared" si="3"/>
+        <v>-3.0265266156309844E-3</v>
+      </c>
+      <c r="AD7" s="122">
+        <f t="shared" si="4"/>
+        <v>-9.9138330399332255E-3</v>
+      </c>
+      <c r="AE7" s="122">
+        <f t="shared" si="5"/>
+        <v>6.2287655719139978E-3</v>
+      </c>
+      <c r="AF7" s="122">
+        <f t="shared" si="6"/>
+        <v>-1.2257273724275936E-3</v>
+      </c>
+      <c r="AG7" s="122">
+        <f t="shared" si="7"/>
+        <v>9.7588978185993523E-3</v>
+      </c>
+      <c r="AH7" s="122" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI7" s="122">
+        <f t="shared" si="9"/>
+        <v>2.4108404688669804E-3</v>
+      </c>
+      <c r="AJ7" s="122">
+        <f t="shared" si="10"/>
+        <v>-1.9252548131370291E-2</v>
+      </c>
+      <c r="AK7" s="122">
+        <f t="shared" si="11"/>
+        <v>6.1358281034925204E-3</v>
+      </c>
+      <c r="AL7" s="122">
+        <f t="shared" si="12"/>
+        <v>-1.9629882381277233E-2</v>
+      </c>
+      <c r="AM7" s="122">
+        <f t="shared" si="13"/>
+        <v>-1.0346611484738748E-3</v>
+      </c>
+      <c r="AN7" s="122">
         <f t="shared" si="14"/>
-        <v>1.5320460520351862E-2</v>
-      </c>
-      <c r="AD7" s="122">
+        <v>1.3358725550830626E-2</v>
+      </c>
+      <c r="AO7" s="122">
         <f t="shared" si="15"/>
-        <v>-1.357634368607024E-2</v>
-      </c>
-      <c r="AE7" s="122">
-        <f t="shared" si="3"/>
-        <v>8.8245675961876619E-3</v>
-      </c>
-      <c r="AF7" s="122">
-        <f t="shared" si="4"/>
-        <v>-1.1482241230276588E-3</v>
-      </c>
-      <c r="AG7" s="122">
-        <f t="shared" si="5"/>
-        <v>2.9535864978902981E-2</v>
-      </c>
-      <c r="AH7" s="122" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI7" s="122">
-        <f t="shared" si="7"/>
-        <v>1.5223010955643967E-2</v>
-      </c>
-      <c r="AJ7" s="122">
-        <f t="shared" si="8"/>
-        <v>3.957558387706573E-2</v>
-      </c>
-      <c r="AK7" s="122">
-        <f t="shared" si="9"/>
-        <v>1.4162732574285004E-2</v>
-      </c>
-      <c r="AL7" s="122">
-        <f t="shared" si="10"/>
-        <v>-1.9921497465433063E-3</v>
-      </c>
-      <c r="AM7" s="122">
-        <f t="shared" si="11"/>
-        <v>1.7641832719888312E-2</v>
-      </c>
-      <c r="AN7" s="122">
-        <f t="shared" si="12"/>
-        <v>1.380017870735022E-2</v>
-      </c>
-      <c r="AO7" s="122">
-        <f t="shared" si="13"/>
-        <v>0.12323727774371551</v>
+        <v>-2.4535576586049773E-3</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -8169,9 +8138,8 @@
       <c r="D8" s="113">
         <v>1.4219999999999999</v>
       </c>
-      <c r="E8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>1.41</v>
+      <c r="E8" s="113">
+        <v>1.3935999999999999</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8187,15 +8155,15 @@
       </c>
       <c r="I8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>1.3699999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="J8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>1.3599999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="K8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>1.3499999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="M8" s="117" t="s">
         <v>78</v>
@@ -8222,7 +8190,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>1.3699999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="e">
         <f t="shared" si="1"/>
@@ -8234,7 +8202,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>31.400000000000002</v>
+        <v>31.4</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
@@ -8257,56 +8225,56 @@
         <v>14200</v>
       </c>
       <c r="AC8" s="122">
+        <f t="shared" si="3"/>
+        <v>5.8750222538721201E-3</v>
+      </c>
+      <c r="AD8" s="122">
+        <f t="shared" si="4"/>
+        <v>-1.9179097563235367E-2</v>
+      </c>
+      <c r="AE8" s="122">
+        <f t="shared" si="5"/>
+        <v>1.1891279728199268E-2</v>
+      </c>
+      <c r="AF8" s="122">
+        <f t="shared" si="6"/>
+        <v>-2.5159667118250244E-3</v>
+      </c>
+      <c r="AG8" s="122">
+        <f t="shared" si="7"/>
+        <v>1.6934557979333988E-2</v>
+      </c>
+      <c r="AH8" s="122" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI8" s="122">
+        <f t="shared" si="9"/>
+        <v>1.0724083464959755E-2</v>
+      </c>
+      <c r="AJ8" s="122">
+        <f t="shared" si="10"/>
+        <v>-1.6016825756350023E-2</v>
+      </c>
+      <c r="AK8" s="122">
+        <f t="shared" si="11"/>
+        <v>1.0801857079532363E-2</v>
+      </c>
+      <c r="AL8" s="122">
+        <f t="shared" si="12"/>
+        <v>-1.561559150576048E-2</v>
+      </c>
+      <c r="AM8" s="122">
+        <f t="shared" si="13"/>
+        <v>-1.724435247456458E-4</v>
+      </c>
+      <c r="AN8" s="122">
         <f t="shared" si="14"/>
-        <v>2.4385821774997665E-2</v>
-      </c>
-      <c r="AD8" s="122">
+        <v>1.9980479070623711E-2</v>
+      </c>
+      <c r="AO8" s="122">
         <f t="shared" si="15"/>
-        <v>-2.2875209224474554E-2</v>
-      </c>
-      <c r="AE8" s="122">
-        <f t="shared" si="3"/>
-        <v>1.4472290857747851E-2</v>
-      </c>
-      <c r="AF8" s="122">
-        <f t="shared" si="4"/>
-        <v>-2.4383635871036979E-3</v>
-      </c>
-      <c r="AG8" s="122">
-        <f t="shared" si="5"/>
-        <v>3.6568213783403691E-2</v>
-      </c>
-      <c r="AH8" s="122" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" s="122">
-        <f t="shared" si="7"/>
-        <v>2.3429485864346934E-2</v>
-      </c>
-      <c r="AJ8" s="122">
-        <f t="shared" si="8"/>
-        <v>4.262455027745593E-2</v>
-      </c>
-      <c r="AK8" s="122">
-        <f t="shared" si="9"/>
-        <v>1.8791076552809389E-2</v>
-      </c>
-      <c r="AL8" s="122">
-        <f t="shared" si="10"/>
-        <v>1.9527012367107173E-3</v>
-      </c>
-      <c r="AM8" s="122">
-        <f t="shared" si="11"/>
-        <v>1.8487963785590387E-2</v>
-      </c>
-      <c r="AN8" s="122">
-        <f t="shared" si="12"/>
-        <v>2.0418969454280754E-2</v>
-      </c>
-      <c r="AO8" s="122">
-        <f t="shared" si="13"/>
-        <v>0.12936848559166156</v>
+        <v>4.5566070802663863E-3</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -8319,9 +8287,8 @@
       <c r="D9" s="113">
         <v>30.238</v>
       </c>
-      <c r="E9" t="e">
-        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E9" s="113">
+        <v>29.567</v>
       </c>
       <c r="F9" t="e">
         <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8372,7 +8339,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>1.3599999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="e">
         <f t="shared" si="1"/>
@@ -8407,56 +8374,56 @@
         <v>14100</v>
       </c>
       <c r="AC9" s="122">
+        <f t="shared" si="3"/>
+        <v>1.4776571123375421E-2</v>
+      </c>
+      <c r="AD9" s="122">
+        <f t="shared" si="4"/>
+        <v>-2.8444362086537507E-2</v>
+      </c>
+      <c r="AE9" s="122">
+        <f t="shared" si="5"/>
+        <v>1.7553793884484664E-2</v>
+      </c>
+      <c r="AF9" s="122">
+        <f t="shared" si="6"/>
+        <v>-2.5159667118250244E-3</v>
+      </c>
+      <c r="AG9" s="122">
+        <f t="shared" si="7"/>
+        <v>2.4110218140068782E-2</v>
+      </c>
+      <c r="AH9" s="122" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" s="122">
+        <f t="shared" si="9"/>
+        <v>1.903732646105253E-2</v>
+      </c>
+      <c r="AJ9" s="122">
+        <f t="shared" si="10"/>
+        <v>-1.2781103381329867E-2</v>
+      </c>
+      <c r="AK9" s="122">
+        <f t="shared" si="11"/>
+        <v>1.5467886055572411E-2</v>
+      </c>
+      <c r="AL9" s="122">
+        <f t="shared" si="12"/>
+        <v>-1.1601300630243583E-2</v>
+      </c>
+      <c r="AM9" s="122">
+        <f t="shared" si="13"/>
+        <v>2.5866528711846869E-4</v>
+      </c>
+      <c r="AN9" s="122">
         <f t="shared" si="14"/>
-        <v>3.3451183029643672E-2</v>
-      </c>
-      <c r="AD9" s="122">
+        <v>2.6602232590416792E-2</v>
+      </c>
+      <c r="AO9" s="122">
         <f t="shared" si="15"/>
-        <v>-3.2174074762878868E-2</v>
-      </c>
-      <c r="AE9" s="122">
-        <f t="shared" si="3"/>
-        <v>2.0120014119308041E-2</v>
-      </c>
-      <c r="AF9" s="122">
-        <f t="shared" si="4"/>
-        <v>-2.4383635871036979E-3</v>
-      </c>
-      <c r="AG9" s="122">
-        <f t="shared" si="5"/>
-        <v>4.3600562587904401E-2</v>
-      </c>
-      <c r="AH9" s="122" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" s="122">
-        <f t="shared" si="7"/>
-        <v>3.16359607730499E-2</v>
-      </c>
-      <c r="AJ9" s="122">
-        <f t="shared" si="8"/>
-        <v>4.5673516677846242E-2</v>
-      </c>
-      <c r="AK9" s="122">
-        <f t="shared" si="9"/>
-        <v>2.341942053133398E-2</v>
-      </c>
-      <c r="AL9" s="122">
-        <f t="shared" si="10"/>
-        <v>5.8975522199648809E-3</v>
-      </c>
-      <c r="AM9" s="122">
-        <f t="shared" si="11"/>
-        <v>1.8911029318441425E-2</v>
-      </c>
-      <c r="AN9" s="122">
-        <f t="shared" si="12"/>
-        <v>2.7037760201211292E-2</v>
-      </c>
-      <c r="AO9" s="122">
-        <f t="shared" si="13"/>
-        <v>0.1354996934396076</v>
+        <v>1.1566771819137749E-2</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -8469,9 +8436,8 @@
       <c r="D10" s="113">
         <v>1218.55</v>
       </c>
-      <c r="E10">
-        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>1230</v>
+      <c r="E10" s="113">
+        <v>1202.9000000000001</v>
       </c>
       <c r="F10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8518,11 +8484,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>7.7799999999999994</v>
+        <v>7.78</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>1.3499999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="T10" t="e">
         <f t="shared" si="1"/>
@@ -8534,7 +8500,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
+        <v>31.2</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
@@ -8557,56 +8523,56 @@
         <v>14000</v>
       </c>
       <c r="AC10" s="122">
+        <f t="shared" si="3"/>
+        <v>2.3678119992878725E-2</v>
+      </c>
+      <c r="AD10" s="122">
+        <f t="shared" si="4"/>
+        <v>-3.7709626609839647E-2</v>
+      </c>
+      <c r="AE10" s="122">
+        <f t="shared" si="5"/>
+        <v>2.3216308040770059E-2</v>
+      </c>
+      <c r="AF10" s="122">
+        <f t="shared" si="6"/>
+        <v>-3.8062060512225699E-3</v>
+      </c>
+      <c r="AG10" s="122">
+        <f t="shared" si="7"/>
+        <v>3.1285878300803573E-2</v>
+      </c>
+      <c r="AH10" s="122" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" s="122">
+        <f t="shared" si="9"/>
+        <v>2.7350569457145306E-2</v>
+      </c>
+      <c r="AJ10" s="122">
+        <f t="shared" si="10"/>
+        <v>-9.545381006309599E-3</v>
+      </c>
+      <c r="AK10" s="122">
+        <f t="shared" si="11"/>
+        <v>2.0133915031612253E-2</v>
+      </c>
+      <c r="AL10" s="122">
+        <f t="shared" si="12"/>
+        <v>-7.5870097547268292E-3</v>
+      </c>
+      <c r="AM10" s="122">
+        <f t="shared" si="13"/>
+        <v>1.1208829108466977E-3</v>
+      </c>
+      <c r="AN10" s="122">
         <f t="shared" si="14"/>
-        <v>4.2516544284289678E-2</v>
-      </c>
-      <c r="AD10" s="122">
+        <v>3.3223986110209873E-2</v>
+      </c>
+      <c r="AO10" s="122">
         <f t="shared" si="15"/>
-        <v>-4.1472940301283186E-2</v>
-      </c>
-      <c r="AE10" s="122">
-        <f t="shared" si="3"/>
-        <v>2.5767737380868228E-2</v>
-      </c>
-      <c r="AF10" s="122">
-        <f t="shared" si="4"/>
-        <v>-3.7285030511797369E-3</v>
-      </c>
-      <c r="AG10" s="122">
-        <f t="shared" si="5"/>
-        <v>5.0632911392405111E-2</v>
-      </c>
-      <c r="AH10" s="122" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" s="122">
-        <f t="shared" si="7"/>
-        <v>3.9842435681752865E-2</v>
-      </c>
-      <c r="AJ10" s="122">
-        <f t="shared" si="8"/>
-        <v>4.8722483078236442E-2</v>
-      </c>
-      <c r="AK10" s="122">
-        <f t="shared" si="9"/>
-        <v>2.8047764509858367E-2</v>
-      </c>
-      <c r="AL10" s="122">
-        <f t="shared" si="10"/>
-        <v>9.8424032032189048E-3</v>
-      </c>
-      <c r="AM10" s="122">
-        <f t="shared" si="11"/>
-        <v>1.9757160384143505E-2</v>
-      </c>
-      <c r="AN10" s="122">
-        <f t="shared" si="12"/>
-        <v>3.3656550948141822E-2</v>
-      </c>
-      <c r="AO10" s="122">
-        <f t="shared" si="13"/>
-        <v>0.14163090128755365</v>
+        <v>1.8576936558009113E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -8619,13 +8585,12 @@
       <c r="D11" s="113">
         <v>32.798000000000002</v>
       </c>
-      <c r="E11">
-        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>31.8</v>
+      <c r="E11" s="113">
+        <v>30.905000000000001</v>
       </c>
       <c r="F11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>31.700000000000003</v>
+        <v>31.7</v>
       </c>
       <c r="G11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
@@ -8637,7 +8602,7 @@
       </c>
       <c r="I11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>31.400000000000002</v>
+        <v>31.4</v>
       </c>
       <c r="J11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
@@ -8645,7 +8610,7 @@
       </c>
       <c r="K11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>31.200000000000003</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -8658,9 +8623,8 @@
       <c r="D12" s="113">
         <v>4.3212000000000002</v>
       </c>
-      <c r="E12">
-        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>4.32</v>
+      <c r="E12" s="113">
+        <v>4.2862999999999998</v>
       </c>
       <c r="F12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8697,9 +8661,8 @@
       <c r="D13" s="113">
         <v>50.698999999999998</v>
       </c>
-      <c r="E13">
-        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>51</v>
+      <c r="E13" s="113">
+        <v>49.822000000000003</v>
       </c>
       <c r="F13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8736,9 +8699,8 @@
       <c r="D14" s="113">
         <v>23637</v>
       </c>
-      <c r="E14">
-        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>23270</v>
+      <c r="E14" s="113">
+        <v>23196</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8775,9 +8737,8 @@
       <c r="D15" s="113">
         <v>75.542500000000004</v>
       </c>
-      <c r="E15">
-        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>76</v>
+      <c r="E15" s="113">
+        <v>75.508700000000005</v>
       </c>
       <c r="F15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8814,9 +8775,8 @@
       <c r="D16" s="113">
         <v>16310</v>
       </c>
-      <c r="E16">
-        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>14600</v>
+      <c r="E16" s="113">
+        <v>14265</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>

--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F890CA0-6D00-47DB-9A0B-AA36CD8C4B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974FE3C-62DB-4EF9-8084-AD4914361739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
   <si>
     <t>DBS forecasts</t>
   </si>
@@ -7196,8 +7196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA66C54-171D-4A74-B9A8-7B1D6A62280E}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7441,63 +7441,63 @@
         <v>#N/A</v>
       </c>
       <c r="M3" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="121">
-        <f>HLOOKUP($M3,$A$2:$K$16,N$1,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="1">HLOOKUP($M3,$A$2:$K$16,N$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="121">
-        <f t="shared" ref="O3:AA10" si="1">HLOOKUP($M3,$A$2:$K$16,O$1,FALSE)</f>
-        <v>1.1031</v>
-      </c>
-      <c r="P3" s="121">
-        <f t="shared" si="1"/>
-        <v>107.54</v>
-      </c>
-      <c r="Q3" s="121">
-        <f t="shared" si="1"/>
-        <v>7.0824999999999996</v>
-      </c>
-      <c r="R3" s="121">
-        <f t="shared" si="1"/>
-        <v>7.7511000000000001</v>
-      </c>
-      <c r="S3" s="121">
-        <f t="shared" si="1"/>
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="T3" s="121">
-        <f t="shared" si="1"/>
-        <v>30.238</v>
-      </c>
-      <c r="U3" s="121">
-        <f t="shared" si="1"/>
-        <v>1218.55</v>
-      </c>
-      <c r="V3" s="121">
-        <f t="shared" si="1"/>
-        <v>32.798000000000002</v>
-      </c>
-      <c r="W3" s="121">
-        <f t="shared" si="1"/>
-        <v>4.3212000000000002</v>
-      </c>
-      <c r="X3" s="121">
-        <f t="shared" si="1"/>
-        <v>50.698999999999998</v>
-      </c>
-      <c r="Y3" s="121">
-        <f t="shared" si="1"/>
-        <v>23637</v>
-      </c>
-      <c r="Z3" s="121">
-        <f t="shared" si="1"/>
-        <v>75.542500000000004</v>
-      </c>
-      <c r="AA3" s="121">
-        <f t="shared" si="1"/>
-        <v>16310</v>
+      <c r="O3">
+        <f t="shared" ref="O3:AA9" si="2">HLOOKUP($M3,$A$2:$K$16,O$1,FALSE)</f>
+        <v>1.1234</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>107.93</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="2"/>
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="2"/>
+        <v>7.7504999999999997</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
+        <v>1.3935999999999999</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>29.567</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>1202.9000000000001</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="2"/>
+        <v>30.905000000000001</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>4.2862999999999998</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>49.822000000000003</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>23196</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>75.508700000000005</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>14265</v>
       </c>
       <c r="AB3" s="118">
         <v>0</v>
@@ -7580,105 +7580,115 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M4" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N10" si="2">HLOOKUP($M4,$A$2:$K$16,N$1,FALSE)</f>
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="N4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
-        <v>1.1234</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
-        <v>107.93</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>7.0640000000000001</v>
+        <f t="shared" si="2"/>
+        <v>7.08</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
-        <v>7.7504999999999997</v>
+        <f t="shared" si="2"/>
+        <v>7.75</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>1.3935999999999999</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>29.567</v>
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
-        <v>1202.9000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1220</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
-        <v>30.905000000000001</v>
+        <f t="shared" si="2"/>
+        <v>31.7</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
-        <v>4.2862999999999998</v>
+        <f t="shared" si="2"/>
+        <v>4.3</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
-        <v>49.822000000000003</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="1"/>
-        <v>23196</v>
+        <f t="shared" si="2"/>
+        <v>23250</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="1"/>
-        <v>75.508700000000005</v>
+        <f t="shared" si="2"/>
+        <v>75.5</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="1"/>
-        <v>14265</v>
-      </c>
-      <c r="AB4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="118">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="118">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>14500</v>
+      </c>
+      <c r="AC4" s="122">
+        <f>(O4-O$3)/O$3</f>
+        <v>-2.0829624354637588E-2</v>
+      </c>
+      <c r="AD4" s="122">
+        <f t="shared" ref="AD4:AO4" si="3">(P$3-P4)/P$3</f>
+        <v>-6.4856851663108663E-4</v>
+      </c>
+      <c r="AE4" s="122">
+        <f t="shared" si="3"/>
+        <v>-2.2650056625141582E-3</v>
+      </c>
+      <c r="AF4" s="122">
+        <f t="shared" si="3"/>
+        <v>6.4511966969837162E-5</v>
+      </c>
+      <c r="AG4" s="122">
+        <f t="shared" si="3"/>
+        <v>-4.5924225028702364E-3</v>
+      </c>
+      <c r="AH4" s="122" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI4" s="122">
+        <f t="shared" si="3"/>
+        <v>-1.421564552331857E-2</v>
+      </c>
+      <c r="AJ4" s="122">
+        <f t="shared" si="3"/>
+        <v>-2.5723992881410713E-2</v>
+      </c>
+      <c r="AK4" s="122">
+        <f t="shared" si="3"/>
+        <v>-3.1962298485873706E-3</v>
+      </c>
+      <c r="AL4" s="122">
+        <f t="shared" si="3"/>
+        <v>-2.3644173256794132E-2</v>
+      </c>
+      <c r="AM4" s="122">
+        <f t="shared" si="3"/>
+        <v>-2.3279875840662182E-3</v>
+      </c>
+      <c r="AN4" s="122">
+        <f t="shared" si="3"/>
+        <v>1.1521851124446047E-4</v>
+      </c>
+      <c r="AO4" s="122">
+        <f t="shared" si="3"/>
+        <v>-1.6473887136347704E-2</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -7719,115 +7729,115 @@
         <v>112</v>
       </c>
       <c r="M5" s="117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>7.08</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>7.75</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>7.06</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>7.76</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>1.39</v>
+      </c>
+      <c r="T5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="U5">
-        <f t="shared" si="1"/>
-        <v>1220</v>
+        <f t="shared" si="2"/>
+        <v>1210</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
-        <v>31.7</v>
+        <f t="shared" si="2"/>
+        <v>31.6</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
+        <f t="shared" si="2"/>
+        <v>4.28</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>23250</v>
+        <f t="shared" si="2"/>
+        <v>23230</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>75.5</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="1"/>
-        <v>14500</v>
+        <f t="shared" si="2"/>
+        <v>14400</v>
       </c>
       <c r="AC5" s="122">
-        <f>(O5-O$4)/O$4</f>
-        <v>-2.0829624354637588E-2</v>
+        <f t="shared" ref="AC5:AC9" si="4">(O5-O$3)/O$3</f>
+        <v>-1.1928075485134287E-2</v>
       </c>
       <c r="AD5" s="122">
-        <f>(P$4-P5)/P$4</f>
-        <v>-6.4856851663108663E-4</v>
+        <f t="shared" ref="AD5:AD9" si="5">(P$3-P5)/P$3</f>
+        <v>-9.9138330399332255E-3</v>
       </c>
       <c r="AE5" s="122">
-        <f>(Q$4-Q5)/Q$4</f>
-        <v>-2.2650056625141582E-3</v>
+        <f t="shared" ref="AE5:AE9" si="6">(Q$3-Q5)/Q$3</f>
+        <v>5.6625141562860243E-4</v>
       </c>
       <c r="AF5" s="122">
-        <f>(R$4-R5)/R$4</f>
-        <v>6.4511966969837162E-5</v>
+        <f t="shared" ref="AF5:AF9" si="7">(R$3-R5)/R$3</f>
+        <v>-1.2257273724275936E-3</v>
       </c>
       <c r="AG5" s="122">
-        <f>(S$4-S5)/S$4</f>
-        <v>-4.5924225028702364E-3</v>
+        <f t="shared" ref="AG5:AG9" si="8">(S$3-S5)/S$3</f>
+        <v>2.5832376578645579E-3</v>
       </c>
       <c r="AH5" s="122" t="e">
-        <f>(T$4-T5)/T$4</f>
+        <f t="shared" ref="AH5:AH9" si="9">(T$3-T5)/T$3</f>
         <v>#N/A</v>
       </c>
       <c r="AI5" s="122">
-        <f>(U$4-U5)/U$4</f>
-        <v>-1.421564552331857E-2</v>
+        <f t="shared" ref="AI5:AI9" si="10">(U$3-U5)/U$3</f>
+        <v>-5.9024025272257944E-3</v>
       </c>
       <c r="AJ5" s="122">
-        <f>(V$4-V5)/V$4</f>
-        <v>-2.5723992881410713E-2</v>
+        <f t="shared" ref="AJ5:AJ9" si="11">(V$3-V5)/V$3</f>
+        <v>-2.2488270506390559E-2</v>
       </c>
       <c r="AK5" s="122">
-        <f>(W$4-W5)/W$4</f>
-        <v>-3.1962298485873706E-3</v>
+        <f t="shared" ref="AK5:AK9" si="12">(W$3-W5)/W$3</f>
+        <v>1.4697991274524715E-3</v>
       </c>
       <c r="AL5" s="122">
-        <f>(X$4-X5)/X$4</f>
+        <f t="shared" ref="AL5:AL9" si="13">(X$3-X5)/X$3</f>
         <v>-2.3644173256794132E-2</v>
       </c>
       <c r="AM5" s="122">
-        <f>(Y$4-Y5)/Y$4</f>
-        <v>-2.3279875840662182E-3</v>
+        <f t="shared" ref="AM5:AM9" si="14">(Y$3-Y5)/Y$3</f>
+        <v>-1.4657699603379893E-3</v>
       </c>
       <c r="AN5" s="122">
-        <f>(Z$4-Z5)/Z$4</f>
-        <v>1.1521851124446047E-4</v>
+        <f t="shared" ref="AN5:AN9" si="15">(Z$3-Z5)/Z$3</f>
+        <v>6.7369720310375431E-3</v>
       </c>
       <c r="AO5" s="122">
-        <f>(AA$4-AA5)/AA$4</f>
-        <v>-1.6473887136347704E-2</v>
+        <f t="shared" ref="AO5:AO9" si="16">(AA$3-AA5)/AA$3</f>
+        <v>-9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -7868,115 +7878,115 @@
         <v>6.9</v>
       </c>
       <c r="M6" s="117" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="N6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>7.06</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>7.76</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>1.39</v>
-      </c>
-      <c r="T6" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>7.02</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>7.76</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+      <c r="T6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>1210</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>31.6</v>
+        <f t="shared" si="2"/>
+        <v>31.5</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
-        <v>4.28</v>
+        <f t="shared" si="2"/>
+        <v>4.26</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>50.8</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>23230</v>
+        <f t="shared" si="2"/>
+        <v>23220</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>74.5</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>14400</v>
+        <f t="shared" si="2"/>
+        <v>14300</v>
       </c>
       <c r="AC6" s="122">
-        <f t="shared" ref="AC6:AC10" si="3">(O6-O$4)/O$4</f>
-        <v>-1.1928075485134287E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.0265266156309844E-3</v>
       </c>
       <c r="AD6" s="122">
-        <f t="shared" ref="AD6:AD10" si="4">(P$4-P6)/P$4</f>
+        <f t="shared" si="5"/>
         <v>-9.9138330399332255E-3</v>
       </c>
       <c r="AE6" s="122">
-        <f t="shared" ref="AE6:AE10" si="5">(Q$4-Q6)/Q$4</f>
-        <v>5.6625141562860243E-4</v>
+        <f t="shared" si="6"/>
+        <v>6.2287655719139978E-3</v>
       </c>
       <c r="AF6" s="122">
-        <f t="shared" ref="AF6:AF10" si="6">(R$4-R6)/R$4</f>
+        <f t="shared" si="7"/>
         <v>-1.2257273724275936E-3</v>
       </c>
       <c r="AG6" s="122">
-        <f t="shared" ref="AG6:AG10" si="7">(S$4-S6)/S$4</f>
-        <v>2.5832376578645579E-3</v>
+        <f t="shared" si="8"/>
+        <v>9.7588978185993523E-3</v>
       </c>
       <c r="AH6" s="122" t="e">
-        <f t="shared" ref="AH6:AH10" si="8">(T$4-T6)/T$4</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AI6" s="122">
-        <f t="shared" ref="AI6:AI10" si="9">(U$4-U6)/U$4</f>
-        <v>-5.9024025272257944E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.4108404688669804E-3</v>
       </c>
       <c r="AJ6" s="122">
-        <f t="shared" ref="AJ6:AJ10" si="10">(V$4-V6)/V$4</f>
-        <v>-2.2488270506390559E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.9252548131370291E-2</v>
       </c>
       <c r="AK6" s="122">
-        <f t="shared" ref="AK6:AK10" si="11">(W$4-W6)/W$4</f>
-        <v>1.4697991274524715E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.1358281034925204E-3</v>
       </c>
       <c r="AL6" s="122">
-        <f t="shared" ref="AL6:AL10" si="12">(X$4-X6)/X$4</f>
-        <v>-2.3644173256794132E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.9629882381277233E-2</v>
       </c>
       <c r="AM6" s="122">
-        <f t="shared" ref="AM6:AM10" si="13">(Y$4-Y6)/Y$4</f>
-        <v>-1.4657699603379893E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.0346611484738748E-3</v>
       </c>
       <c r="AN6" s="122">
-        <f t="shared" ref="AN6:AN10" si="14">(Z$4-Z6)/Z$4</f>
-        <v>6.7369720310375431E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.3358725550830626E-2</v>
       </c>
       <c r="AO6" s="122">
-        <f t="shared" ref="AO6:AO10" si="15">(AA$4-AA6)/AA$4</f>
-        <v>-9.4637223974763408E-3</v>
+        <f t="shared" si="16"/>
+        <v>-2.4535576586049773E-3</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -8017,115 +8027,115 @@
         <v>7.78</v>
       </c>
       <c r="M7" s="117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N7" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>7.02</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>7.76</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>1.38</v>
-      </c>
-      <c r="T7" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>6.98</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>7.77</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1.37</v>
+      </c>
+      <c r="T7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="U7">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <f t="shared" si="2"/>
+        <v>1190</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
-        <v>31.5</v>
+        <f t="shared" si="2"/>
+        <v>31.4</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
-        <v>4.26</v>
+        <f t="shared" si="2"/>
+        <v>4.24</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
-        <v>50.8</v>
+        <f t="shared" si="2"/>
+        <v>50.6</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>23220</v>
+        <f t="shared" si="2"/>
+        <v>23200</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>74.5</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>14300</v>
+        <f t="shared" si="2"/>
+        <v>14200</v>
       </c>
       <c r="AC7" s="122">
-        <f t="shared" si="3"/>
-        <v>-3.0265266156309844E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.8750222538721201E-3</v>
       </c>
       <c r="AD7" s="122">
-        <f t="shared" si="4"/>
-        <v>-9.9138330399332255E-3</v>
+        <f t="shared" si="5"/>
+        <v>-1.9179097563235367E-2</v>
       </c>
       <c r="AE7" s="122">
-        <f t="shared" si="5"/>
-        <v>6.2287655719139978E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.1891279728199268E-2</v>
       </c>
       <c r="AF7" s="122">
-        <f t="shared" si="6"/>
-        <v>-1.2257273724275936E-3</v>
+        <f t="shared" si="7"/>
+        <v>-2.5159667118250244E-3</v>
       </c>
       <c r="AG7" s="122">
-        <f t="shared" si="7"/>
-        <v>9.7588978185993523E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.6934557979333988E-2</v>
       </c>
       <c r="AH7" s="122" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AI7" s="122">
-        <f t="shared" si="9"/>
-        <v>2.4108404688669804E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.0724083464959755E-2</v>
       </c>
       <c r="AJ7" s="122">
-        <f t="shared" si="10"/>
-        <v>-1.9252548131370291E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.6016825756350023E-2</v>
       </c>
       <c r="AK7" s="122">
-        <f t="shared" si="11"/>
-        <v>6.1358281034925204E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.0801857079532363E-2</v>
       </c>
       <c r="AL7" s="122">
-        <f t="shared" si="12"/>
-        <v>-1.9629882381277233E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.561559150576048E-2</v>
       </c>
       <c r="AM7" s="122">
-        <f t="shared" si="13"/>
-        <v>-1.0346611484738748E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.724435247456458E-4</v>
       </c>
       <c r="AN7" s="122">
-        <f t="shared" si="14"/>
-        <v>1.3358725550830626E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.9980479070623711E-2</v>
       </c>
       <c r="AO7" s="122">
-        <f t="shared" si="15"/>
-        <v>-2.4535576586049773E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.5566070802663863E-3</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -8166,115 +8176,115 @@
         <v>1.35</v>
       </c>
       <c r="M8" s="117" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>6.98</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>7.77</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>1.37</v>
-      </c>
-      <c r="T8" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>6.94</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>7.77</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="U8">
-        <f t="shared" si="1"/>
-        <v>1190</v>
+        <f t="shared" si="2"/>
+        <v>1180</v>
       </c>
       <c r="V8">
-        <f t="shared" si="1"/>
-        <v>31.4</v>
+        <f t="shared" si="2"/>
+        <v>31.3</v>
       </c>
       <c r="W8">
-        <f t="shared" si="1"/>
-        <v>4.24</v>
+        <f t="shared" si="2"/>
+        <v>4.22</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
-        <v>50.6</v>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="1"/>
-        <v>23200</v>
+        <f t="shared" si="2"/>
+        <v>23190</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>73.5</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="1"/>
-        <v>14200</v>
+        <f t="shared" si="2"/>
+        <v>14100</v>
       </c>
       <c r="AC8" s="122">
-        <f t="shared" si="3"/>
-        <v>5.8750222538721201E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.4776571123375421E-2</v>
       </c>
       <c r="AD8" s="122">
-        <f t="shared" si="4"/>
-        <v>-1.9179097563235367E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.8444362086537507E-2</v>
       </c>
       <c r="AE8" s="122">
-        <f t="shared" si="5"/>
-        <v>1.1891279728199268E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.7553793884484664E-2</v>
       </c>
       <c r="AF8" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5159667118250244E-3</v>
       </c>
       <c r="AG8" s="122">
-        <f t="shared" si="7"/>
-        <v>1.6934557979333988E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4110218140068782E-2</v>
       </c>
       <c r="AH8" s="122" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AI8" s="122">
-        <f t="shared" si="9"/>
-        <v>1.0724083464959755E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.903732646105253E-2</v>
       </c>
       <c r="AJ8" s="122">
-        <f t="shared" si="10"/>
-        <v>-1.6016825756350023E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.2781103381329867E-2</v>
       </c>
       <c r="AK8" s="122">
-        <f t="shared" si="11"/>
-        <v>1.0801857079532363E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.5467886055572411E-2</v>
       </c>
       <c r="AL8" s="122">
-        <f t="shared" si="12"/>
-        <v>-1.561559150576048E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.1601300630243583E-2</v>
       </c>
       <c r="AM8" s="122">
-        <f t="shared" si="13"/>
-        <v>-1.724435247456458E-4</v>
+        <f t="shared" si="14"/>
+        <v>2.5866528711846869E-4</v>
       </c>
       <c r="AN8" s="122">
-        <f t="shared" si="14"/>
-        <v>1.9980479070623711E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.6602232590416792E-2</v>
       </c>
       <c r="AO8" s="122">
-        <f t="shared" si="15"/>
-        <v>4.5566070802663863E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.1566771819137749E-2</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -8315,115 +8325,115 @@
         <v>#N/A</v>
       </c>
       <c r="M9" s="117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N9" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>6.94</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>7.77</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>7.78</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="U9">
-        <f t="shared" si="1"/>
-        <v>1180</v>
+        <f t="shared" si="2"/>
+        <v>1170</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
-        <v>31.3</v>
+        <f t="shared" si="2"/>
+        <v>31.2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
-        <v>4.22</v>
+        <f t="shared" si="2"/>
+        <v>4.2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
-        <v>50.4</v>
+        <f t="shared" si="2"/>
+        <v>50.2</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="1"/>
-        <v>23190</v>
+        <f t="shared" si="2"/>
+        <v>23170</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="1"/>
-        <v>73.5</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="1"/>
-        <v>14100</v>
+        <f t="shared" si="2"/>
+        <v>14000</v>
       </c>
       <c r="AC9" s="122">
-        <f t="shared" si="3"/>
-        <v>1.4776571123375421E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3678119992878725E-2</v>
       </c>
       <c r="AD9" s="122">
-        <f t="shared" si="4"/>
-        <v>-2.8444362086537507E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.7709626609839647E-2</v>
       </c>
       <c r="AE9" s="122">
-        <f t="shared" si="5"/>
-        <v>1.7553793884484664E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.3216308040770059E-2</v>
       </c>
       <c r="AF9" s="122">
-        <f t="shared" si="6"/>
-        <v>-2.5159667118250244E-3</v>
+        <f t="shared" si="7"/>
+        <v>-3.8062060512225699E-3</v>
       </c>
       <c r="AG9" s="122">
-        <f t="shared" si="7"/>
-        <v>2.4110218140068782E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1285878300803573E-2</v>
       </c>
       <c r="AH9" s="122" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AI9" s="122">
-        <f t="shared" si="9"/>
-        <v>1.903732646105253E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.7350569457145306E-2</v>
       </c>
       <c r="AJ9" s="122">
-        <f t="shared" si="10"/>
-        <v>-1.2781103381329867E-2</v>
+        <f t="shared" si="11"/>
+        <v>-9.545381006309599E-3</v>
       </c>
       <c r="AK9" s="122">
-        <f t="shared" si="11"/>
-        <v>1.5467886055572411E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.0133915031612253E-2</v>
       </c>
       <c r="AL9" s="122">
-        <f t="shared" si="12"/>
-        <v>-1.1601300630243583E-2</v>
+        <f t="shared" si="13"/>
+        <v>-7.5870097547268292E-3</v>
       </c>
       <c r="AM9" s="122">
-        <f t="shared" si="13"/>
-        <v>2.5866528711846869E-4</v>
+        <f t="shared" si="14"/>
+        <v>1.1208829108466977E-3</v>
       </c>
       <c r="AN9" s="122">
-        <f t="shared" si="14"/>
-        <v>2.6602232590416792E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.3223986110209873E-2</v>
       </c>
       <c r="AO9" s="122">
-        <f t="shared" si="15"/>
-        <v>1.1566771819137749E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.8576936558009113E-2</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -8462,117 +8472,6 @@
       <c r="K10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
         <v>1170</v>
-      </c>
-      <c r="M10" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>6.9</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>7.78</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>1.35</v>
-      </c>
-      <c r="T10" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="1"/>
-        <v>1170</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
-        <v>31.2</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
-        <v>50.2</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>23170</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>14000</v>
-      </c>
-      <c r="AC10" s="122">
-        <f t="shared" si="3"/>
-        <v>2.3678119992878725E-2</v>
-      </c>
-      <c r="AD10" s="122">
-        <f t="shared" si="4"/>
-        <v>-3.7709626609839647E-2</v>
-      </c>
-      <c r="AE10" s="122">
-        <f t="shared" si="5"/>
-        <v>2.3216308040770059E-2</v>
-      </c>
-      <c r="AF10" s="122">
-        <f t="shared" si="6"/>
-        <v>-3.8062060512225699E-3</v>
-      </c>
-      <c r="AG10" s="122">
-        <f t="shared" si="7"/>
-        <v>3.1285878300803573E-2</v>
-      </c>
-      <c r="AH10" s="122" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" s="122">
-        <f t="shared" si="9"/>
-        <v>2.7350569457145306E-2</v>
-      </c>
-      <c r="AJ10" s="122">
-        <f t="shared" si="10"/>
-        <v>-9.545381006309599E-3</v>
-      </c>
-      <c r="AK10" s="122">
-        <f t="shared" si="11"/>
-        <v>2.0133915031612253E-2</v>
-      </c>
-      <c r="AL10" s="122">
-        <f t="shared" si="12"/>
-        <v>-7.5870097547268292E-3</v>
-      </c>
-      <c r="AM10" s="122">
-        <f t="shared" si="13"/>
-        <v>1.1208829108466977E-3</v>
-      </c>
-      <c r="AN10" s="122">
-        <f t="shared" si="14"/>
-        <v>3.3223986110209873E-2</v>
-      </c>
-      <c r="AO10" s="122">
-        <f t="shared" si="15"/>
-        <v>1.8576936558009113E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41">

--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\Duncan\Documents\GR_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974FE3C-62DB-4EF9-8084-AD4914361739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="853" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="Rates_Rule2">#REF!</definedName>
     <definedName name="Rates_Rule3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="118">
   <si>
     <t>DBS forecasts</t>
   </si>
@@ -215,15 +214,6 @@
     <t>2020f</t>
   </si>
   <si>
-    <t>1Q20</t>
-  </si>
-  <si>
-    <t>2Q20</t>
-  </si>
-  <si>
-    <t>3Q20</t>
-  </si>
-  <si>
     <t>4Q20</t>
   </si>
   <si>
@@ -384,12 +374,39 @@
   </si>
   <si>
     <t>Quarter</t>
+  </si>
+  <si>
+    <t>2022f</t>
+  </si>
+  <si>
+    <t>1Q22</t>
+  </si>
+  <si>
+    <t>2Q22</t>
+  </si>
+  <si>
+    <t>3Q22</t>
+  </si>
+  <si>
+    <t>4Q22</t>
+  </si>
+  <si>
+    <t>Q1 22</t>
+  </si>
+  <si>
+    <t>Q2 22</t>
+  </si>
+  <si>
+    <t>Q3 22</t>
+  </si>
+  <si>
+    <t>Q4 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -647,7 +664,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +695,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -702,7 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -956,7 +979,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,6 +1024,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,7 +1044,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1335,32 +1361,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:T41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="50" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="9.54296875" style="50" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="9.54296875" style="50" customWidth="1"/>
-    <col min="9" max="9" width="2.54296875" style="50" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="50" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.54296875" style="50" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.54296875" style="50" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" style="51"/>
-    <col min="17" max="17" width="11.453125" style="51" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="11.453125" style="68" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" style="51" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="50" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" style="50" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="9.5703125" style="50" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="50" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5703125" style="50" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5703125" style="50" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="51"/>
+    <col min="17" max="17" width="11.42578125" style="51" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="68" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="51" hidden="1" customWidth="1"/>
     <col min="21" max="23" width="0" style="51" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.453125" style="51"/>
+    <col min="24" max="16384" width="9.42578125" style="51"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19">
@@ -1382,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="57" customFormat="1" ht="13">
+    <row r="5" spans="1:19" s="57" customFormat="1" ht="12.75">
       <c r="A5" s="54"/>
       <c r="B5" s="55" t="s">
         <v>4</v>
@@ -1390,13 +1416,13 @@
       <c r="C5" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55" t="s">
         <v>32</v>
@@ -1404,12 +1430,12 @@
       <c r="K5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="141" t="s">
+      <c r="L5" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
       <c r="Q5" s="57" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1465,7 @@
       <c r="R6" s="61"/>
       <c r="S6" s="61"/>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="13">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="12.75">
       <c r="A7" s="62"/>
       <c r="B7" s="63">
         <v>2015</v>
@@ -1451,16 +1477,16 @@
         <v>2017</v>
       </c>
       <c r="E7" s="92">
-        <v>2018</v>
-      </c>
-      <c r="F7" s="92">
         <v>2019</v>
       </c>
+      <c r="F7" s="92" t="s">
+        <v>54</v>
+      </c>
       <c r="G7" s="92" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="I7" s="64"/>
       <c r="J7" s="63">
@@ -1473,16 +1499,16 @@
         <v>2017</v>
       </c>
       <c r="M7" s="63">
-        <v>2018</v>
-      </c>
-      <c r="N7" s="63">
         <v>2019</v>
       </c>
+      <c r="N7" s="63" t="s">
+        <v>54</v>
+      </c>
       <c r="O7" s="63" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
@@ -1504,7 +1530,7 @@
       <c r="O8" s="66"/>
       <c r="P8" s="67"/>
     </row>
-    <row r="9" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+    <row r="9" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A9" s="69" t="s">
         <v>15</v>
       </c>
@@ -1517,38 +1543,32 @@
       <c r="D9" s="70">
         <v>6.9</v>
       </c>
-      <c r="E9" s="123">
-        <v>6.6</v>
-      </c>
-      <c r="F9" s="123">
+      <c r="E9" s="122">
         <v>6.1</v>
       </c>
-      <c r="G9" s="123">
+      <c r="F9" s="122">
         <v>2</v>
       </c>
-      <c r="H9" s="123">
-        <v>5.6</v>
-      </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123">
-        <v>1.4</v>
-      </c>
-      <c r="K9" s="123">
-        <v>2</v>
-      </c>
-      <c r="L9" s="123">
-        <v>1.6</v>
-      </c>
-      <c r="M9" s="123">
-        <v>2.1</v>
-      </c>
-      <c r="N9" s="123">
+      <c r="G9" s="122">
+        <v>7</v>
+      </c>
+      <c r="H9" s="122">
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122">
+        <v>2.9</v>
+      </c>
+      <c r="N9" s="122">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O9" s="123">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P9" s="123">
+      <c r="O9" s="122">
+        <v>2.5</v>
+      </c>
+      <c r="P9" s="122">
         <v>2.5</v>
       </c>
       <c r="Q9" s="71">
@@ -1560,10 +1580,10 @@
       </c>
       <c r="S9" s="72">
         <f>E24/Q9</f>
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A10" s="69" t="s">
         <v>16</v>
       </c>
@@ -1576,39 +1596,33 @@
       <c r="D10" s="70">
         <v>3.8</v>
       </c>
-      <c r="E10" s="123">
-        <v>3</v>
-      </c>
-      <c r="F10" s="123">
+      <c r="E10" s="122">
         <v>-1.2</v>
       </c>
-      <c r="G10" s="123">
+      <c r="F10" s="122">
         <v>-7</v>
       </c>
-      <c r="H10" s="123">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123">
-        <v>3</v>
-      </c>
-      <c r="K10" s="123">
-        <v>2.4</v>
-      </c>
-      <c r="L10" s="123">
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="123">
-        <v>2.4</v>
-      </c>
-      <c r="N10" s="123">
-        <v>2.7</v>
-      </c>
-      <c r="O10" s="123">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P10" s="123">
+      <c r="G10" s="122">
+        <v>4</v>
+      </c>
+      <c r="H10" s="122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122">
+        <v>2.9</v>
+      </c>
+      <c r="N10" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="122">
         <v>2</v>
+      </c>
+      <c r="P10" s="122">
+        <v>2.5</v>
       </c>
       <c r="Q10" s="71">
         <v>1</v>
@@ -1619,10 +1633,10 @@
       </c>
       <c r="S10" s="72">
         <f>E10/Q10</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A11" s="69" t="s">
         <v>24</v>
       </c>
@@ -1635,39 +1649,33 @@
       <c r="D11" s="70">
         <v>6.9</v>
       </c>
-      <c r="E11" s="123">
-        <v>6.8</v>
-      </c>
-      <c r="F11" s="123">
+      <c r="E11" s="122">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G11" s="123">
-        <v>-5.7</v>
-      </c>
-      <c r="H11" s="123">
-        <v>5.5</v>
-      </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123">
-        <v>5.967008052399378</v>
-      </c>
-      <c r="K11" s="123">
-        <v>4.9096291370985332</v>
-      </c>
-      <c r="L11" s="123">
-        <v>3.3</v>
-      </c>
-      <c r="M11" s="123">
+      <c r="F11" s="122">
+        <v>-7.4</v>
+      </c>
+      <c r="G11" s="122">
+        <v>7.6</v>
+      </c>
+      <c r="H11" s="122">
+        <v>4.3</v>
+      </c>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122">
+        <v>3.7</v>
+      </c>
+      <c r="N11" s="122">
+        <v>6.7</v>
+      </c>
+      <c r="O11" s="122">
+        <v>4.2</v>
+      </c>
+      <c r="P11" s="122">
         <v>4</v>
-      </c>
-      <c r="N11" s="123">
-        <v>3.7</v>
-      </c>
-      <c r="O11" s="123">
-        <v>6</v>
-      </c>
-      <c r="P11" s="123">
-        <v>4.2</v>
       </c>
       <c r="Q11" s="71">
         <v>1.8</v>
@@ -1678,53 +1686,51 @@
       </c>
       <c r="S11" s="72">
         <f>E11/Q11</f>
-        <v>3.7777777777777777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="89" customFormat="1" ht="12.65" customHeight="1">
+        <v>2.7222222222222223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="89" customFormat="1" ht="12.6" customHeight="1">
       <c r="A12" s="90" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
       <c r="D12" s="86">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E12" s="124">
-        <v>6.2</v>
-      </c>
-      <c r="F12" s="124">
+      <c r="E12" s="123">
         <v>4.2</v>
       </c>
-      <c r="G12" s="124">
-        <v>-6</v>
-      </c>
-      <c r="H12" s="124">
-        <v>5.5</v>
-      </c>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124">
+      <c r="F12" s="123">
+        <v>-8</v>
+      </c>
+      <c r="G12" s="123">
+        <v>7.7</v>
+      </c>
+      <c r="H12" s="123">
         <v>4.5</v>
       </c>
-      <c r="M12" s="124">
-        <v>3.4</v>
-      </c>
-      <c r="N12" s="124">
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123">
         <v>4.8</v>
       </c>
-      <c r="O12" s="124">
-        <v>5.5</v>
-      </c>
-      <c r="P12" s="124">
-        <v>4.4000000000000004</v>
+      <c r="N12" s="123">
+        <v>6.3</v>
+      </c>
+      <c r="O12" s="123">
+        <v>4.3</v>
+      </c>
+      <c r="P12" s="123">
+        <v>4</v>
       </c>
       <c r="Q12" s="87"/>
       <c r="R12" s="88"/>
       <c r="S12" s="88"/>
     </row>
-    <row r="13" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+    <row r="13" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A13" s="69" t="s">
         <v>9</v>
       </c>
@@ -1737,39 +1743,33 @@
       <c r="D13" s="70">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E13" s="123">
-        <v>5.2</v>
-      </c>
-      <c r="F13" s="123">
+      <c r="E13" s="122">
         <v>5</v>
       </c>
-      <c r="G13" s="123">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="123">
-        <v>3.5</v>
-      </c>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123">
-        <v>6.4</v>
-      </c>
-      <c r="K13" s="123">
-        <v>3.5</v>
-      </c>
-      <c r="L13" s="123">
-        <v>3.8</v>
-      </c>
-      <c r="M13" s="123">
-        <v>3.2</v>
-      </c>
-      <c r="N13" s="123">
+      <c r="F13" s="122">
+        <v>-2</v>
+      </c>
+      <c r="G13" s="122">
+        <v>4</v>
+      </c>
+      <c r="H13" s="122">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122">
         <v>2.8</v>
       </c>
-      <c r="O13" s="123">
-        <v>2.7</v>
-      </c>
-      <c r="P13" s="123">
-        <v>3</v>
+      <c r="N13" s="122">
+        <v>2</v>
+      </c>
+      <c r="O13" s="122">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P13" s="122">
+        <v>2.8</v>
       </c>
       <c r="Q13" s="71">
         <v>6.5</v>
@@ -1780,10 +1780,10 @@
       </c>
       <c r="S13" s="72">
         <f t="shared" ref="S13:S18" si="1">E13/Q13</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A14" s="69" t="s">
         <v>10</v>
       </c>
@@ -1796,39 +1796,33 @@
       <c r="D14" s="74">
         <v>5.9</v>
       </c>
-      <c r="E14" s="123">
-        <v>4.7</v>
-      </c>
-      <c r="F14" s="123">
+      <c r="E14" s="122">
         <v>4.3</v>
       </c>
-      <c r="G14" s="123">
-        <v>-1.6</v>
-      </c>
-      <c r="H14" s="123">
-        <v>3.2</v>
-      </c>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123">
-        <v>2.1</v>
-      </c>
-      <c r="K14" s="123">
-        <v>2.1</v>
-      </c>
-      <c r="L14" s="123">
-        <v>3.8</v>
-      </c>
-      <c r="M14" s="123">
-        <v>1</v>
-      </c>
-      <c r="N14" s="123">
+      <c r="F14" s="122">
+        <v>-6.8</v>
+      </c>
+      <c r="G14" s="122">
+        <v>6</v>
+      </c>
+      <c r="H14" s="122">
+        <v>4.8</v>
+      </c>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122">
         <v>0.7</v>
       </c>
-      <c r="O14" s="123">
-        <v>-1.5</v>
-      </c>
-      <c r="P14" s="123">
-        <v>1.8</v>
+      <c r="N14" s="122">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O14" s="122">
+        <v>1.4</v>
+      </c>
+      <c r="P14" s="122">
+        <v>2</v>
       </c>
       <c r="Q14" s="71">
         <v>5.5</v>
@@ -1839,10 +1833,10 @@
       </c>
       <c r="S14" s="72">
         <f t="shared" si="1"/>
-        <v>0.85454545454545461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.78181818181818175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A15" s="69" t="s">
         <v>48</v>
       </c>
@@ -1855,39 +1849,33 @@
       <c r="D15" s="70">
         <v>6.7</v>
       </c>
-      <c r="E15" s="123">
-        <v>6.2</v>
-      </c>
-      <c r="F15" s="123">
+      <c r="E15" s="122">
         <v>5.9</v>
       </c>
-      <c r="G15" s="123">
-        <v>-6.2</v>
-      </c>
-      <c r="H15" s="123">
-        <v>5</v>
-      </c>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123">
-        <v>1.4</v>
-      </c>
-      <c r="K15" s="123">
-        <v>1.3</v>
-      </c>
-      <c r="L15" s="123">
-        <v>2.9</v>
-      </c>
-      <c r="M15" s="123">
-        <v>5.2</v>
-      </c>
-      <c r="N15" s="123">
+      <c r="F15" s="122">
+        <v>-9.5</v>
+      </c>
+      <c r="G15" s="122">
+        <v>7</v>
+      </c>
+      <c r="H15" s="122">
+        <v>6</v>
+      </c>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122">
         <v>2.5</v>
       </c>
-      <c r="O15" s="123">
+      <c r="N15" s="122">
         <v>2.4</v>
       </c>
-      <c r="P15" s="123">
+      <c r="O15" s="122">
         <v>3</v>
+      </c>
+      <c r="P15" s="122">
+        <v>2.8</v>
       </c>
       <c r="Q15" s="71">
         <v>5</v>
@@ -1898,10 +1886,10 @@
       </c>
       <c r="S15" s="72">
         <f t="shared" si="1"/>
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="85" customFormat="1" ht="12.65" customHeight="1">
+        <v>1.1800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="85" customFormat="1" ht="12.6" customHeight="1">
       <c r="A16" s="82" t="s">
         <v>12</v>
       </c>
@@ -1914,38 +1902,32 @@
       <c r="D16" s="81">
         <v>3.9</v>
       </c>
-      <c r="E16" s="123">
-        <v>3.1</v>
-      </c>
-      <c r="F16" s="123">
+      <c r="E16" s="122">
         <v>0.7</v>
       </c>
-      <c r="G16" s="123">
-        <v>-6.5</v>
-      </c>
-      <c r="H16" s="123">
+      <c r="F16" s="122">
+        <v>-6</v>
+      </c>
+      <c r="G16" s="122">
         <v>5.5</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123">
-        <v>-0.5</v>
-      </c>
-      <c r="K16" s="123">
-        <v>-0.5</v>
-      </c>
-      <c r="L16" s="123">
+      <c r="H16" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122">
         <v>0.6</v>
       </c>
-      <c r="M16" s="123">
-        <v>0.4</v>
-      </c>
-      <c r="N16" s="123">
-        <v>0.6</v>
-      </c>
-      <c r="O16" s="123">
-        <v>-0.7</v>
-      </c>
-      <c r="P16" s="123">
+      <c r="N16" s="122">
+        <v>-0.2</v>
+      </c>
+      <c r="O16" s="122">
+        <v>0.9</v>
+      </c>
+      <c r="P16" s="122">
         <v>1.5</v>
       </c>
       <c r="Q16" s="83">
@@ -1957,10 +1939,10 @@
       </c>
       <c r="S16" s="84">
         <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A17" s="69" t="s">
         <v>30</v>
       </c>
@@ -1973,39 +1955,33 @@
       <c r="D17" s="70">
         <v>3.1</v>
       </c>
-      <c r="E17" s="123">
-        <v>2.7</v>
-      </c>
-      <c r="F17" s="123">
+      <c r="E17" s="122">
         <v>2</v>
       </c>
-      <c r="G17" s="123">
+      <c r="F17" s="122">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H17" s="123">
+      <c r="G17" s="122">
         <v>2.9</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123">
-        <v>0.7</v>
-      </c>
-      <c r="K17" s="123">
+      <c r="H17" s="122">
+        <v>2.8</v>
+      </c>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="122">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="122">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="122">
         <v>1</v>
-      </c>
-      <c r="L17" s="123">
-        <v>1.9</v>
-      </c>
-      <c r="M17" s="123">
-        <v>1.5</v>
-      </c>
-      <c r="N17" s="123">
-        <v>0.4</v>
-      </c>
-      <c r="O17" s="123">
-        <v>0.2</v>
-      </c>
-      <c r="P17" s="123">
-        <v>0.5</v>
       </c>
       <c r="Q17" s="71">
         <v>6</v>
@@ -2016,10 +1992,10 @@
       </c>
       <c r="S17" s="72">
         <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>17</v>
       </c>
@@ -2032,39 +2008,33 @@
       <c r="D18" s="70">
         <v>3.1</v>
       </c>
-      <c r="E18" s="123">
-        <v>2.7</v>
-      </c>
-      <c r="F18" s="123">
-        <v>2.7</v>
-      </c>
-      <c r="G18" s="123">
-        <v>0</v>
-      </c>
-      <c r="H18" s="123">
-        <v>2.9</v>
-      </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123">
-        <v>-0.3</v>
-      </c>
-      <c r="K18" s="123">
-        <v>1.4</v>
-      </c>
-      <c r="L18" s="123">
+      <c r="E18" s="122">
+        <v>3</v>
+      </c>
+      <c r="F18" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="G18" s="122">
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="122">
+        <v>2.8</v>
+      </c>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122">
         <v>0.6</v>
       </c>
-      <c r="M18" s="123">
-        <v>1.3</v>
-      </c>
-      <c r="N18" s="123">
-        <v>0.6</v>
-      </c>
-      <c r="O18" s="123">
+      <c r="N18" s="122">
         <v>0.1</v>
       </c>
-      <c r="P18" s="123">
+      <c r="O18" s="122">
         <v>0.5</v>
+      </c>
+      <c r="P18" s="122">
+        <v>1</v>
       </c>
       <c r="Q18" s="71">
         <v>7.5</v>
@@ -2075,10 +2045,10 @@
       </c>
       <c r="S18" s="72">
         <f t="shared" si="1"/>
-        <v>0.36000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A19" s="69" t="s">
         <v>13</v>
       </c>
@@ -2091,45 +2061,39 @@
       <c r="D19" s="70">
         <v>3.3</v>
       </c>
-      <c r="E19" s="123">
-        <v>4.2</v>
-      </c>
-      <c r="F19" s="123">
+      <c r="E19" s="122">
         <v>2.4</v>
       </c>
-      <c r="G19" s="123">
-        <v>-7.5</v>
-      </c>
-      <c r="H19" s="123">
-        <v>3</v>
-      </c>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123">
-        <v>-0.9</v>
-      </c>
-      <c r="K19" s="123">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="123">
+      <c r="F19" s="122">
+        <v>-6.3</v>
+      </c>
+      <c r="G19" s="122">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="122">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122">
         <v>0.7</v>
       </c>
-      <c r="M19" s="123">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N19" s="123">
-        <v>0.7</v>
-      </c>
-      <c r="O19" s="123">
-        <v>-1.2</v>
-      </c>
-      <c r="P19" s="123">
+      <c r="N19" s="122">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="122">
         <v>1</v>
+      </c>
+      <c r="P19" s="122">
+        <v>1.3</v>
       </c>
       <c r="Q19" s="71"/>
       <c r="R19" s="72"/>
       <c r="S19" s="72"/>
     </row>
-    <row r="20" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+    <row r="20" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A20" s="69" t="s">
         <v>14</v>
       </c>
@@ -2142,39 +2106,33 @@
       <c r="D20" s="74">
         <v>6.8</v>
       </c>
-      <c r="E20" s="125">
-        <v>7.1</v>
-      </c>
-      <c r="F20" s="126">
+      <c r="E20" s="124">
         <v>7</v>
       </c>
-      <c r="G20" s="125">
-        <v>3.2</v>
-      </c>
-      <c r="H20" s="123">
-        <v>6.2</v>
-      </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123">
-        <v>0.6</v>
-      </c>
-      <c r="K20" s="123">
+      <c r="F20" s="125">
         <v>2.7</v>
       </c>
-      <c r="L20" s="123">
-        <v>3.5</v>
-      </c>
-      <c r="M20" s="123">
-        <v>3.5</v>
-      </c>
-      <c r="N20" s="123">
+      <c r="G20" s="124">
+        <v>6.7</v>
+      </c>
+      <c r="H20" s="122">
+        <v>6.8</v>
+      </c>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122">
         <v>2.8</v>
       </c>
-      <c r="O20" s="123">
-        <v>3.4</v>
-      </c>
-      <c r="P20" s="123">
-        <v>3</v>
+      <c r="N20" s="122">
+        <v>3.7</v>
+      </c>
+      <c r="O20" s="122">
+        <v>3.3</v>
+      </c>
+      <c r="P20" s="122">
+        <v>3.6</v>
       </c>
       <c r="Q20" s="71">
         <v>7.5</v>
@@ -2185,7 +2143,7 @@
       </c>
       <c r="S20" s="72">
         <f>E20/Q20</f>
-        <v>0.94666666666666666</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="73" customFormat="1" ht="3.75" customHeight="1">
@@ -2217,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+    <row r="22" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A22" s="69" t="s">
         <v>8</v>
       </c>
@@ -2230,38 +2188,32 @@
       <c r="D22" s="70">
         <v>2.5</v>
       </c>
-      <c r="E22" s="123">
-        <v>1.9</v>
-      </c>
-      <c r="F22" s="123">
+      <c r="E22" s="122">
         <v>0.9</v>
       </c>
-      <c r="G22" s="123">
+      <c r="F22" s="122">
         <v>-8</v>
       </c>
-      <c r="H22" s="123">
+      <c r="G22" s="122">
         <v>4</v>
       </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123">
-        <v>0</v>
-      </c>
-      <c r="K22" s="123">
-        <v>0.2</v>
-      </c>
-      <c r="L22" s="123">
-        <v>1.5</v>
-      </c>
-      <c r="M22" s="123">
-        <v>1.8</v>
-      </c>
-      <c r="N22" s="123">
+      <c r="H22" s="122">
+        <v>3.5</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122">
         <v>1.2</v>
       </c>
-      <c r="O22" s="123">
+      <c r="N22" s="122">
+        <v>0.3</v>
+      </c>
+      <c r="O22" s="122">
         <v>1</v>
       </c>
-      <c r="P22" s="123">
+      <c r="P22" s="122">
         <v>1.2</v>
       </c>
       <c r="Q22" s="71">
@@ -2273,10 +2225,10 @@
       </c>
       <c r="S22" s="72">
         <f>E22/Q22</f>
-        <v>0.45238095238095233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A23" s="69" t="s">
         <v>7</v>
       </c>
@@ -2289,39 +2241,33 @@
       <c r="D23" s="70">
         <v>1.9</v>
       </c>
-      <c r="E23" s="123">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="123">
+      <c r="E23" s="122">
         <v>0.7</v>
       </c>
-      <c r="G23" s="123">
+      <c r="F23" s="122">
         <v>-5</v>
       </c>
-      <c r="H23" s="123">
+      <c r="G23" s="122">
         <v>2.8</v>
       </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123">
-        <v>0.8</v>
-      </c>
-      <c r="K23" s="123">
+      <c r="H23" s="122">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="122">
         <v>-0.1</v>
       </c>
-      <c r="L23" s="123">
+      <c r="O23" s="122">
+        <v>0</v>
+      </c>
+      <c r="P23" s="122">
         <v>0.5</v>
-      </c>
-      <c r="M23" s="123">
-        <v>1</v>
-      </c>
-      <c r="N23" s="123">
-        <v>0.5</v>
-      </c>
-      <c r="O23" s="123">
-        <v>-0.1</v>
-      </c>
-      <c r="P23" s="123">
-        <v>0</v>
       </c>
       <c r="Q23" s="71">
         <v>4.2</v>
@@ -2332,10 +2278,10 @@
       </c>
       <c r="S23" s="72">
         <f>E23/Q23</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A24" s="69" t="s">
         <v>49</v>
       </c>
@@ -2348,39 +2294,33 @@
       <c r="D24" s="70">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E24" s="123">
-        <v>2.9</v>
-      </c>
-      <c r="F24" s="123">
+      <c r="E24" s="122">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G24" s="123">
-        <v>-5</v>
-      </c>
-      <c r="H24" s="123">
+      <c r="F24" s="122">
+        <v>-3.5</v>
+      </c>
+      <c r="G24" s="122">
         <v>5</v>
       </c>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="123">
+      <c r="H24" s="122">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N24" s="122">
         <v>1.3</v>
       </c>
-      <c r="L24" s="123">
-        <v>2.1</v>
-      </c>
-      <c r="M24" s="123">
-        <v>1.9</v>
-      </c>
-      <c r="N24" s="123">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O24" s="123">
-        <v>1.3</v>
-      </c>
-      <c r="P24" s="123">
-        <v>1.5</v>
+      <c r="O24" s="122">
+        <v>1.7</v>
+      </c>
+      <c r="P24" s="122">
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q24" s="71">
         <v>8</v>
@@ -2394,9 +2334,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
+    <row r="25" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
       <c r="A25" s="75" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -2459,38 +2399,38 @@
     </row>
     <row r="28" spans="1:19" s="107" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" s="108"/>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
       <c r="E28" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="108" t="s">
         <v>88</v>
-      </c>
-      <c r="F28" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="108" t="s">
-        <v>91</v>
       </c>
       <c r="I28" s="108"/>
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
       <c r="L28" s="108"/>
       <c r="M28" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" s="108" t="s">
         <v>88</v>
-      </c>
-      <c r="N28" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="P28" s="108" t="s">
-        <v>91</v>
       </c>
       <c r="Q28" s="108"/>
       <c r="R28" s="109"/>
@@ -2631,26 +2571,26 @@
       <c r="P37" s="50"/>
       <c r="Q37" s="79"/>
     </row>
-    <row r="38" spans="1:19" ht="13">
+    <row r="38" spans="1:19" ht="12.75">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="56"/>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
-      <c r="O38" s="142"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
     </row>
-    <row r="39" spans="1:19" ht="13">
+    <row r="39" spans="1:19" ht="12.75">
       <c r="A39" s="62"/>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -2669,7 +2609,7 @@
       <c r="R39" s="51"/>
       <c r="S39" s="51"/>
     </row>
-    <row r="40" spans="1:19" ht="13">
+    <row r="40" spans="1:19" ht="12.75">
       <c r="A40" s="69"/>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
@@ -2688,7 +2628,7 @@
       <c r="R40" s="51"/>
       <c r="S40" s="51"/>
     </row>
-    <row r="41" spans="1:19" ht="13">
+    <row r="41" spans="1:19" ht="12.75">
       <c r="A41" s="69"/>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -2721,32 +2661,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A6:V43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:V23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.90625" style="44" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="44" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" style="44" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="9.54296875" style="44" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.54296875" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.54296875" style="44" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="1.90625" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="1.453125" style="44" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="1.08984375" style="44" customWidth="1"/>
-    <col min="14" max="17" width="9.54296875" style="44" customWidth="1"/>
-    <col min="18" max="18" width="2.54296875" style="44" customWidth="1"/>
-    <col min="19" max="16384" width="9.453125" style="44"/>
+    <col min="1" max="1" width="13.140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="44" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5703125" style="44" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="44" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" style="44" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="1.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" style="44" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="1.140625" style="44" customWidth="1"/>
+    <col min="14" max="17" width="9.5703125" style="44" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" style="44" customWidth="1"/>
+    <col min="19" max="16384" width="9.42578125" style="44"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:22" s="29" customFormat="1" ht="13">
+    <row r="6" spans="1:22" s="29" customFormat="1" ht="12.75">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
@@ -2754,22 +2694,22 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
     </row>
     <row r="7" spans="1:22" s="31" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="27"/>
@@ -2780,22 +2720,22 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="13">
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+    </row>
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="12.75">
       <c r="A8" s="98"/>
       <c r="B8" s="33" t="s">
         <v>20</v>
@@ -2828,29 +2768,29 @@
       </c>
       <c r="M8" s="99"/>
       <c r="N8" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="R8" s="100"/>
       <c r="S8" s="7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="38" customFormat="1" ht="3" customHeight="1">
@@ -2877,7 +2817,7 @@
       <c r="U9" s="97"/>
       <c r="V9" s="97"/>
     </row>
-    <row r="10" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    <row r="10" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A10" s="101" t="s">
         <v>34</v>
       </c>
@@ -2911,33 +2851,33 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="M10" s="104"/>
-      <c r="N10" s="127">
+      <c r="N10" s="126">
+        <v>3.85</v>
+      </c>
+      <c r="O10" s="126">
+        <v>3.85</v>
+      </c>
+      <c r="P10" s="126">
+        <v>3.85</v>
+      </c>
+      <c r="Q10" s="126">
+        <v>3.85</v>
+      </c>
+      <c r="R10" s="127"/>
+      <c r="S10" s="128">
+        <v>3.85</v>
+      </c>
+      <c r="T10" s="128">
+        <v>3.85</v>
+      </c>
+      <c r="U10" s="128">
+        <v>3.85</v>
+      </c>
+      <c r="V10" s="128">
         <v>4.05</v>
       </c>
-      <c r="O10" s="127">
-        <v>3.85</v>
-      </c>
-      <c r="P10" s="127">
-        <v>3.7</v>
-      </c>
-      <c r="Q10" s="127">
-        <v>3.55</v>
-      </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="129">
-        <v>3.55</v>
-      </c>
-      <c r="T10" s="129">
-        <v>3.55</v>
-      </c>
-      <c r="U10" s="129">
-        <v>3.55</v>
-      </c>
-      <c r="V10" s="129">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    </row>
+    <row r="11" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A11" s="101" t="s">
         <v>24</v>
       </c>
@@ -2971,33 +2911,33 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="M11" s="102"/>
-      <c r="N11" s="129">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O11" s="129">
+      <c r="N11" s="128">
         <v>4</v>
       </c>
-      <c r="P11" s="129">
+      <c r="O11" s="128">
         <v>4</v>
       </c>
-      <c r="Q11" s="129">
-        <v>3.75</v>
-      </c>
-      <c r="R11" s="128"/>
-      <c r="S11" s="129">
-        <v>3.5</v>
-      </c>
-      <c r="T11" s="129">
-        <v>3.5</v>
-      </c>
-      <c r="U11" s="129">
-        <v>3.5</v>
-      </c>
-      <c r="V11" s="129">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="P11" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="128">
+        <v>4</v>
+      </c>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128">
+        <v>4</v>
+      </c>
+      <c r="T11" s="128">
+        <v>4</v>
+      </c>
+      <c r="U11" s="128">
+        <v>4</v>
+      </c>
+      <c r="V11" s="128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A12" s="101" t="s">
         <v>9</v>
       </c>
@@ -3032,33 +2972,33 @@
         <v>5</v>
       </c>
       <c r="M12" s="102"/>
-      <c r="N12" s="130">
-        <v>4.5</v>
-      </c>
-      <c r="O12" s="130">
-        <v>4.25</v>
-      </c>
-      <c r="P12" s="130">
+      <c r="N12" s="129">
         <v>3.75</v>
       </c>
-      <c r="Q12" s="130">
+      <c r="O12" s="129">
         <v>3.75</v>
       </c>
-      <c r="R12" s="128"/>
-      <c r="S12" s="130">
+      <c r="P12" s="129">
         <v>3.75</v>
       </c>
-      <c r="T12" s="130">
+      <c r="Q12" s="129">
         <v>3.75</v>
       </c>
-      <c r="U12" s="130">
+      <c r="R12" s="127"/>
+      <c r="S12" s="129">
         <v>3.75</v>
       </c>
-      <c r="V12" s="130">
+      <c r="T12" s="129">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="U12" s="129">
+        <v>3.75</v>
+      </c>
+      <c r="V12" s="129">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A13" s="101" t="s">
         <v>10</v>
       </c>
@@ -3094,33 +3034,33 @@
         <v>3</v>
       </c>
       <c r="M13" s="102"/>
-      <c r="N13" s="129">
+      <c r="N13" s="128">
+        <v>1.75</v>
+      </c>
+      <c r="O13" s="128">
+        <v>1.75</v>
+      </c>
+      <c r="P13" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="128">
+        <v>2</v>
+      </c>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128">
+        <v>2.25</v>
+      </c>
+      <c r="T13" s="128">
         <v>2.5</v>
       </c>
-      <c r="O13" s="129">
-        <v>2</v>
-      </c>
-      <c r="P13" s="129">
-        <v>1.75</v>
-      </c>
-      <c r="Q13" s="129">
-        <v>1.75</v>
-      </c>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129">
-        <v>1.75</v>
-      </c>
-      <c r="T13" s="129">
-        <v>1.75</v>
-      </c>
-      <c r="U13" s="129">
-        <v>2</v>
-      </c>
-      <c r="V13" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="U13" s="128">
+        <v>2.5</v>
+      </c>
+      <c r="V13" s="128">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A14" s="101" t="s">
         <v>11</v>
       </c>
@@ -3155,33 +3095,33 @@
         <v>4</v>
       </c>
       <c r="M14" s="102"/>
-      <c r="N14" s="129">
-        <v>3.25</v>
-      </c>
-      <c r="O14" s="129">
-        <v>2.25</v>
-      </c>
-      <c r="P14" s="129">
-        <v>2.25</v>
-      </c>
-      <c r="Q14" s="129">
-        <v>2.25</v>
-      </c>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129">
-        <v>2.25</v>
-      </c>
-      <c r="T14" s="129">
-        <v>2.25</v>
-      </c>
-      <c r="U14" s="129">
-        <v>2.25</v>
-      </c>
-      <c r="V14" s="129">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="N14" s="128">
+        <v>2</v>
+      </c>
+      <c r="O14" s="128">
+        <v>2</v>
+      </c>
+      <c r="P14" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="128">
+        <v>2</v>
+      </c>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128">
+        <v>2</v>
+      </c>
+      <c r="T14" s="128">
+        <v>2</v>
+      </c>
+      <c r="U14" s="128">
+        <v>2</v>
+      </c>
+      <c r="V14" s="128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A15" s="101" t="s">
         <v>35</v>
       </c>
@@ -3215,33 +3155,33 @@
         <v>1.6</v>
       </c>
       <c r="M15" s="102"/>
-      <c r="N15" s="129">
-        <v>0.85</v>
-      </c>
-      <c r="O15" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="P15" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="Q15" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="R15" s="131"/>
-      <c r="S15" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="T15" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="U15" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="V15" s="129">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="N15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="O15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="P15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="Q15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="R15" s="130"/>
+      <c r="S15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="T15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="U15" s="128">
+        <v>0.12</v>
+      </c>
+      <c r="V15" s="128">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A16" s="101" t="s">
         <v>30</v>
       </c>
@@ -3275,33 +3215,33 @@
         <v>1.25</v>
       </c>
       <c r="M16" s="102"/>
-      <c r="N16" s="129">
+      <c r="N16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="130"/>
+      <c r="S16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="128">
         <v>0.75</v>
       </c>
-      <c r="O16" s="129">
-        <v>0.5</v>
-      </c>
-      <c r="P16" s="129">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="129">
-        <v>0.5</v>
-      </c>
-      <c r="R16" s="131"/>
-      <c r="S16" s="129">
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="129">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="129">
-        <v>0.5</v>
-      </c>
-      <c r="V16" s="129">
+      <c r="V16" s="128">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    <row r="17" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A17" s="101" t="s">
         <v>17</v>
       </c>
@@ -3335,33 +3275,33 @@
         <v>1.375</v>
       </c>
       <c r="M17" s="102"/>
-      <c r="N17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="O17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="P17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="Q17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="R17" s="131"/>
-      <c r="S17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="T17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="U17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="V17" s="129">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="N17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="O17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="P17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="Q17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="R17" s="130"/>
+      <c r="S17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="T17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="U17" s="128">
+        <v>1.125</v>
+      </c>
+      <c r="V17" s="128">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A18" s="101" t="s">
         <v>13</v>
       </c>
@@ -3395,33 +3335,33 @@
         <v>1.25</v>
       </c>
       <c r="M18" s="102"/>
-      <c r="N18" s="129">
-        <v>0.75</v>
-      </c>
-      <c r="O18" s="129">
+      <c r="N18" s="128">
         <v>0.5</v>
       </c>
-      <c r="P18" s="129">
+      <c r="O18" s="128">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="129">
+      <c r="P18" s="128">
         <v>0.5</v>
       </c>
-      <c r="R18" s="131"/>
-      <c r="S18" s="129">
+      <c r="Q18" s="128">
         <v>0.5</v>
       </c>
-      <c r="T18" s="129">
+      <c r="R18" s="130"/>
+      <c r="S18" s="128">
         <v>0.5</v>
       </c>
-      <c r="U18" s="129">
+      <c r="T18" s="128">
         <v>0.5</v>
       </c>
-      <c r="V18" s="129">
+      <c r="U18" s="128">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+      <c r="V18" s="128">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A19" s="101" t="s">
         <v>36</v>
       </c>
@@ -3457,29 +3397,29 @@
         <v>6</v>
       </c>
       <c r="M19" s="102"/>
-      <c r="N19" s="129">
+      <c r="N19" s="128">
+        <v>4</v>
+      </c>
+      <c r="O19" s="128">
+        <v>4.5</v>
+      </c>
+      <c r="P19" s="128">
         <v>5</v>
       </c>
-      <c r="O19" s="129">
-        <v>4.5</v>
-      </c>
-      <c r="P19" s="129">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="129">
-        <v>4</v>
-      </c>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129">
-        <v>4</v>
-      </c>
-      <c r="T19" s="129">
-        <v>4.5</v>
-      </c>
-      <c r="U19" s="129">
+      <c r="Q19" s="128">
         <v>5</v>
       </c>
-      <c r="V19" s="129">
+      <c r="R19" s="128"/>
+      <c r="S19" s="128">
+        <v>5</v>
+      </c>
+      <c r="T19" s="128">
+        <v>5</v>
+      </c>
+      <c r="U19" s="128">
+        <v>5</v>
+      </c>
+      <c r="V19" s="128">
         <v>5</v>
       </c>
     </row>
@@ -3507,7 +3447,7 @@
       <c r="U20" s="102"/>
       <c r="V20" s="102"/>
     </row>
-    <row r="21" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    <row r="21" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A21" s="101" t="s">
         <v>8</v>
       </c>
@@ -3541,33 +3481,33 @@
         <v>0</v>
       </c>
       <c r="M21" s="102"/>
-      <c r="N21" s="129">
+      <c r="N21" s="128">
         <v>0</v>
       </c>
-      <c r="O21" s="129">
+      <c r="O21" s="128">
         <v>0</v>
       </c>
-      <c r="P21" s="129">
+      <c r="P21" s="128">
         <v>0</v>
       </c>
-      <c r="Q21" s="129">
+      <c r="Q21" s="128">
         <v>0</v>
       </c>
-      <c r="R21" s="131"/>
-      <c r="S21" s="129">
+      <c r="R21" s="130"/>
+      <c r="S21" s="128">
         <v>0</v>
       </c>
-      <c r="T21" s="129">
+      <c r="T21" s="128">
         <v>0</v>
       </c>
-      <c r="U21" s="129">
+      <c r="U21" s="128">
         <v>0</v>
       </c>
-      <c r="V21" s="129">
+      <c r="V21" s="128">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    <row r="22" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A22" s="101" t="s">
         <v>7</v>
       </c>
@@ -3601,33 +3541,33 @@
         <v>-0.1</v>
       </c>
       <c r="M22" s="102"/>
-      <c r="N22" s="129">
+      <c r="N22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="O22" s="129">
+      <c r="O22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="P22" s="129">
+      <c r="P22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="Q22" s="129">
+      <c r="Q22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129">
+      <c r="R22" s="128"/>
+      <c r="S22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="T22" s="129">
+      <c r="T22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="U22" s="129">
+      <c r="U22" s="128">
         <v>-0.1</v>
       </c>
-      <c r="V22" s="129">
+      <c r="V22" s="128">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    <row r="23" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A23" s="101" t="s">
         <v>31</v>
       </c>
@@ -3661,35 +3601,35 @@
         <v>1.75</v>
       </c>
       <c r="M23" s="102"/>
-      <c r="N23" s="129">
+      <c r="N23" s="128">
         <v>0.25</v>
       </c>
-      <c r="O23" s="129">
+      <c r="O23" s="128">
         <v>0.25</v>
       </c>
-      <c r="P23" s="129">
+      <c r="P23" s="128">
         <v>0.25</v>
       </c>
-      <c r="Q23" s="129">
+      <c r="Q23" s="128">
         <v>0.25</v>
       </c>
-      <c r="R23" s="132"/>
-      <c r="S23" s="129">
+      <c r="R23" s="131"/>
+      <c r="S23" s="128">
         <v>0.25</v>
       </c>
-      <c r="T23" s="129">
+      <c r="T23" s="128">
         <v>0.25</v>
       </c>
-      <c r="U23" s="129">
+      <c r="U23" s="128">
         <v>0.25</v>
       </c>
-      <c r="V23" s="129">
+      <c r="V23" s="128">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
+    <row r="24" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
       <c r="A24" s="95" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -3808,7 +3748,7 @@
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
     </row>
-    <row r="30" spans="1:22" s="38" customFormat="1" ht="12.5">
+    <row r="30" spans="1:22" s="38" customFormat="1" ht="12.75">
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -3842,7 +3782,7 @@
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
     </row>
-    <row r="34" spans="1:17" ht="12.5">
+    <row r="34" spans="1:17" ht="12.75">
       <c r="A34" s="39" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3821,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
     </row>
-    <row r="39" spans="1:17" ht="13">
+    <row r="39" spans="1:17" ht="12.75">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
@@ -3890,17 +3830,17 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-    </row>
-    <row r="40" spans="1:17" ht="13">
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+    </row>
+    <row r="40" spans="1:17" ht="12.75">
       <c r="A40" s="32"/>
       <c r="B40" s="33"/>
       <c r="C40" s="34"/>
@@ -3919,7 +3859,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" ht="13">
+    <row r="41" spans="1:17" ht="12.75">
       <c r="A41" s="9"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -3938,7 +3878,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:17" ht="13">
+    <row r="42" spans="1:17" ht="12.75">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -3957,7 +3897,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:17" ht="13">
+    <row r="43" spans="1:17" ht="12.75">
       <c r="A43" s="40"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -3991,44 +3931,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17:S18"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="18" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0.453125" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9.54296875" style="18" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.453125" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.90625" style="18" customWidth="1"/>
-    <col min="9" max="12" width="9.54296875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="9.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="18" customWidth="1"/>
+    <col min="9" max="12" width="9.5703125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="18" customWidth="1"/>
     <col min="14" max="17" width="9" style="18" customWidth="1"/>
-    <col min="18" max="20" width="9.54296875" style="18" customWidth="1"/>
-    <col min="21" max="21" width="2.54296875" style="18" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" style="18"/>
-    <col min="23" max="23" width="9.453125" style="47"/>
-    <col min="24" max="24" width="9.453125" style="18"/>
-    <col min="25" max="25" width="17.54296875" style="18" customWidth="1"/>
-    <col min="26" max="26" width="9.54296875" style="18" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="0.453125" style="18" customWidth="1"/>
-    <col min="28" max="31" width="9.54296875" style="18" customWidth="1"/>
-    <col min="32" max="32" width="3.54296875" style="18" customWidth="1"/>
-    <col min="33" max="36" width="9.54296875" style="18" customWidth="1"/>
-    <col min="37" max="37" width="2.54296875" style="18" customWidth="1"/>
-    <col min="38" max="16384" width="9.453125" style="18"/>
+    <col min="18" max="20" width="9.5703125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="2.5703125" style="18" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="18"/>
+    <col min="23" max="23" width="9.42578125" style="47"/>
+    <col min="24" max="24" width="9.42578125" style="18"/>
+    <col min="25" max="25" width="17.5703125" style="18" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0.42578125" style="18" customWidth="1"/>
+    <col min="28" max="31" width="9.5703125" style="18" customWidth="1"/>
+    <col min="32" max="32" width="3.5703125" style="18" customWidth="1"/>
+    <col min="33" max="36" width="9.5703125" style="18" customWidth="1"/>
+    <col min="37" max="37" width="2.5703125" style="18" customWidth="1"/>
+    <col min="38" max="16384" width="9.42578125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="15.5">
+    <row r="2" spans="1:23" ht="15.75">
       <c r="D2" s="48"/>
       <c r="W2" s="18"/>
     </row>
@@ -4041,36 +3981,36 @@
     <row r="5" spans="1:23">
       <c r="W5" s="18"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="13">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12.75">
       <c r="C6" s="2"/>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" ht="13">
+    <row r="8" spans="1:23" s="3" customFormat="1" ht="12.75">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>43075</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -4083,29 +4023,29 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="3" customHeight="1">
@@ -4123,9 +4063,9 @@
       <c r="L9" s="10"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" s="13">
         <v>6.6148999999999996</v>
@@ -4144,35 +4084,35 @@
         <v>7.1</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="133">
-        <v>7.1</v>
-      </c>
-      <c r="J10" s="133">
-        <v>7.1</v>
-      </c>
-      <c r="K10" s="133">
-        <v>7.08</v>
-      </c>
-      <c r="L10" s="133">
-        <v>7.06</v>
-      </c>
-      <c r="M10" s="134"/>
-      <c r="N10" s="133">
-        <v>7.02</v>
-      </c>
-      <c r="O10" s="133">
-        <v>6.98</v>
-      </c>
-      <c r="P10" s="133">
-        <v>6.94</v>
-      </c>
-      <c r="Q10" s="133">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I10" s="132">
+        <v>6.7</v>
+      </c>
+      <c r="J10" s="132">
+        <v>6.67</v>
+      </c>
+      <c r="K10" s="132">
+        <v>6.64</v>
+      </c>
+      <c r="L10" s="132">
+        <v>6.61</v>
+      </c>
+      <c r="M10" s="133"/>
+      <c r="N10" s="132">
+        <v>6.59</v>
+      </c>
+      <c r="O10" s="132">
+        <v>6.56</v>
+      </c>
+      <c r="P10" s="132">
+        <v>6.53</v>
+      </c>
+      <c r="Q10" s="132">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" s="13">
         <v>7.8133999999999997</v>
@@ -4191,35 +4131,35 @@
         <v>7.85</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="133">
-        <v>7.75</v>
-      </c>
-      <c r="J11" s="133">
-        <v>7.75</v>
-      </c>
-      <c r="K11" s="133">
-        <v>7.75</v>
-      </c>
-      <c r="L11" s="133">
+      <c r="I11" s="132">
         <v>7.76</v>
       </c>
-      <c r="M11" s="135"/>
-      <c r="N11" s="133">
+      <c r="J11" s="132">
         <v>7.76</v>
       </c>
-      <c r="O11" s="133">
+      <c r="K11" s="132">
         <v>7.77</v>
       </c>
-      <c r="P11" s="133">
+      <c r="L11" s="132">
         <v>7.77</v>
       </c>
-      <c r="Q11" s="133">
+      <c r="M11" s="134"/>
+      <c r="N11" s="132">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="O11" s="132">
+        <v>7.79</v>
+      </c>
+      <c r="P11" s="132">
+        <v>7.79</v>
+      </c>
+      <c r="Q11" s="132">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="14">
         <v>64.517499999999998</v>
@@ -4238,35 +4178,35 @@
         <v>71.5</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="136">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="J12" s="136">
-        <v>76</v>
-      </c>
-      <c r="K12" s="136">
-        <v>75.5</v>
-      </c>
-      <c r="L12" s="136">
-        <v>75</v>
-      </c>
-      <c r="M12" s="134"/>
-      <c r="N12" s="136">
+      <c r="I12" s="135">
+        <v>74.8</v>
+      </c>
+      <c r="J12" s="135">
+        <v>74.7</v>
+      </c>
+      <c r="K12" s="135">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="L12" s="135">
         <v>74.5</v>
       </c>
-      <c r="O12" s="136">
-        <v>74</v>
-      </c>
-      <c r="P12" s="136">
-        <v>73.5</v>
-      </c>
-      <c r="Q12" s="136">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="M12" s="133"/>
+      <c r="N12" s="135">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O12" s="135">
+        <v>74.3</v>
+      </c>
+      <c r="P12" s="135">
+        <v>74.2</v>
+      </c>
+      <c r="Q12" s="135">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="15">
         <v>13546</v>
@@ -4285,35 +4225,35 @@
         <v>14100</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="137">
-        <v>16000</v>
-      </c>
-      <c r="J13" s="137">
-        <v>14600</v>
-      </c>
-      <c r="K13" s="137">
+      <c r="I13" s="136">
         <v>14500</v>
       </c>
-      <c r="L13" s="137">
-        <v>14400</v>
-      </c>
-      <c r="M13" s="134"/>
-      <c r="N13" s="137">
-        <v>14300</v>
-      </c>
-      <c r="O13" s="137">
-        <v>14200</v>
-      </c>
-      <c r="P13" s="137">
-        <v>14100</v>
-      </c>
-      <c r="Q13" s="137">
+      <c r="J13" s="136">
+        <v>14429</v>
+      </c>
+      <c r="K13" s="136">
+        <v>14357</v>
+      </c>
+      <c r="L13" s="136">
+        <v>14286</v>
+      </c>
+      <c r="M13" s="133"/>
+      <c r="N13" s="136">
+        <v>14214</v>
+      </c>
+      <c r="O13" s="136">
+        <v>14143</v>
+      </c>
+      <c r="P13" s="136">
+        <v>14071</v>
+      </c>
+      <c r="Q13" s="136">
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10">
         <v>4.0762999999999998</v>
@@ -4332,35 +4272,35 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="138">
-        <v>4.34</v>
-      </c>
-      <c r="J14" s="138">
-        <v>4.32</v>
-      </c>
-      <c r="K14" s="138">
-        <v>4.3</v>
-      </c>
-      <c r="L14" s="138">
-        <v>4.28</v>
-      </c>
-      <c r="M14" s="134"/>
-      <c r="N14" s="138">
-        <v>4.26</v>
-      </c>
-      <c r="O14" s="138">
-        <v>4.24</v>
-      </c>
-      <c r="P14" s="138">
-        <v>4.22</v>
-      </c>
-      <c r="Q14" s="138">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I14" s="137">
+        <v>4.12</v>
+      </c>
+      <c r="J14" s="137">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K14" s="137">
+        <v>4.09</v>
+      </c>
+      <c r="L14" s="137">
+        <v>4.07</v>
+      </c>
+      <c r="M14" s="133"/>
+      <c r="N14" s="137">
+        <v>4.05</v>
+      </c>
+      <c r="O14" s="137">
+        <v>4.03</v>
+      </c>
+      <c r="P14" s="137">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q14" s="137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="14">
         <v>50.725000000000001</v>
@@ -4379,35 +4319,35 @@
         <v>51</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="136">
-        <v>51</v>
-      </c>
-      <c r="J15" s="136">
-        <v>51</v>
-      </c>
-      <c r="K15" s="136">
-        <v>51</v>
-      </c>
-      <c r="L15" s="136">
-        <v>51</v>
-      </c>
-      <c r="M15" s="134"/>
-      <c r="N15" s="136">
-        <v>50.8</v>
-      </c>
-      <c r="O15" s="136">
-        <v>50.6</v>
-      </c>
-      <c r="P15" s="136">
-        <v>50.4</v>
-      </c>
-      <c r="Q15" s="136">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I15" s="135">
+        <v>48.5</v>
+      </c>
+      <c r="J15" s="135">
+        <v>48.3</v>
+      </c>
+      <c r="K15" s="135">
+        <v>48.2</v>
+      </c>
+      <c r="L15" s="135">
+        <v>48</v>
+      </c>
+      <c r="M15" s="133"/>
+      <c r="N15" s="135">
+        <v>47.8</v>
+      </c>
+      <c r="O15" s="135">
+        <v>47.7</v>
+      </c>
+      <c r="P15" s="135">
+        <v>47.5</v>
+      </c>
+      <c r="Q15" s="135">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="10">
         <v>1.349</v>
@@ -4426,35 +4366,35 @@
         <v>1.38</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="138">
-        <v>1.43</v>
-      </c>
-      <c r="J16" s="138">
-        <v>1.41</v>
-      </c>
-      <c r="K16" s="138">
-        <v>1.4</v>
-      </c>
-      <c r="L16" s="138">
-        <v>1.39</v>
-      </c>
-      <c r="M16" s="139"/>
-      <c r="N16" s="138">
-        <v>1.38</v>
-      </c>
-      <c r="O16" s="138">
-        <v>1.37</v>
-      </c>
-      <c r="P16" s="138">
+      <c r="I16" s="137">
         <v>1.36</v>
       </c>
-      <c r="Q16" s="138">
+      <c r="J16" s="137">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="K16" s="137">
+        <v>1.35</v>
+      </c>
+      <c r="L16" s="137">
+        <v>1.34</v>
+      </c>
+      <c r="M16" s="138"/>
+      <c r="N16" s="137">
+        <v>1.33</v>
+      </c>
+      <c r="O16" s="137">
+        <v>1.32</v>
+      </c>
+      <c r="P16" s="137">
+        <v>1.32</v>
+      </c>
+      <c r="Q16" s="137">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="15">
         <v>1093.3900000000001</v>
@@ -4473,35 +4413,35 @@
         <v>1170</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="137">
-        <v>1211</v>
-      </c>
-      <c r="J17" s="137">
-        <v>1230</v>
-      </c>
-      <c r="K17" s="137">
-        <v>1220</v>
-      </c>
-      <c r="L17" s="137">
-        <v>1210</v>
-      </c>
-      <c r="M17" s="139"/>
-      <c r="N17" s="137">
-        <v>1200</v>
-      </c>
-      <c r="O17" s="137">
-        <v>1190</v>
-      </c>
-      <c r="P17" s="137">
-        <v>1180</v>
-      </c>
-      <c r="Q17" s="137">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I17" s="136">
+        <v>1116</v>
+      </c>
+      <c r="J17" s="136">
+        <v>1116</v>
+      </c>
+      <c r="K17" s="136">
+        <v>1116</v>
+      </c>
+      <c r="L17" s="136">
+        <v>1115</v>
+      </c>
+      <c r="M17" s="138"/>
+      <c r="N17" s="136">
+        <v>1115</v>
+      </c>
+      <c r="O17" s="136">
+        <v>1114</v>
+      </c>
+      <c r="P17" s="136">
+        <v>1114</v>
+      </c>
+      <c r="Q17" s="136">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="14">
         <v>32.619999999999997</v>
@@ -4520,35 +4460,35 @@
         <v>30.5</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="136">
-        <v>32.6</v>
-      </c>
-      <c r="J18" s="136">
-        <v>31.8</v>
-      </c>
-      <c r="K18" s="136">
-        <v>31.7</v>
-      </c>
-      <c r="L18" s="136">
-        <v>31.6</v>
-      </c>
-      <c r="M18" s="139"/>
-      <c r="N18" s="136">
-        <v>31.5</v>
-      </c>
-      <c r="O18" s="136">
-        <v>31.4</v>
-      </c>
-      <c r="P18" s="136">
-        <v>31.3</v>
-      </c>
-      <c r="Q18" s="136">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I18" s="135">
+        <v>31</v>
+      </c>
+      <c r="J18" s="135">
+        <v>30.8</v>
+      </c>
+      <c r="K18" s="135">
+        <v>30.6</v>
+      </c>
+      <c r="L18" s="135">
+        <v>30.4</v>
+      </c>
+      <c r="M18" s="138"/>
+      <c r="N18" s="135">
+        <v>30.2</v>
+      </c>
+      <c r="O18" s="135">
+        <v>30</v>
+      </c>
+      <c r="P18" s="135">
+        <v>29.8</v>
+      </c>
+      <c r="Q18" s="135">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="15">
         <v>22716</v>
@@ -4567,30 +4507,30 @@
         <v>23200</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="137">
-        <v>23625</v>
-      </c>
-      <c r="J19" s="137">
-        <v>23270</v>
-      </c>
-      <c r="K19" s="137">
-        <v>23250</v>
-      </c>
-      <c r="L19" s="137">
-        <v>23230</v>
-      </c>
-      <c r="M19" s="139"/>
-      <c r="N19" s="137">
-        <v>23220</v>
-      </c>
-      <c r="O19" s="137">
+      <c r="I19" s="136">
         <v>23200</v>
       </c>
-      <c r="P19" s="137">
-        <v>23190</v>
-      </c>
-      <c r="Q19" s="137">
-        <v>23170</v>
+      <c r="J19" s="136">
+        <v>23150</v>
+      </c>
+      <c r="K19" s="136">
+        <v>23100</v>
+      </c>
+      <c r="L19" s="136">
+        <v>23050</v>
+      </c>
+      <c r="M19" s="138"/>
+      <c r="N19" s="136">
+        <v>23000</v>
+      </c>
+      <c r="O19" s="136">
+        <v>22950</v>
+      </c>
+      <c r="P19" s="136">
+        <v>22900</v>
+      </c>
+      <c r="Q19" s="136">
+        <v>22850</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1">
@@ -4611,9 +4551,9 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+    <row r="21" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" s="10">
         <v>0.75639999999999996</v>
@@ -4632,35 +4572,35 @@
         <v>0.66</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="138">
-        <v>0.62</v>
-      </c>
-      <c r="J21" s="138">
-        <v>0.66</v>
-      </c>
-      <c r="K21" s="138">
-        <v>0.67</v>
-      </c>
-      <c r="L21" s="138">
-        <v>0.67</v>
-      </c>
-      <c r="M21" s="139"/>
-      <c r="N21" s="138">
-        <v>0.68</v>
-      </c>
-      <c r="O21" s="138">
-        <v>0.69</v>
-      </c>
-      <c r="P21" s="138">
-        <v>0.69</v>
-      </c>
-      <c r="Q21" s="138">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I21" s="137">
+        <v>0.73</v>
+      </c>
+      <c r="J21" s="137">
+        <v>0.73</v>
+      </c>
+      <c r="K21" s="137">
+        <v>0.73</v>
+      </c>
+      <c r="L21" s="137">
+        <v>0.74</v>
+      </c>
+      <c r="M21" s="138"/>
+      <c r="N21" s="137">
+        <v>0.74</v>
+      </c>
+      <c r="O21" s="137">
+        <v>0.75</v>
+      </c>
+      <c r="P21" s="137">
+        <v>0.75</v>
+      </c>
+      <c r="Q21" s="137">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10">
         <v>1.1796</v>
@@ -4679,35 +4619,35 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="138">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J22" s="138">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K22" s="138">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L22" s="138">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M22" s="139"/>
-      <c r="N22" s="138">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O22" s="138">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="P22" s="138">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="Q22" s="138">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I22" s="137">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J22" s="137">
+        <v>1.17</v>
+      </c>
+      <c r="K22" s="137">
+        <v>1.19</v>
+      </c>
+      <c r="L22" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="M22" s="138"/>
+      <c r="N22" s="137">
+        <v>1.21</v>
+      </c>
+      <c r="O22" s="137">
+        <v>1.22</v>
+      </c>
+      <c r="P22" s="137">
+        <v>1.24</v>
+      </c>
+      <c r="Q22" s="137">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" s="15">
         <v>112.29</v>
@@ -4726,35 +4666,35 @@
         <v>109</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="137">
-        <v>108</v>
-      </c>
-      <c r="J23" s="137">
-        <v>108</v>
-      </c>
-      <c r="K23" s="137">
-        <v>108</v>
-      </c>
-      <c r="L23" s="137">
-        <v>109</v>
-      </c>
-      <c r="M23" s="139"/>
-      <c r="N23" s="137">
-        <v>109</v>
-      </c>
-      <c r="O23" s="137">
-        <v>110</v>
-      </c>
-      <c r="P23" s="137">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="137">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I23" s="136">
+        <v>106</v>
+      </c>
+      <c r="J23" s="136">
+        <v>106</v>
+      </c>
+      <c r="K23" s="136">
+        <v>106</v>
+      </c>
+      <c r="L23" s="136">
+        <v>106</v>
+      </c>
+      <c r="M23" s="138"/>
+      <c r="N23" s="136">
+        <v>105</v>
+      </c>
+      <c r="O23" s="136">
+        <v>105</v>
+      </c>
+      <c r="P23" s="136">
+        <v>105</v>
+      </c>
+      <c r="Q23" s="136">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10">
         <v>1.3392999999999999</v>
@@ -4773,33 +4713,33 @@
         <v>1.25</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="138">
-        <v>1.25</v>
-      </c>
-      <c r="J24" s="138">
-        <v>1.22</v>
-      </c>
-      <c r="K24" s="138">
-        <v>1.22</v>
-      </c>
-      <c r="L24" s="138">
-        <v>1.22</v>
-      </c>
-      <c r="M24" s="140"/>
-      <c r="N24" s="138">
-        <v>1.23</v>
-      </c>
-      <c r="O24" s="138">
-        <v>1.24</v>
-      </c>
-      <c r="P24" s="138">
-        <v>1.25</v>
-      </c>
-      <c r="Q24" s="138">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
+      <c r="I24" s="137">
+        <v>1.29</v>
+      </c>
+      <c r="J24" s="137">
+        <v>1.3</v>
+      </c>
+      <c r="K24" s="137">
+        <v>1.31</v>
+      </c>
+      <c r="L24" s="137">
+        <v>1.32</v>
+      </c>
+      <c r="M24" s="139"/>
+      <c r="N24" s="137">
+        <v>1.33</v>
+      </c>
+      <c r="O24" s="137">
+        <v>1.34</v>
+      </c>
+      <c r="P24" s="137">
+        <v>1.35</v>
+      </c>
+      <c r="Q24" s="137">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
@@ -4857,11 +4797,11 @@
       </c>
       <c r="K28" s="26">
         <f>(G23/L23-1)*100</f>
-        <v>0</v>
+        <v>2.8301886792452935</v>
       </c>
       <c r="L28" s="26">
         <f>K28+J28</f>
-        <v>0.1</v>
+        <v>2.9301886792452936</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1">
@@ -4877,11 +4817,11 @@
       </c>
       <c r="K29" s="26">
         <f>-(G22/L22-1)*100</f>
-        <v>1.8018018018018056</v>
+        <v>9.1666666666666572</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" ref="L29:L37" si="0">K29+J29</f>
-        <v>2.6018018018018054</v>
+        <v>9.9666666666666579</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1">
@@ -4897,14 +4837,14 @@
       </c>
       <c r="K30" s="17">
         <f>(G13/L13-1)*100</f>
-        <v>-2.083333333333337</v>
+        <v>-1.3019739605207858</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>5.1166666666666636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="12" customFormat="1" ht="13">
+        <v>5.8980260394792143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="12" customFormat="1" ht="12.75">
       <c r="D31" s="3"/>
       <c r="I31" s="21" t="s">
         <v>10</v>
@@ -4914,14 +4854,14 @@
       </c>
       <c r="K31" s="17">
         <f>(G14/L14-1)*100</f>
-        <v>-3.0373831775700855</v>
+        <v>1.9656019656019597</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1.4626168224299145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="13">
+        <v>6.4656019656019597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="12.75">
       <c r="I32" s="22" t="s">
         <v>11</v>
       </c>
@@ -4930,15 +4870,15 @@
       </c>
       <c r="K32" s="17">
         <f>(G15/L15-1)*100</f>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L32" s="26">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>12.05</v>
       </c>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" ht="13">
+    <row r="33" spans="1:23" ht="12.75">
       <c r="D33" s="19"/>
       <c r="I33" s="23" t="s">
         <v>12</v>
@@ -4948,15 +4888,15 @@
       </c>
       <c r="K33" s="17">
         <f>(G16/L16-1)*100</f>
-        <v>-0.7194244604316502</v>
+        <v>2.9850746268656581</v>
       </c>
       <c r="L33" s="26">
         <f t="shared" si="0"/>
-        <v>1.8305755395683501</v>
+        <v>5.5350746268656579</v>
       </c>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" ht="13">
+    <row r="34" spans="1:23" ht="12.75">
       <c r="I34" s="22" t="s">
         <v>13</v>
       </c>
@@ -4965,15 +4905,15 @@
       </c>
       <c r="K34" s="17">
         <f>(G18/L18-1)*100</f>
-        <v>-3.4810126582278555</v>
+        <v>0.32894736842106198</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>-0.68101265822785573</v>
+        <v>3.1289473684210618</v>
       </c>
       <c r="W34" s="18"/>
     </row>
-    <row r="35" spans="1:23" ht="13">
+    <row r="35" spans="1:23" ht="12.75">
       <c r="I35" s="22" t="s">
         <v>15</v>
       </c>
@@ -4982,15 +4922,15 @@
       </c>
       <c r="K35" s="17">
         <f>(G10/L10-1)*100</f>
-        <v>0.56657223796034994</v>
+        <v>7.4130105900151122</v>
       </c>
       <c r="L35" s="26">
         <f t="shared" si="0"/>
-        <v>4.5665722379603499</v>
+        <v>11.413010590015112</v>
       </c>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" ht="13">
+    <row r="36" spans="1:23" ht="12.75">
       <c r="I36" s="22" t="s">
         <v>42</v>
       </c>
@@ -4999,15 +4939,15 @@
       </c>
       <c r="K36" s="17">
         <f>(G17/L17-1)*100</f>
-        <v>-3.3057851239669422</v>
+        <v>4.9327354260089606</v>
       </c>
       <c r="L36" s="26">
         <f t="shared" si="0"/>
-        <v>-0.30578512396694224</v>
+        <v>7.9327354260089606</v>
       </c>
       <c r="W36" s="18"/>
     </row>
-    <row r="37" spans="1:23" ht="13">
+    <row r="37" spans="1:23" ht="12.75">
       <c r="I37" s="22" t="s">
         <v>24</v>
       </c>
@@ -5016,47 +4956,47 @@
       </c>
       <c r="K37" s="17">
         <f>(G12/L12-1)*100</f>
-        <v>-4.6666666666666634</v>
+        <v>-4.0268456375838984</v>
       </c>
       <c r="L37" s="26">
         <f t="shared" si="0"/>
-        <v>2.6333333333333364</v>
+        <v>3.2731543624161015</v>
       </c>
       <c r="W37" s="18"/>
     </row>
-    <row r="40" spans="1:23" ht="13">
+    <row r="40" spans="1:23" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
-    </row>
-    <row r="41" spans="1:23" ht="13">
+      <c r="D40" s="144"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+    </row>
+    <row r="41" spans="1:23" ht="12.75">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="143" t="s">
+      <c r="D41" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-    </row>
-    <row r="42" spans="1:23" ht="13">
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+    </row>
+    <row r="42" spans="1:23" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5070,7 +5010,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:23" ht="13">
+    <row r="43" spans="1:23" ht="12.75">
       <c r="A43" s="4"/>
       <c r="B43" s="5">
         <v>43075</v>
@@ -5102,7 +5042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="13">
+    <row r="44" spans="1:23" ht="12.75">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5116,9 +5056,9 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:23" ht="13">
+    <row r="45" spans="1:23" ht="12.75">
       <c r="A45" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B45" s="13">
         <v>6.6148999999999996</v>
@@ -5150,9 +5090,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="13">
+    <row r="46" spans="1:23" ht="12.75">
       <c r="A46" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B46" s="13">
         <v>7.8133999999999997</v>
@@ -5184,9 +5124,9 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="13">
+    <row r="47" spans="1:23" ht="12.75">
       <c r="A47" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B47" s="14">
         <v>64.517499999999998</v>
@@ -5218,9 +5158,9 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="13">
+    <row r="48" spans="1:23" ht="12.75">
       <c r="A48" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B48" s="15">
         <v>13546</v>
@@ -5252,9 +5192,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="13">
+    <row r="49" spans="1:12" ht="12.75">
       <c r="A49" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B49" s="10">
         <v>4.0762999999999998</v>
@@ -5286,9 +5226,9 @@
         <v>4.0500000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="13">
+    <row r="50" spans="1:12" ht="12.75">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" s="14">
         <v>50.725000000000001</v>
@@ -5320,9 +5260,9 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="13">
+    <row r="51" spans="1:12" ht="12.75">
       <c r="A51" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="10">
         <v>1.349</v>
@@ -5354,9 +5294,9 @@
         <v>1.3499999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="13">
+    <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B52" s="15">
         <v>1093.3900000000001</v>
@@ -5388,9 +5328,9 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="13">
+    <row r="53" spans="1:12" ht="12.75">
       <c r="A53" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B53" s="14">
         <v>32.619999999999997</v>
@@ -5422,9 +5362,9 @@
         <v>31.999999999999989</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="13">
+    <row r="54" spans="1:12" ht="12.75">
       <c r="A54" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B54" s="15">
         <v>22716</v>
@@ -5456,7 +5396,7 @@
         <v>23150</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="13">
+    <row r="55" spans="1:12" ht="12.75">
       <c r="A55" s="12"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5470,9 +5410,9 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" ht="13">
+    <row r="56" spans="1:12" ht="12.75">
       <c r="A56" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56" s="10">
         <v>0.75639999999999996</v>
@@ -5504,9 +5444,9 @@
         <v>0.71000000000000008</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="13">
+    <row r="57" spans="1:12" ht="12.75">
       <c r="A57" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B57" s="10">
         <v>1.1796</v>
@@ -5538,9 +5478,9 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="13">
+    <row r="58" spans="1:12" ht="12.75">
       <c r="A58" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58" s="15">
         <v>112.29</v>
@@ -5572,9 +5512,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="13">
+    <row r="59" spans="1:12" ht="12.75">
       <c r="A59" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="10">
         <v>1.3392999999999999</v>
@@ -5606,7 +5546,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="13">
+    <row r="60" spans="1:12" ht="12.75">
       <c r="A60" s="12" t="s">
         <v>41</v>
       </c>
@@ -5635,23 +5575,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B39A16-63F6-410C-BFC0-6353BABC143C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7">
       <c r="C1" s="110" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -5668,7 +5608,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="112" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="112"/>
       <c r="D2" s="111">
@@ -5681,7 +5621,7 @@
         <v>54</v>
       </c>
       <c r="G2" s="111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5693,19 +5633,19 @@
       </c>
       <c r="D3">
         <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E3">
         <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>2.2999999999999998</v>
+        <v>-3.5</v>
       </c>
       <c r="F3">
         <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f>VLOOKUP($C3,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5717,19 +5657,19 @@
       </c>
       <c r="D4">
         <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
         <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>0.9</v>
+        <v>-8</v>
       </c>
       <c r="F4">
         <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f>VLOOKUP($C4,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5741,19 +5681,19 @@
       </c>
       <c r="D5">
         <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
         <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>0.7</v>
+        <v>-5</v>
       </c>
       <c r="F5">
         <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-5</v>
+        <v>2.8</v>
       </c>
       <c r="G5">
         <f>VLOOKUP($C5,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5765,19 +5705,19 @@
       </c>
       <c r="D6">
         <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="E6">
         <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <f>VLOOKUP($C6,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5789,19 +5729,19 @@
       </c>
       <c r="D7">
         <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>3</v>
+        <v>-1.2</v>
       </c>
       <c r="E7">
         <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>-1.2</v>
+        <v>-7</v>
       </c>
       <c r="F7">
         <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>VLOOKUP($C7,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5813,19 +5753,19 @@
       </c>
       <c r="D8">
         <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
         <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>0.7</v>
+        <v>-6</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G8">
         <f>VLOOKUP($C8,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5837,19 +5777,19 @@
       </c>
       <c r="D9">
         <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="F9">
         <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G9">
         <f>VLOOKUP($C9,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5861,19 +5801,19 @@
       </c>
       <c r="D10">
         <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="F10">
         <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-1.1000000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="G10">
         <f>VLOOKUP($C10,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5885,19 +5825,19 @@
       </c>
       <c r="D11">
         <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="E11">
         <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>2.4</v>
+        <v>-6.3</v>
       </c>
       <c r="F11">
         <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-7.5</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
         <f>VLOOKUP($C11,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5909,19 +5849,19 @@
       </c>
       <c r="D12">
         <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="E12">
         <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>4.3</v>
+        <v>-6.8</v>
       </c>
       <c r="F12">
         <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-1.6</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f>VLOOKUP($C12,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5933,19 +5873,19 @@
       </c>
       <c r="D13">
         <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="E13">
         <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>5.9</v>
+        <v>-9.5</v>
       </c>
       <c r="F13">
         <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-6.2</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <f>VLOOKUP($C13,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5957,19 +5897,19 @@
       </c>
       <c r="D14">
         <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="G14">
         <f>VLOOKUP($C14,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5981,19 +5921,19 @@
       </c>
       <c r="D15">
         <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>6.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E15">
         <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>4.9000000000000004</v>
+        <v>-7.4</v>
       </c>
       <c r="F15">
         <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-5.7</v>
+        <v>7.6</v>
       </c>
       <c r="G15">
         <f>VLOOKUP($C15,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6005,19 +5945,19 @@
       </c>
       <c r="D16">
         <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!D$1,FALSE)</f>
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!E$1,FALSE)</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!F$1,FALSE)</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <f>VLOOKUP($C16,'GDP key'!$A$5:$H$24,'Transform-GDP'!G$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -6027,166 +5967,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5585B902-316A-4FB2-A7BC-42386362E5D9}">
-  <dimension ref="A1:AA16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" customWidth="1"/>
-    <col min="14" max="27" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="28" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13">
+    <row r="1" spans="1:28">
       <c r="C1" s="110" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="115"/>
       <c r="E1" s="115">
+        <v>14</v>
+      </c>
+      <c r="F1" s="115">
         <v>15</v>
       </c>
-      <c r="F1" s="115">
+      <c r="G1" s="115">
         <v>16</v>
       </c>
-      <c r="G1" s="115">
+      <c r="H1" s="115">
         <v>17</v>
       </c>
-      <c r="H1" s="115">
+      <c r="I1" s="140">
         <v>19</v>
       </c>
-      <c r="I1" s="115">
+      <c r="J1" s="140">
         <v>20</v>
       </c>
-      <c r="J1" s="115">
+      <c r="K1" s="140">
         <v>21</v>
       </c>
-      <c r="K1" s="115">
+      <c r="L1" s="140">
         <v>22</v>
       </c>
-      <c r="N1" s="115">
+      <c r="O1" s="115">
         <v>2</v>
       </c>
-      <c r="O1" s="115">
+      <c r="P1" s="115">
         <v>3</v>
       </c>
-      <c r="P1" s="115">
+      <c r="Q1" s="115">
         <v>4</v>
       </c>
-      <c r="Q1" s="115">
+      <c r="R1" s="115">
         <v>5</v>
       </c>
-      <c r="R1" s="115">
+      <c r="S1" s="115">
         <v>6</v>
       </c>
-      <c r="S1" s="115">
+      <c r="T1" s="115">
         <v>7</v>
       </c>
-      <c r="T1" s="115">
+      <c r="U1" s="115">
         <v>8</v>
       </c>
-      <c r="U1" s="115">
+      <c r="V1" s="115">
         <v>9</v>
       </c>
-      <c r="V1" s="115">
+      <c r="W1" s="115">
         <v>10</v>
       </c>
-      <c r="W1" s="115">
+      <c r="X1" s="115">
         <v>11</v>
       </c>
-      <c r="X1" s="115">
+      <c r="Y1" s="115">
         <v>12</v>
       </c>
-      <c r="Y1" s="115">
+      <c r="Z1" s="115">
         <v>13</v>
       </c>
-      <c r="Z1" s="115">
+      <c r="AA1" s="115">
         <v>14</v>
       </c>
-      <c r="AA1" s="115">
+      <c r="AB1" s="115">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="112"/>
       <c r="B2" s="112"/>
       <c r="D2" s="114" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="114" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F2" s="114" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G2" s="114" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H2" s="114" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="114" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J2" s="114" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="K2" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="P2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="Q2" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="115" t="s">
+      <c r="R2" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="115" t="s">
+      <c r="S2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="115" t="s">
+      <c r="T2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="115" t="s">
+      <c r="U2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="115" t="s">
+      <c r="V2" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="115" t="s">
+      <c r="W2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="X2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="115" t="s">
+      <c r="Y2" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="115" t="s">
+      <c r="Z2" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="115" t="s">
+      <c r="AA2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="115" t="s">
+      <c r="AB2" s="115" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6196,7 +6142,8 @@
       <c r="D3" s="113">
         <v>0.25</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>0.25</v>
       </c>
       <c r="F3">
@@ -6223,67 +6170,71 @@
         <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="M3" s="117" t="s">
+      <c r="L3">
+        <f>VLOOKUP($C3,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N3" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="121">
-        <f t="shared" ref="N3:AA10" si="0">HLOOKUP($M3,$C$2:$K$16,N$1,FALSE)</f>
+      <c r="O3">
+        <f>HLOOKUP($N3,$C$2:$L$16,O$1,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O3" s="121">
-        <f t="shared" si="0"/>
+      <c r="P3">
+        <f t="shared" ref="P3:AB11" si="0">HLOOKUP($N3,$C$2:$L$16,P$1,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="121">
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q3" s="121">
-        <f t="shared" si="0"/>
-        <v>4.05</v>
-      </c>
-      <c r="R3" s="121">
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3" s="121">
-        <f t="shared" si="0"/>
-        <v>0.92317000000000005</v>
-      </c>
-      <c r="T3" s="121">
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="U3">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="U3" s="121">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="V3" s="121">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="W3" s="121">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="X3" s="121">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="Y3" s="121">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Z3" s="121">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA3" s="121">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6293,7 +6244,8 @@
       <c r="D4" s="113">
         <v>0</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -6320,67 +6272,71 @@
         <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
+      <c r="L4">
+        <f>VLOOKUP($C4,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="1">HLOOKUP($N4,$C$2:$L$16,O$1,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0.19955999999999999</v>
+      <c r="S4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W4">
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
       <c r="Z4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6390,7 +6346,8 @@
       <c r="D5" s="113">
         <v>-0.1</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>-0.1</v>
       </c>
       <c r="F5">
@@ -6417,67 +6374,71 @@
         <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>-0.1</v>
       </c>
-      <c r="M5" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
+      <c r="L5">
+        <f>VLOOKUP($C5,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="N5" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="R5" t="e">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
       <c r="Y5">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6485,96 +6446,101 @@
         <v>34</v>
       </c>
       <c r="D6" s="113">
-        <v>4.05</v>
-      </c>
-      <c r="E6" s="113">
+        <v>3.85</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>3.85</v>
       </c>
       <c r="F6">
         <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G6">
         <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H6">
         <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I6">
         <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="J6">
         <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K6">
         <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>3.55</v>
-      </c>
-      <c r="M6" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP($C6,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>4.05</v>
+      </c>
+      <c r="N6" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
-      </c>
-      <c r="R6" t="e">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S6" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6582,7 +6548,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
+      <c r="E7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F7" t="e">
         <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
         <v>#N/A</v>
@@ -6607,67 +6576,71 @@
         <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M7" s="117" t="s">
+      <c r="L7" t="e">
+        <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
-      </c>
-      <c r="R7" t="e">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S7" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="AA7">
+      <c r="AB7">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6675,96 +6648,101 @@
         <v>35</v>
       </c>
       <c r="D8" s="116">
-        <v>0.92317000000000005</v>
-      </c>
-      <c r="E8" s="116">
-        <v>0.19955999999999999</v>
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>0.12</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="G8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="H8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="I8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="J8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="K8">
         <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M8" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="L8">
+        <f>VLOOKUP($C8,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="N8" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
-      </c>
-      <c r="R8" t="e">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
       <c r="X8">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6774,94 +6752,99 @@
       <c r="D9" s="113">
         <v>1.125</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>1.125</v>
       </c>
       <c r="F9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>1.1299999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="G9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>1.1299999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="H9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>1.1299999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="I9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>1.1299999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="J9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>1.1299999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="K9">
         <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="M9" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP($C9,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="N9" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
-      </c>
-      <c r="R9" t="e">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S9" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W9">
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
       <c r="AA9">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -6869,9 +6852,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="113">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="F10">
@@ -6898,67 +6882,71 @@
         <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="M10" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
+      <c r="L10">
+        <f>VLOOKUP($C10,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
-      </c>
-      <c r="R10" t="e">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="S10" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="W10">
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
       <c r="AA10">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6966,9 +6954,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="113">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="F11">
@@ -6995,8 +6984,71 @@
         <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="L11">
+        <f>VLOOKUP($C11,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7004,10 +7056,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="113">
-        <v>2.5</v>
-      </c>
-      <c r="E12" s="113">
-        <v>2</v>
+        <v>1.75</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>1.75</v>
       </c>
       <c r="F12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
@@ -7015,26 +7068,30 @@
       </c>
       <c r="G12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="J12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K12">
         <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>2.5</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP($C12,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7042,37 +7099,42 @@
         <v>11</v>
       </c>
       <c r="D13" s="113">
-        <v>3.25</v>
-      </c>
-      <c r="E13" s="113">
-        <v>2.25</v>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="F13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP($C13,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -7080,26 +7142,27 @@
         <v>36</v>
       </c>
       <c r="D14" s="113">
-        <v>5</v>
-      </c>
-      <c r="E14" s="113">
-        <v>4.5</v>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
@@ -7109,8 +7172,12 @@
         <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="L14">
+        <f>VLOOKUP($C14,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -7118,9 +7185,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="113">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E15" s="113">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F15">
@@ -7129,26 +7197,30 @@
       </c>
       <c r="G15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!G$1,FALSE)</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!H$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!I$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!J$1,FALSE)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP($C15,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -7156,10 +7228,11 @@
         <v>9</v>
       </c>
       <c r="D16" s="113">
-        <v>4.5</v>
-      </c>
-      <c r="E16" s="113">
-        <v>4.25</v>
+        <v>3.75</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
+        <v>3.75</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!F$1,FALSE)</f>
@@ -7183,6 +7256,10 @@
       </c>
       <c r="K16">
         <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!K$1,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP($C16,'Policy rate '!$A$8:$V$23,'Transform-Policy'!L$1,FALSE)</f>
         <v>3.75</v>
       </c>
     </row>
@@ -7193,228 +7270,237 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA66C54-171D-4A74-B9A8-7B1D6A62280E}">
-  <dimension ref="A1:AO16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="11" width="8.7265625" customWidth="1"/>
+    <col min="3" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="13">
+    <row r="1" spans="1:43">
       <c r="C1" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="115"/>
+      <c r="D1" s="115">
+        <v>12</v>
+      </c>
       <c r="E1" s="115">
+        <v>9</v>
+      </c>
+      <c r="F1" s="115">
         <v>10</v>
       </c>
-      <c r="F1" s="115">
+      <c r="G1" s="115">
         <v>11</v>
       </c>
-      <c r="G1" s="115">
+      <c r="H1" s="115">
         <v>12</v>
       </c>
-      <c r="H1" s="115">
+      <c r="I1" s="140">
         <v>14</v>
       </c>
-      <c r="I1" s="115">
+      <c r="J1" s="140">
         <v>15</v>
       </c>
-      <c r="J1" s="115">
+      <c r="K1" s="140">
         <v>16</v>
       </c>
-      <c r="K1" s="115">
+      <c r="L1" s="140">
         <v>17</v>
       </c>
-      <c r="N1" s="120">
+      <c r="M1" s="140"/>
+      <c r="P1" s="120">
         <v>2</v>
       </c>
-      <c r="O1" s="120">
+      <c r="Q1" s="120">
         <v>3</v>
       </c>
-      <c r="P1" s="120">
+      <c r="R1" s="120">
         <v>4</v>
       </c>
-      <c r="Q1" s="120">
+      <c r="S1" s="120">
         <v>5</v>
       </c>
-      <c r="R1" s="120">
+      <c r="T1" s="120">
         <v>6</v>
       </c>
-      <c r="S1" s="120">
+      <c r="U1" s="120">
         <v>7</v>
       </c>
-      <c r="T1" s="120">
+      <c r="V1" s="120">
         <v>8</v>
       </c>
-      <c r="U1" s="120">
+      <c r="W1" s="120">
         <v>9</v>
       </c>
-      <c r="V1" s="120">
+      <c r="X1" s="120">
         <v>10</v>
       </c>
-      <c r="W1" s="120">
+      <c r="Y1" s="120">
         <v>11</v>
       </c>
-      <c r="X1" s="120">
+      <c r="Z1" s="120">
         <v>12</v>
       </c>
-      <c r="Y1" s="120">
+      <c r="AA1" s="120">
         <v>13</v>
       </c>
-      <c r="Z1" s="120">
+      <c r="AB1" s="120">
         <v>14</v>
       </c>
-      <c r="AA1" s="120">
+      <c r="AC1" s="120">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:43">
       <c r="D2" s="114" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="114" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F2" s="114" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G2" s="114" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H2" s="114" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="114" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J2" s="114" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="K2" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="114"/>
+      <c r="O2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" t="s">
         <v>94</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>95</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>97</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>99</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>101</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>102</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
         <v>103</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AC2" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AD2" t="str">
+        <f>P2&amp;"%"</f>
+        <v>USD%</v>
+      </c>
+      <c r="AE2" t="str">
+        <f t="shared" ref="AE2:AQ2" si="0">Q2&amp;"%"</f>
+        <v>EUR%</v>
+      </c>
+      <c r="AF2" t="str">
+        <f t="shared" si="0"/>
+        <v>JPY%</v>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY%</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD%</v>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" si="0"/>
+        <v>SGD%</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="0"/>
+        <v>TWD%</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="0"/>
+        <v>KRW%</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" si="0"/>
+        <v>THB%</v>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR%</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP%</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="0"/>
+        <v>VND%</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" si="0"/>
+        <v>INR%</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="Z2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB2" t="str">
-        <f>N2&amp;"%"</f>
-        <v>USD%</v>
-      </c>
-      <c r="AC2" t="str">
-        <f t="shared" ref="AC2:AO2" si="0">O2&amp;"%"</f>
-        <v>EUR%</v>
-      </c>
-      <c r="AD2" t="str">
-        <f t="shared" si="0"/>
-        <v>JPY%</v>
-      </c>
-      <c r="AE2" t="str">
-        <f t="shared" si="0"/>
-        <v>CNY%</v>
-      </c>
-      <c r="AF2" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD%</v>
-      </c>
-      <c r="AG2" t="str">
-        <f t="shared" si="0"/>
-        <v>SGD%</v>
-      </c>
-      <c r="AH2" t="str">
-        <f t="shared" si="0"/>
-        <v>TWD%</v>
-      </c>
-      <c r="AI2" t="str">
-        <f t="shared" si="0"/>
-        <v>KRW%</v>
-      </c>
-      <c r="AJ2" t="str">
-        <f t="shared" si="0"/>
-        <v>THB%</v>
-      </c>
-      <c r="AK2" t="str">
-        <f t="shared" si="0"/>
-        <v>MYR%</v>
-      </c>
-      <c r="AL2" t="str">
-        <f t="shared" si="0"/>
-        <v>PHP%</v>
-      </c>
-      <c r="AM2" t="str">
-        <f t="shared" si="0"/>
-        <v>VND%</v>
-      </c>
-      <c r="AN2" t="str">
-        <f t="shared" si="0"/>
-        <v>INR%</v>
-      </c>
-      <c r="AO2" t="str">
-        <f t="shared" si="0"/>
-        <v>IDR%</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="113">
-        <v>1</v>
-      </c>
-      <c r="E3" s="113">
-        <v>1</v>
+      <c r="D3" s="113"/>
+      <c r="E3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="F3" t="e">
         <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -7440,70 +7526,68 @@
         <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N9" si="1">HLOOKUP($M3,$A$2:$K$16,N$1,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:AA9" si="2">HLOOKUP($M3,$A$2:$K$16,O$1,FALSE)</f>
-        <v>1.1234</v>
+      <c r="L3" t="e">
+        <f>VLOOKUP($C3,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="117" t="s">
+        <v>55</v>
       </c>
       <c r="P3">
-        <f t="shared" si="2"/>
-        <v>107.93</v>
+        <f>HLOOKUP($O3,$A$2:$L$16,P$1,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
-        <v>7.0640000000000001</v>
+        <f t="shared" ref="Q3:AC11" si="1">HLOOKUP($O3,$A$2:$L$16,Q$1,FALSE)</f>
+        <v>1.2121</v>
       </c>
       <c r="R3">
-        <f t="shared" si="2"/>
-        <v>7.7504999999999997</v>
+        <f t="shared" si="1"/>
+        <v>104.17</v>
       </c>
       <c r="S3">
-        <f t="shared" si="2"/>
-        <v>1.3935999999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.5315000000000003</v>
       </c>
       <c r="T3">
-        <f t="shared" si="2"/>
-        <v>29.567</v>
+        <f t="shared" si="1"/>
+        <v>7.7507000000000001</v>
       </c>
       <c r="U3">
-        <f t="shared" si="2"/>
-        <v>1202.9000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.3358000000000001</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
-        <v>30.905000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
-        <v>4.2862999999999998</v>
+        <f t="shared" si="1"/>
+        <v>1082.05</v>
       </c>
       <c r="X3">
-        <f t="shared" si="2"/>
-        <v>49.822000000000003</v>
+        <f t="shared" si="1"/>
+        <v>30.145</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
-        <v>23196</v>
+        <f t="shared" si="1"/>
+        <v>4.0620000000000003</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="2"/>
-        <v>75.508700000000005</v>
+        <f t="shared" si="1"/>
+        <v>48.034999999999997</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="2"/>
-        <v>14265</v>
-      </c>
-      <c r="AB3" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="118">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>23121</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="1"/>
+        <v>73.796199999999999</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="1"/>
+        <v>14105</v>
       </c>
       <c r="AD3" s="118">
         <v>0</v>
@@ -7541,764 +7625,779 @@
       <c r="AO3" s="118">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AP3" s="118">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="113">
-        <v>1.1031</v>
-      </c>
-      <c r="E4" s="113">
-        <v>1.1234</v>
+        <v>1.2121</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>1.1000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="G4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>1.1100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="H4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>1.1200000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>1.1299999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="J4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="K4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M4" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" t="e">
-        <f t="shared" si="1"/>
+        <v>1.24</v>
+      </c>
+      <c r="L4">
+        <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="O4" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" t="e">
+        <f t="shared" ref="P4:P11" si="2">HLOOKUP($O4,$A$2:$L$16,P$1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>7.08</v>
+        <f t="shared" si="1"/>
+        <v>1.1599999999999999</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
-        <v>7.75</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="e">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>7.76</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="V4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>4.12</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>48.5</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>23200</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>74.8</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="1"/>
+        <v>14500</v>
+      </c>
+      <c r="AE4" s="141">
+        <f>(Q4-Q$3)/Q$3</f>
+        <v>-4.2983252206913652E-2</v>
+      </c>
+      <c r="AF4" s="121">
+        <f>-(R4-R$3)/R$3</f>
+        <v>-1.7567437841989039E-2</v>
+      </c>
+      <c r="AG4" s="121">
+        <f t="shared" ref="AG4:AG11" si="3">-(S4-S$3)/S$3</f>
+        <v>-2.5798055576820005E-2</v>
+      </c>
+      <c r="AH4" s="121">
+        <f t="shared" ref="AH4:AH11" si="4">-(T4-T$3)/T$3</f>
+        <v>-1.1998916226920978E-3</v>
+      </c>
+      <c r="AI4" s="121">
+        <f t="shared" ref="AI4:AI11" si="5">-(U4-U$3)/U$3</f>
+        <v>-1.8116484503668213E-2</v>
+      </c>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121">
+        <f t="shared" ref="AK4:AK11" si="6">-(W4-W$3)/W$3</f>
+        <v>-3.1375629591978232E-2</v>
+      </c>
+      <c r="AL4" s="121">
+        <f t="shared" ref="AL4:AL11" si="7">-(X4-X$3)/X$3</f>
+        <v>-2.8362912589152446E-2</v>
+      </c>
+      <c r="AM4" s="121">
+        <f t="shared" ref="AM4:AM11" si="8">-(Y4-Y$3)/Y$3</f>
+        <v>-1.4278680452978785E-2</v>
+      </c>
+      <c r="AN4" s="121">
+        <f t="shared" ref="AN4:AN11" si="9">-(Z4-Z$3)/Z$3</f>
+        <v>-9.6804413448527832E-3</v>
+      </c>
+      <c r="AO4" s="121">
+        <f t="shared" ref="AO4:AO11" si="10">-(AA4-AA$3)/AA$3</f>
+        <v>-3.4168072315211278E-3</v>
+      </c>
+      <c r="AP4" s="121">
+        <f t="shared" ref="AP4:AP11" si="11">-(AB4-AB$3)/AB$3</f>
+        <v>-1.3602326407050745E-2</v>
+      </c>
+      <c r="AQ4" s="121">
+        <f t="shared" ref="AQ4:AQ11" si="12">-(AC4-AC$3)/AC$3</f>
+        <v>-2.8004253810705423E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="113">
+        <v>104.17</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>106</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>106</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>106</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="K5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="O5" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
-        <v>1220</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="2"/>
-        <v>31.7</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="2"/>
-        <v>4.3</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="2"/>
-        <v>23250</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="2"/>
-        <v>75.5</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="2"/>
-        <v>14500</v>
-      </c>
-      <c r="AC4" s="122">
-        <f>(O4-O$3)/O$3</f>
-        <v>-2.0829624354637588E-2</v>
-      </c>
-      <c r="AD4" s="122">
-        <f t="shared" ref="AD4:AO4" si="3">(P$3-P4)/P$3</f>
-        <v>-6.4856851663108663E-4</v>
-      </c>
-      <c r="AE4" s="122">
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.17</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>6.67</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>7.76</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="V5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>30.8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>48.3</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>23150</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>74.7</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>14429</v>
+      </c>
+      <c r="AE5" s="141">
+        <f t="shared" ref="AE5:AE11" si="13">(Q5-Q$3)/Q$3</f>
+        <v>-3.4733107829387037E-2</v>
+      </c>
+      <c r="AF5" s="121">
+        <f t="shared" ref="AF5:AF11" si="14">-(R5-R$3)/R$3</f>
+        <v>-1.7567437841989039E-2</v>
+      </c>
+      <c r="AG5" s="121">
         <f t="shared" si="3"/>
-        <v>-2.2650056625141582E-3</v>
-      </c>
-      <c r="AF4" s="122">
-        <f t="shared" si="3"/>
-        <v>6.4511966969837162E-5</v>
-      </c>
-      <c r="AG4" s="122">
-        <f t="shared" si="3"/>
-        <v>-4.5924225028702364E-3</v>
-      </c>
-      <c r="AH4" s="122" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI4" s="122">
-        <f t="shared" si="3"/>
-        <v>-1.421564552331857E-2</v>
-      </c>
-      <c r="AJ4" s="122">
-        <f t="shared" si="3"/>
-        <v>-2.5723992881410713E-2</v>
-      </c>
-      <c r="AK4" s="122">
-        <f t="shared" si="3"/>
-        <v>-3.1962298485873706E-3</v>
-      </c>
-      <c r="AL4" s="122">
-        <f t="shared" si="3"/>
-        <v>-2.3644173256794132E-2</v>
-      </c>
-      <c r="AM4" s="122">
-        <f t="shared" si="3"/>
-        <v>-2.3279875840662182E-3</v>
-      </c>
-      <c r="AN4" s="122">
-        <f t="shared" si="3"/>
-        <v>1.1521851124446047E-4</v>
-      </c>
-      <c r="AO4" s="122">
-        <f t="shared" si="3"/>
-        <v>-1.6473887136347704E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="113">
-        <v>107.54</v>
-      </c>
-      <c r="E5" s="113">
-        <v>107.93</v>
-      </c>
-      <c r="F5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>108</v>
-      </c>
-      <c r="G5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>109</v>
-      </c>
-      <c r="H5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>109</v>
-      </c>
-      <c r="I5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>110</v>
-      </c>
-      <c r="J5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>111</v>
-      </c>
-      <c r="K5">
-        <f>VLOOKUP($C5,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>112</v>
-      </c>
-      <c r="M5" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>7.06</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="2"/>
-        <v>7.76</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>1.39</v>
-      </c>
-      <c r="T5" t="e">
+        <v>-2.1204929954834206E-2</v>
+      </c>
+      <c r="AH5" s="121">
+        <f t="shared" si="4"/>
+        <v>-1.1998916226920978E-3</v>
+      </c>
+      <c r="AI5" s="121">
+        <f t="shared" si="5"/>
+        <v>-1.0630333882317704E-2</v>
+      </c>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121">
+        <f t="shared" si="6"/>
+        <v>-3.1375629591978232E-2</v>
+      </c>
+      <c r="AL5" s="121">
+        <f t="shared" si="7"/>
+        <v>-2.1728313153093419E-2</v>
+      </c>
+      <c r="AM5" s="121">
+        <f t="shared" si="8"/>
+        <v>-9.3549975381583862E-3</v>
+      </c>
+      <c r="AN5" s="121">
+        <f t="shared" si="9"/>
+        <v>-5.5168106588945687E-3</v>
+      </c>
+      <c r="AO5" s="121">
+        <f t="shared" si="10"/>
+        <v>-1.2542710090394013E-3</v>
+      </c>
+      <c r="AP5" s="121">
+        <f t="shared" si="11"/>
+        <v>-1.2247243082977225E-2</v>
+      </c>
+      <c r="AQ5" s="121">
+        <f t="shared" si="12"/>
+        <v>-2.2970577809287487E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="113">
+        <v>6.5315000000000003</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>6.7</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>6.67</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>6.64</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>6.61</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>6.59</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>6.56</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>6.53</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="O6" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
-        <v>1210</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="2"/>
-        <v>31.6</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>4.28</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="2"/>
-        <v>23230</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="2"/>
-        <v>14400</v>
-      </c>
-      <c r="AC5" s="122">
-        <f t="shared" ref="AC5:AC9" si="4">(O5-O$3)/O$3</f>
-        <v>-1.1928075485134287E-2</v>
-      </c>
-      <c r="AD5" s="122">
-        <f t="shared" ref="AD5:AD9" si="5">(P$3-P5)/P$3</f>
-        <v>-9.9138330399332255E-3</v>
-      </c>
-      <c r="AE5" s="122">
-        <f t="shared" ref="AE5:AE9" si="6">(Q$3-Q5)/Q$3</f>
-        <v>5.6625141562860243E-4</v>
-      </c>
-      <c r="AF5" s="122">
-        <f t="shared" ref="AF5:AF9" si="7">(R$3-R5)/R$3</f>
-        <v>-1.2257273724275936E-3</v>
-      </c>
-      <c r="AG5" s="122">
-        <f t="shared" ref="AG5:AG9" si="8">(S$3-S5)/S$3</f>
-        <v>2.5832376578645579E-3</v>
-      </c>
-      <c r="AH5" s="122" t="e">
-        <f t="shared" ref="AH5:AH9" si="9">(T$3-T5)/T$3</f>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1.19</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>6.64</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>7.77</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="V6" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="AI5" s="122">
-        <f t="shared" ref="AI5:AI9" si="10">(U$3-U5)/U$3</f>
-        <v>-5.9024025272257944E-3</v>
-      </c>
-      <c r="AJ5" s="122">
-        <f t="shared" ref="AJ5:AJ9" si="11">(V$3-V5)/V$3</f>
-        <v>-2.2488270506390559E-2</v>
-      </c>
-      <c r="AK5" s="122">
-        <f t="shared" ref="AK5:AK9" si="12">(W$3-W5)/W$3</f>
-        <v>1.4697991274524715E-3</v>
-      </c>
-      <c r="AL5" s="122">
-        <f t="shared" ref="AL5:AL9" si="13">(X$3-X5)/X$3</f>
-        <v>-2.3644173256794132E-2</v>
-      </c>
-      <c r="AM5" s="122">
-        <f t="shared" ref="AM5:AM9" si="14">(Y$3-Y5)/Y$3</f>
-        <v>-1.4657699603379893E-3</v>
-      </c>
-      <c r="AN5" s="122">
-        <f t="shared" ref="AN5:AN9" si="15">(Z$3-Z5)/Z$3</f>
-        <v>6.7369720310375431E-3</v>
-      </c>
-      <c r="AO5" s="122">
-        <f t="shared" ref="AO5:AO9" si="16">(AA$3-AA5)/AA$3</f>
-        <v>-9.4637223974763408E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="113">
-        <v>7.0824999999999996</v>
-      </c>
-      <c r="E6" s="113">
-        <v>7.0640000000000001</v>
-      </c>
-      <c r="F6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>7.08</v>
-      </c>
-      <c r="G6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>7.06</v>
-      </c>
-      <c r="H6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>7.02</v>
-      </c>
-      <c r="I6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>6.98</v>
-      </c>
-      <c r="J6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>6.94</v>
-      </c>
-      <c r="K6">
-        <f>VLOOKUP($C6,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>6.9</v>
-      </c>
-      <c r="M6" s="117" t="s">
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>4.09</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>48.2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>23100</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="1"/>
+        <v>14357</v>
+      </c>
+      <c r="AE6" s="141">
+        <f t="shared" si="13"/>
+        <v>-1.8232819074333807E-2</v>
+      </c>
+      <c r="AF6" s="121">
+        <f t="shared" si="14"/>
+        <v>-1.7567437841989039E-2</v>
+      </c>
+      <c r="AG6" s="121">
+        <f t="shared" si="3"/>
+        <v>-1.6611804332848406E-2</v>
+      </c>
+      <c r="AH6" s="121">
+        <f t="shared" si="4"/>
+        <v>-2.4900976685976015E-3</v>
+      </c>
+      <c r="AI6" s="121">
+        <f t="shared" si="5"/>
+        <v>-1.0630333882317704E-2</v>
+      </c>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121">
+        <f t="shared" si="6"/>
+        <v>-3.1375629591978232E-2</v>
+      </c>
+      <c r="AL6" s="121">
+        <f t="shared" si="7"/>
+        <v>-1.5093713717034395E-2</v>
+      </c>
+      <c r="AM6" s="121">
+        <f t="shared" si="8"/>
+        <v>-6.8931560807482962E-3</v>
+      </c>
+      <c r="AN6" s="121">
+        <f t="shared" si="9"/>
+        <v>-3.4349953159156089E-3</v>
+      </c>
+      <c r="AO6" s="121">
+        <f t="shared" si="10"/>
+        <v>9.0826521344232513E-4</v>
+      </c>
+      <c r="AP6" s="121">
+        <f t="shared" si="11"/>
+        <v>-1.0892159758903513E-2</v>
+      </c>
+      <c r="AQ6" s="121">
+        <f t="shared" si="12"/>
+        <v>-1.7866004962779156E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="113">
+        <v>7.7507000000000001</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>7.76</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>7.76</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>7.77</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>7.77</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>7.78</v>
+      </c>
+      <c r="J7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>7.79</v>
+      </c>
+      <c r="K7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>7.79</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>7.8</v>
+      </c>
+      <c r="O7" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="N6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>7.02</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>7.76</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>1.38</v>
-      </c>
-      <c r="T6" t="e">
+      <c r="P7" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>4.26</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
-        <v>50.8</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="2"/>
-        <v>23220</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="2"/>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>6.61</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>7.77</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>1.34</v>
+      </c>
+      <c r="V7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>30.4</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>4.07</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>23050</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="2"/>
-        <v>14300</v>
-      </c>
-      <c r="AC6" s="122">
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>14286</v>
+      </c>
+      <c r="AE7" s="141">
+        <f t="shared" si="13"/>
+        <v>-9.982674696807194E-3</v>
+      </c>
+      <c r="AF7" s="121">
+        <f t="shared" si="14"/>
+        <v>-1.7567437841989039E-2</v>
+      </c>
+      <c r="AG7" s="121">
+        <f t="shared" si="3"/>
+        <v>-1.2018678710862743E-2</v>
+      </c>
+      <c r="AH7" s="121">
         <f t="shared" si="4"/>
-        <v>-3.0265266156309844E-3</v>
-      </c>
-      <c r="AD6" s="122">
+        <v>-2.4900976685976015E-3</v>
+      </c>
+      <c r="AI7" s="121">
         <f t="shared" si="5"/>
-        <v>-9.9138330399332255E-3</v>
-      </c>
-      <c r="AE6" s="122">
+        <v>-3.1441832609671967E-3</v>
+      </c>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121">
         <f t="shared" si="6"/>
-        <v>6.2287655719139978E-3</v>
-      </c>
-      <c r="AF6" s="122">
+        <v>-3.0451457880874309E-2</v>
+      </c>
+      <c r="AL7" s="121">
         <f t="shared" si="7"/>
-        <v>-1.2257273724275936E-3</v>
-      </c>
-      <c r="AG6" s="122">
+        <v>-8.4591142809752537E-3</v>
+      </c>
+      <c r="AM7" s="121">
         <f t="shared" si="8"/>
-        <v>9.7588978185993523E-3</v>
-      </c>
-      <c r="AH6" s="122" t="e">
+        <v>-1.9694731659281157E-3</v>
+      </c>
+      <c r="AN7" s="121">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" s="122">
+        <v>7.286353700426063E-4</v>
+      </c>
+      <c r="AO7" s="121">
         <f t="shared" si="10"/>
-        <v>2.4108404688669804E-3</v>
-      </c>
-      <c r="AJ6" s="122">
+        <v>3.0708014359240518E-3</v>
+      </c>
+      <c r="AP7" s="121">
         <f t="shared" si="11"/>
-        <v>-1.9252548131370291E-2</v>
-      </c>
-      <c r="AK6" s="122">
+        <v>-9.5370764348299934E-3</v>
+      </c>
+      <c r="AQ7" s="121">
         <f t="shared" si="12"/>
-        <v>6.1358281034925204E-3</v>
-      </c>
-      <c r="AL6" s="122">
-        <f t="shared" si="13"/>
-        <v>-1.9629882381277233E-2</v>
-      </c>
-      <c r="AM6" s="122">
-        <f t="shared" si="14"/>
-        <v>-1.0346611484738748E-3</v>
-      </c>
-      <c r="AN6" s="122">
-        <f t="shared" si="15"/>
-        <v>1.3358725550830626E-2</v>
-      </c>
-      <c r="AO6" s="122">
-        <f t="shared" si="16"/>
-        <v>-2.4535576586049773E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="113">
-        <v>7.7511000000000001</v>
-      </c>
-      <c r="E7" s="113">
-        <v>7.7504999999999997</v>
-      </c>
-      <c r="F7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>7.75</v>
-      </c>
-      <c r="G7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>7.76</v>
-      </c>
-      <c r="H7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>7.76</v>
-      </c>
-      <c r="I7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>7.77</v>
-      </c>
-      <c r="J7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>7.77</v>
-      </c>
-      <c r="K7">
-        <f>VLOOKUP($C7,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>7.78</v>
-      </c>
-      <c r="M7" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
+        <v>-1.283232896136122E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="113">
+        <v>1.3358000000000001</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>1.36</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
+        <v>1.34</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
+        <v>1.33</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
+        <v>1.32</v>
+      </c>
+      <c r="K8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>1.32</v>
+      </c>
+      <c r="L8">
+        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>1.31</v>
+      </c>
+      <c r="O8" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>6.98</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>7.77</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>1.37</v>
-      </c>
-      <c r="T7" t="e">
+      <c r="P8" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>1190</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
-        <v>31.4</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>4.24</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>50.6</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="2"/>
-        <v>23200</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>14200</v>
-      </c>
-      <c r="AC7" s="122">
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1.21</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>6.59</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>7.78</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>1.33</v>
+      </c>
+      <c r="V8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>30.2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>4.05</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>47.8</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>23000</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>14214</v>
+      </c>
+      <c r="AE8" s="141">
+        <f t="shared" si="13"/>
+        <v>-1.7325303192805798E-3</v>
+      </c>
+      <c r="AF8" s="121">
+        <f t="shared" si="14"/>
+        <v>-7.9677450321589544E-3</v>
+      </c>
+      <c r="AG8" s="121">
+        <f t="shared" si="3"/>
+        <v>-8.9565949628721657E-3</v>
+      </c>
+      <c r="AH8" s="121">
         <f t="shared" si="4"/>
-        <v>5.8750222538721201E-3</v>
-      </c>
-      <c r="AD7" s="122">
+        <v>-3.7803037145032197E-3</v>
+      </c>
+      <c r="AI8" s="121">
         <f t="shared" si="5"/>
-        <v>-1.9179097563235367E-2</v>
-      </c>
-      <c r="AE7" s="122">
+        <v>4.3419673603833113E-3</v>
+      </c>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="121">
         <f t="shared" si="6"/>
-        <v>1.1891279728199268E-2</v>
-      </c>
-      <c r="AF7" s="122">
+        <v>-3.0451457880874309E-2</v>
+      </c>
+      <c r="AL8" s="121">
         <f t="shared" si="7"/>
-        <v>-2.5159667118250244E-3</v>
-      </c>
-      <c r="AG7" s="122">
+        <v>-1.8245148449162287E-3</v>
+      </c>
+      <c r="AM8" s="121">
         <f t="shared" si="8"/>
-        <v>1.6934557979333988E-2</v>
-      </c>
-      <c r="AH7" s="122" t="e">
+        <v>2.954209748892283E-3</v>
+      </c>
+      <c r="AN8" s="121">
         <f t="shared" si="9"/>
+        <v>4.8922660560008213E-3</v>
+      </c>
+      <c r="AO8" s="121">
+        <f t="shared" si="10"/>
+        <v>5.233337658405778E-3</v>
+      </c>
+      <c r="AP8" s="121">
+        <f t="shared" si="11"/>
+        <v>-8.181993110756472E-3</v>
+      </c>
+      <c r="AQ8" s="121">
+        <f t="shared" si="12"/>
+        <v>-7.727756114852889E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
         <v>#N/A</v>
-      </c>
-      <c r="AI7" s="122">
-        <f t="shared" si="10"/>
-        <v>1.0724083464959755E-2</v>
-      </c>
-      <c r="AJ7" s="122">
-        <f t="shared" si="11"/>
-        <v>-1.6016825756350023E-2</v>
-      </c>
-      <c r="AK7" s="122">
-        <f t="shared" si="12"/>
-        <v>1.0801857079532363E-2</v>
-      </c>
-      <c r="AL7" s="122">
-        <f t="shared" si="13"/>
-        <v>-1.561559150576048E-2</v>
-      </c>
-      <c r="AM7" s="122">
-        <f t="shared" si="14"/>
-        <v>-1.724435247456458E-4</v>
-      </c>
-      <c r="AN7" s="122">
-        <f t="shared" si="15"/>
-        <v>1.9980479070623711E-2</v>
-      </c>
-      <c r="AO7" s="122">
-        <f t="shared" si="16"/>
-        <v>4.5566070802663863E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="113">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="E8" s="113">
-        <v>1.3935999999999999</v>
-      </c>
-      <c r="F8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>1.4</v>
-      </c>
-      <c r="G8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>1.39</v>
-      </c>
-      <c r="H8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>1.38</v>
-      </c>
-      <c r="I8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>1.37</v>
-      </c>
-      <c r="J8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>1.36</v>
-      </c>
-      <c r="K8">
-        <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>1.35</v>
-      </c>
-      <c r="M8" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>6.94</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>7.77</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>1180</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>31.3</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>4.22</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>50.4</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="2"/>
-        <v>23190</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="2"/>
-        <v>73.5</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="2"/>
-        <v>14100</v>
-      </c>
-      <c r="AC8" s="122">
-        <f t="shared" si="4"/>
-        <v>1.4776571123375421E-2</v>
-      </c>
-      <c r="AD8" s="122">
-        <f t="shared" si="5"/>
-        <v>-2.8444362086537507E-2</v>
-      </c>
-      <c r="AE8" s="122">
-        <f t="shared" si="6"/>
-        <v>1.7553793884484664E-2</v>
-      </c>
-      <c r="AF8" s="122">
-        <f t="shared" si="7"/>
-        <v>-2.5159667118250244E-3</v>
-      </c>
-      <c r="AG8" s="122">
-        <f t="shared" si="8"/>
-        <v>2.4110218140068782E-2</v>
-      </c>
-      <c r="AH8" s="122" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" s="122">
-        <f t="shared" si="10"/>
-        <v>1.903732646105253E-2</v>
-      </c>
-      <c r="AJ8" s="122">
-        <f t="shared" si="11"/>
-        <v>-1.2781103381329867E-2</v>
-      </c>
-      <c r="AK8" s="122">
-        <f t="shared" si="12"/>
-        <v>1.5467886055572411E-2</v>
-      </c>
-      <c r="AL8" s="122">
-        <f t="shared" si="13"/>
-        <v>-1.1601300630243583E-2</v>
-      </c>
-      <c r="AM8" s="122">
-        <f t="shared" si="14"/>
-        <v>2.5866528711846869E-4</v>
-      </c>
-      <c r="AN8" s="122">
-        <f t="shared" si="15"/>
-        <v>2.6602232590416792E-2</v>
-      </c>
-      <c r="AO8" s="122">
-        <f t="shared" si="16"/>
-        <v>1.1566771819137749E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="113">
-        <v>30.238</v>
-      </c>
-      <c r="E9" s="113">
-        <v>29.567</v>
       </c>
       <c r="F9" t="e">
         <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
@@ -8324,328 +8423,571 @@
         <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M9" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="1"/>
+      <c r="L9" t="e">
+        <f>VLOOKUP($C9,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
-        <v>7.78</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>1.35</v>
-      </c>
-      <c r="T9" t="e">
+      <c r="O9" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>6.56</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>7.79</v>
+      </c>
       <c r="U9">
-        <f t="shared" si="2"/>
-        <v>1170</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
-        <v>31.2</v>
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
+        <f t="shared" si="1"/>
+        <v>1114</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
-        <v>50.2</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
-        <v>23170</v>
+        <f t="shared" si="1"/>
+        <v>4.03</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>47.7</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="AC9" s="122">
+        <f t="shared" si="1"/>
+        <v>22950</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>74.3</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>14143</v>
+      </c>
+      <c r="AE9" s="141">
+        <f t="shared" si="13"/>
+        <v>6.5176140582460344E-3</v>
+      </c>
+      <c r="AF9" s="121">
+        <f t="shared" si="14"/>
+        <v>-7.9677450321589544E-3</v>
+      </c>
+      <c r="AG9" s="121">
+        <f t="shared" si="3"/>
+        <v>-4.363469340886366E-3</v>
+      </c>
+      <c r="AH9" s="121">
         <f t="shared" si="4"/>
-        <v>2.3678119992878725E-2</v>
-      </c>
-      <c r="AD9" s="122">
+        <v>-5.0705097604087229E-3</v>
+      </c>
+      <c r="AI9" s="121">
         <f t="shared" si="5"/>
-        <v>-3.7709626609839647E-2</v>
-      </c>
-      <c r="AE9" s="122">
+        <v>1.1828117981733818E-2</v>
+      </c>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="121">
         <f t="shared" si="6"/>
-        <v>2.3216308040770059E-2</v>
-      </c>
-      <c r="AF9" s="122">
+        <v>-2.9527286169770385E-2</v>
+      </c>
+      <c r="AL9" s="121">
         <f t="shared" si="7"/>
-        <v>-3.8062060512225699E-3</v>
-      </c>
-      <c r="AG9" s="122">
+        <v>4.8100845911427954E-3</v>
+      </c>
+      <c r="AM9" s="121">
         <f t="shared" si="8"/>
-        <v>3.1285878300803573E-2</v>
-      </c>
-      <c r="AH9" s="122" t="e">
+        <v>7.8778926637124626E-3</v>
+      </c>
+      <c r="AN9" s="121">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" s="122">
+        <v>6.9740813989797807E-3</v>
+      </c>
+      <c r="AO9" s="121">
         <f t="shared" si="10"/>
-        <v>2.7350569457145306E-2</v>
-      </c>
-      <c r="AJ9" s="122">
+        <v>7.3958738808875052E-3</v>
+      </c>
+      <c r="AP9" s="121">
         <f t="shared" si="11"/>
-        <v>-9.545381006309599E-3</v>
-      </c>
-      <c r="AK9" s="122">
+        <v>-6.8269097866827597E-3</v>
+      </c>
+      <c r="AQ9" s="121">
         <f t="shared" si="12"/>
-        <v>2.0133915031612253E-2</v>
-      </c>
-      <c r="AL9" s="122">
-        <f t="shared" si="13"/>
-        <v>-7.5870097547268292E-3</v>
-      </c>
-      <c r="AM9" s="122">
-        <f t="shared" si="14"/>
-        <v>1.1208829108466977E-3</v>
-      </c>
-      <c r="AN9" s="122">
-        <f t="shared" si="15"/>
-        <v>3.3223986110209873E-2</v>
-      </c>
-      <c r="AO9" s="122">
-        <f t="shared" si="16"/>
-        <v>1.8576936558009113E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
+        <v>-2.6940801134349521E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="113">
-        <v>1218.55</v>
-      </c>
-      <c r="E10" s="113">
-        <v>1202.9000000000001</v>
+        <v>1082.05</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>1116</v>
       </c>
       <c r="F10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>1220</v>
+        <v>1116</v>
       </c>
       <c r="G10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>1210</v>
+        <v>1116</v>
       </c>
       <c r="H10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>1200</v>
+        <v>1115</v>
       </c>
       <c r="I10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>1190</v>
+        <v>1115</v>
       </c>
       <c r="J10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>1180</v>
+        <v>1114</v>
       </c>
       <c r="K10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41">
+        <v>1114</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>1113</v>
+      </c>
+      <c r="O10" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1.24</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>6.53</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>7.79</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>1114</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>29.8</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>22900</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>74.2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>14071</v>
+      </c>
+      <c r="AE10" s="141">
+        <f t="shared" si="13"/>
+        <v>2.3017902813299265E-2</v>
+      </c>
+      <c r="AF10" s="121">
+        <f t="shared" si="14"/>
+        <v>-7.9677450321589544E-3</v>
+      </c>
+      <c r="AG10" s="121">
+        <f t="shared" si="3"/>
+        <v>2.2965628109929676E-4</v>
+      </c>
+      <c r="AH10" s="121">
+        <f t="shared" si="4"/>
+        <v>-5.0705097604087229E-3</v>
+      </c>
+      <c r="AI10" s="121">
+        <f t="shared" si="5"/>
+        <v>1.1828117981733818E-2</v>
+      </c>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="121">
+        <f t="shared" si="6"/>
+        <v>-2.9527286169770385E-2</v>
+      </c>
+      <c r="AL10" s="121">
+        <f t="shared" si="7"/>
+        <v>1.1444684027201821E-2</v>
+      </c>
+      <c r="AM10" s="121">
+        <f t="shared" si="8"/>
+        <v>1.0339734121122773E-2</v>
+      </c>
+      <c r="AN10" s="121">
+        <f t="shared" si="9"/>
+        <v>1.1137712084937995E-2</v>
+      </c>
+      <c r="AO10" s="121">
+        <f t="shared" si="10"/>
+        <v>9.5584101033692314E-3</v>
+      </c>
+      <c r="AP10" s="121">
+        <f t="shared" si="11"/>
+        <v>-5.4718264626092391E-3</v>
+      </c>
+      <c r="AQ10" s="121">
+        <f t="shared" si="12"/>
+        <v>2.4104927330733782E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="113">
-        <v>32.798000000000002</v>
-      </c>
-      <c r="E11" s="113">
-        <v>30.905000000000001</v>
+        <v>30.145</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="G11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>31.6</v>
+        <v>30.6</v>
       </c>
       <c r="H11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="I11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>31.4</v>
+        <v>30.2</v>
       </c>
       <c r="J11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>31.3</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
+        <v>29.8</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP($C11,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>29.6</v>
+      </c>
+      <c r="O11" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>1.31</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>1113</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>29.6</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>47.3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>22850</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="AE11" s="141">
+        <f t="shared" si="13"/>
+        <v>3.1268047190825876E-2</v>
+      </c>
+      <c r="AF11" s="121">
+        <f t="shared" si="14"/>
+        <v>-7.9677450321589544E-3</v>
+      </c>
+      <c r="AG11" s="121">
+        <f t="shared" si="3"/>
+        <v>4.8227819030850962E-3</v>
+      </c>
+      <c r="AH11" s="121">
+        <f t="shared" si="4"/>
+        <v>-6.3607158063142266E-3</v>
+      </c>
+      <c r="AI11" s="121">
+        <f t="shared" si="5"/>
+        <v>1.9314268603084328E-2</v>
+      </c>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121">
+        <f t="shared" si="6"/>
+        <v>-2.8603114458666465E-2</v>
+      </c>
+      <c r="AL11" s="121">
+        <f t="shared" si="7"/>
+        <v>1.8079283463260844E-2</v>
+      </c>
+      <c r="AM11" s="121">
+        <f t="shared" si="8"/>
+        <v>1.5263417035942953E-2</v>
+      </c>
+      <c r="AN11" s="121">
+        <f t="shared" si="9"/>
+        <v>1.530134277089621E-2</v>
+      </c>
+      <c r="AO11" s="121">
+        <f t="shared" si="10"/>
+        <v>1.1720946325850959E-2</v>
+      </c>
+      <c r="AP11" s="121">
+        <f t="shared" si="11"/>
+        <v>-4.1167431385355268E-3</v>
+      </c>
+      <c r="AQ11" s="121">
+        <f t="shared" si="12"/>
+        <v>7.4441687344913151E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="113">
-        <v>4.3212000000000002</v>
-      </c>
-      <c r="E12" s="113">
-        <v>4.2862999999999998</v>
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>4.12</v>
       </c>
       <c r="F12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="H12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>4.26</v>
+        <v>4.07</v>
       </c>
       <c r="I12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
       <c r="J12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>4.22</v>
+        <v>4.03</v>
       </c>
       <c r="K12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="113">
-        <v>50.698999999999998</v>
-      </c>
-      <c r="E13" s="113">
-        <v>49.822000000000003</v>
+        <v>48.034999999999997</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>48.5</v>
       </c>
       <c r="F13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>51</v>
+        <v>48.3</v>
       </c>
       <c r="G13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>51</v>
+        <v>48.2</v>
       </c>
       <c r="H13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>50.8</v>
+        <v>48</v>
       </c>
       <c r="I13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>50.6</v>
+        <v>47.8</v>
       </c>
       <c r="J13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>50.4</v>
+        <v>47.7</v>
       </c>
       <c r="K13">
         <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
+        <v>47.5</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP($C13,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="113">
-        <v>23637</v>
-      </c>
-      <c r="E14" s="113">
-        <v>23196</v>
+        <v>23121</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>23200</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>23250</v>
+        <v>23150</v>
       </c>
       <c r="G14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>23230</v>
+        <v>23100</v>
       </c>
       <c r="H14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>23220</v>
+        <v>23050</v>
       </c>
       <c r="I14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="J14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>23190</v>
+        <v>22950</v>
       </c>
       <c r="K14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>23170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41">
+        <v>22900</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>22850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="113">
-        <v>75.542500000000004</v>
-      </c>
-      <c r="E15" s="113">
-        <v>75.508700000000005</v>
+        <v>73.796199999999999</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>74.8</v>
       </c>
       <c r="F15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>75.5</v>
+        <v>74.7</v>
       </c>
       <c r="G15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>75</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
@@ -8653,52 +8995,61 @@
       </c>
       <c r="I15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>74</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="J15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>73.5</v>
+        <v>74.3</v>
       </c>
       <c r="K15">
         <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+        <v>74.2</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP($C15,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="113">
-        <v>16310</v>
-      </c>
-      <c r="E16" s="113">
-        <v>14265</v>
+        <v>14105</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
+        <v>14500</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>14500</v>
+        <v>14429</v>
       </c>
       <c r="G16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>14400</v>
+        <v>14357</v>
       </c>
       <c r="H16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>14300</v>
+        <v>14286</v>
       </c>
       <c r="I16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>14200</v>
+        <v>14214</v>
       </c>
       <c r="J16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>14100</v>
+        <v>14143</v>
       </c>
       <c r="K16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
+        <v>14071</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
         <v>14000</v>
       </c>
     </row>

--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\Duncan\Documents\GR_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D928C-49B9-483B-8047-2D0AC4963448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="853" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="Rates_Rule2">#REF!</definedName>
     <definedName name="Rates_Rule3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,6 +41,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="118">
   <si>
     <t>DBS forecasts</t>
   </si>
@@ -406,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1044,7 +1046,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1361,32 +1363,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:P24"/>
+      <selection activeCell="E7" sqref="E7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="50" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" style="50" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="9.5703125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="50" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="50" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5703125" style="50" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5703125" style="50" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="51"/>
-    <col min="17" max="17" width="11.42578125" style="51" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="11.42578125" style="68" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="51" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="50" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="9.54296875" style="50" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="9.54296875" style="50" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.54296875" style="50" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.54296875" style="50" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="51"/>
+    <col min="17" max="17" width="11.453125" style="51" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="11.453125" style="68" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" style="51" hidden="1" customWidth="1"/>
     <col min="21" max="23" width="0" style="51" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.42578125" style="51"/>
+    <col min="24" max="16384" width="9.453125" style="51"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19">
@@ -1408,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="57" customFormat="1" ht="12.75">
+    <row r="5" spans="1:19" s="57" customFormat="1" ht="13">
       <c r="A5" s="54"/>
       <c r="B5" s="55" t="s">
         <v>4</v>
@@ -1465,7 +1467,7 @@
       <c r="R6" s="61"/>
       <c r="S6" s="61"/>
     </row>
-    <row r="7" spans="1:19" s="60" customFormat="1" ht="12.75">
+    <row r="7" spans="1:19" s="60" customFormat="1" ht="13">
       <c r="A7" s="62"/>
       <c r="B7" s="63">
         <v>2015</v>
@@ -1530,7 +1532,7 @@
       <c r="O8" s="66"/>
       <c r="P8" s="67"/>
     </row>
-    <row r="9" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="9" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A9" s="69" t="s">
         <v>15</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="10" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A10" s="69" t="s">
         <v>16</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="11" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A11" s="69" t="s">
         <v>24</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>2.7222222222222223</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="89" customFormat="1" ht="12.6" customHeight="1">
+    <row r="12" spans="1:19" s="89" customFormat="1" ht="12.65" customHeight="1">
       <c r="A12" s="90" t="s">
         <v>72</v>
       </c>
@@ -1730,7 +1732,7 @@
       <c r="R12" s="88"/>
       <c r="S12" s="88"/>
     </row>
-    <row r="13" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="13" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A13" s="69" t="s">
         <v>9</v>
       </c>
@@ -1783,7 +1785,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="14" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A14" s="69" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>0.78181818181818175</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="15" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A15" s="69" t="s">
         <v>48</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>1.1800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="85" customFormat="1" ht="12.6" customHeight="1">
+    <row r="16" spans="1:19" s="85" customFormat="1" ht="12.65" customHeight="1">
       <c r="A16" s="82" t="s">
         <v>12</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="17" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A17" s="69" t="s">
         <v>30</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="18" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>17</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="19" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A19" s="69" t="s">
         <v>13</v>
       </c>
@@ -2093,7 +2095,7 @@
       <c r="R19" s="72"/>
       <c r="S19" s="72"/>
     </row>
-    <row r="20" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="20" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A20" s="69" t="s">
         <v>14</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="22" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A22" s="69" t="s">
         <v>8</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="23" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A23" s="69" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="24" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A24" s="69" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="73" customFormat="1" ht="12.6" customHeight="1">
+    <row r="25" spans="1:19" s="73" customFormat="1" ht="12.65" customHeight="1">
       <c r="A25" s="75" t="s">
         <v>83</v>
       </c>
@@ -2571,7 +2573,7 @@
       <c r="P37" s="50"/>
       <c r="Q37" s="79"/>
     </row>
-    <row r="38" spans="1:19" ht="12.75">
+    <row r="38" spans="1:19" ht="13">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -2590,7 +2592,7 @@
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
     </row>
-    <row r="39" spans="1:19" ht="12.75">
+    <row r="39" spans="1:19" ht="13">
       <c r="A39" s="62"/>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -2609,7 +2611,7 @@
       <c r="R39" s="51"/>
       <c r="S39" s="51"/>
     </row>
-    <row r="40" spans="1:19" ht="12.75">
+    <row r="40" spans="1:19" ht="13">
       <c r="A40" s="69"/>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
@@ -2628,7 +2630,7 @@
       <c r="R40" s="51"/>
       <c r="S40" s="51"/>
     </row>
-    <row r="41" spans="1:19" ht="12.75">
+    <row r="41" spans="1:19" ht="13">
       <c r="A41" s="69"/>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -2661,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A6:V43"/>
   <sheetViews>
@@ -2669,24 +2671,24 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="1.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" style="44" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="1.140625" style="44" customWidth="1"/>
-    <col min="14" max="17" width="9.5703125" style="44" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="44" customWidth="1"/>
-    <col min="19" max="16384" width="9.42578125" style="44"/>
+    <col min="1" max="1" width="13.1796875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="44" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" style="44" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" style="44" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="9.54296875" style="44" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.54296875" style="44" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.54296875" style="44" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="1.81640625" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="1.453125" style="44" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="1.1796875" style="44" customWidth="1"/>
+    <col min="14" max="17" width="9.54296875" style="44" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="44" customWidth="1"/>
+    <col min="19" max="16384" width="9.453125" style="44"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:22" s="29" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="29" customFormat="1" ht="13">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
@@ -2735,7 +2737,7 @@
       <c r="U7" s="145"/>
       <c r="V7" s="145"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="13">
       <c r="A8" s="98"/>
       <c r="B8" s="33" t="s">
         <v>20</v>
@@ -2817,7 +2819,7 @@
       <c r="U9" s="97"/>
       <c r="V9" s="97"/>
     </row>
-    <row r="10" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="10" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A10" s="101" t="s">
         <v>34</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="11" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A11" s="101" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="12" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A12" s="101" t="s">
         <v>9</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="13" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A13" s="101" t="s">
         <v>10</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="14" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A14" s="101" t="s">
         <v>11</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="15" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A15" s="101" t="s">
         <v>35</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="16" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A16" s="101" t="s">
         <v>30</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="17" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A17" s="101" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="18" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A18" s="101" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="19" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A19" s="101" t="s">
         <v>36</v>
       </c>
@@ -3447,7 +3449,7 @@
       <c r="U20" s="102"/>
       <c r="V20" s="102"/>
     </row>
-    <row r="21" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="21" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A21" s="101" t="s">
         <v>8</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="22" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A22" s="101" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="23" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A23" s="101" t="s">
         <v>31</v>
       </c>
@@ -3627,7 +3629,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="38" customFormat="1" ht="12.6" customHeight="1">
+    <row r="24" spans="1:22" s="38" customFormat="1" ht="12.65" customHeight="1">
       <c r="A24" s="95" t="s">
         <v>82</v>
       </c>
@@ -3748,7 +3750,7 @@
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
     </row>
-    <row r="30" spans="1:22" s="38" customFormat="1" ht="12.75">
+    <row r="30" spans="1:22" s="38" customFormat="1" ht="12.5">
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -3782,7 +3784,7 @@
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75">
+    <row r="34" spans="1:17" ht="12.5">
       <c r="A34" s="39" t="s">
         <v>16</v>
       </c>
@@ -3821,7 +3823,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75">
+    <row r="39" spans="1:17" ht="13">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
@@ -3840,7 +3842,7 @@
       <c r="P39" s="144"/>
       <c r="Q39" s="144"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75">
+    <row r="40" spans="1:17" ht="13">
       <c r="A40" s="32"/>
       <c r="B40" s="33"/>
       <c r="C40" s="34"/>
@@ -3859,7 +3861,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75">
+    <row r="41" spans="1:17" ht="13">
       <c r="A41" s="9"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -3878,7 +3880,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75">
+    <row r="42" spans="1:17" ht="13">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -3897,7 +3899,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75">
+    <row r="43" spans="1:17" ht="13">
       <c r="A43" s="40"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -3931,44 +3933,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:Q24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="18" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0.42578125" style="18" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5703125" style="18" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="18" customWidth="1"/>
-    <col min="9" max="12" width="9.5703125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0.453125" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="9.54296875" style="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.453125" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" style="18" customWidth="1"/>
+    <col min="9" max="12" width="9.54296875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="2.54296875" style="18" customWidth="1"/>
     <col min="14" max="17" width="9" style="18" customWidth="1"/>
-    <col min="18" max="20" width="9.5703125" style="18" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="18"/>
-    <col min="23" max="23" width="9.42578125" style="47"/>
-    <col min="24" max="24" width="9.42578125" style="18"/>
-    <col min="25" max="25" width="17.5703125" style="18" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="18" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="0.42578125" style="18" customWidth="1"/>
-    <col min="28" max="31" width="9.5703125" style="18" customWidth="1"/>
-    <col min="32" max="32" width="3.5703125" style="18" customWidth="1"/>
-    <col min="33" max="36" width="9.5703125" style="18" customWidth="1"/>
-    <col min="37" max="37" width="2.5703125" style="18" customWidth="1"/>
-    <col min="38" max="16384" width="9.42578125" style="18"/>
+    <col min="18" max="20" width="9.54296875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="2.54296875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" style="18"/>
+    <col min="23" max="23" width="9.453125" style="47"/>
+    <col min="24" max="24" width="9.453125" style="18"/>
+    <col min="25" max="25" width="17.54296875" style="18" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" style="18" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0.453125" style="18" customWidth="1"/>
+    <col min="28" max="31" width="9.54296875" style="18" customWidth="1"/>
+    <col min="32" max="32" width="3.54296875" style="18" customWidth="1"/>
+    <col min="33" max="36" width="9.54296875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="2.54296875" style="18" customWidth="1"/>
+    <col min="38" max="16384" width="9.453125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75">
+    <row r="2" spans="1:23" ht="15.5">
       <c r="D2" s="48"/>
       <c r="W2" s="18"/>
     </row>
@@ -3981,7 +3983,7 @@
     <row r="5" spans="1:23">
       <c r="W5" s="18"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12.75">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="13">
       <c r="C6" s="2"/>
       <c r="D6" s="144" t="s">
         <v>37</v>
@@ -4003,7 +4005,7 @@
     <row r="7" spans="1:23" s="3" customFormat="1" ht="3" customHeight="1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" ht="12.75">
+    <row r="8" spans="1:23" s="3" customFormat="1" ht="13">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>43075</v>
@@ -4063,7 +4065,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="16" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>62</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="17" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>63</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="18" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
@@ -4486,7 +4488,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="19" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
@@ -4551,7 +4553,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="21" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="22" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -4645,7 +4647,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="23" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="24" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>69</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="12" customFormat="1" ht="12.6" customHeight="1">
+    <row r="25" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>5.8980260394792143</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="12" customFormat="1" ht="12.75">
+    <row r="31" spans="1:23" s="12" customFormat="1" ht="13">
       <c r="D31" s="3"/>
       <c r="I31" s="21" t="s">
         <v>10</v>
@@ -4861,7 +4863,7 @@
         <v>6.4656019656019597</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.75">
+    <row r="32" spans="1:23" ht="13">
       <c r="I32" s="22" t="s">
         <v>11</v>
       </c>
@@ -4878,7 +4880,7 @@
       </c>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" ht="12.75">
+    <row r="33" spans="1:23" ht="13">
       <c r="D33" s="19"/>
       <c r="I33" s="23" t="s">
         <v>12</v>
@@ -4896,7 +4898,7 @@
       </c>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" ht="12.75">
+    <row r="34" spans="1:23" ht="13">
       <c r="I34" s="22" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4915,7 @@
       </c>
       <c r="W34" s="18"/>
     </row>
-    <row r="35" spans="1:23" ht="12.75">
+    <row r="35" spans="1:23" ht="13">
       <c r="I35" s="22" t="s">
         <v>15</v>
       </c>
@@ -4930,7 +4932,7 @@
       </c>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" ht="12.75">
+    <row r="36" spans="1:23" ht="13">
       <c r="I36" s="22" t="s">
         <v>42</v>
       </c>
@@ -4947,7 +4949,7 @@
       </c>
       <c r="W36" s="18"/>
     </row>
-    <row r="37" spans="1:23" ht="12.75">
+    <row r="37" spans="1:23" ht="13">
       <c r="I37" s="22" t="s">
         <v>24</v>
       </c>
@@ -4964,7 +4966,7 @@
       </c>
       <c r="W37" s="18"/>
     </row>
-    <row r="40" spans="1:23" ht="12.75">
+    <row r="40" spans="1:23" ht="13">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -4978,7 +4980,7 @@
       <c r="K40" s="146"/>
       <c r="L40" s="146"/>
     </row>
-    <row r="41" spans="1:23" ht="12.75">
+    <row r="41" spans="1:23" ht="13">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +4998,7 @@
       <c r="K41" s="146"/>
       <c r="L41" s="146"/>
     </row>
-    <row r="42" spans="1:23" ht="12.75">
+    <row r="42" spans="1:23" ht="13">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5010,7 +5012,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:23" ht="12.75">
+    <row r="43" spans="1:23" ht="13">
       <c r="A43" s="4"/>
       <c r="B43" s="5">
         <v>43075</v>
@@ -5042,7 +5044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="12.75">
+    <row r="44" spans="1:23" ht="13">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5056,7 +5058,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:23" ht="12.75">
+    <row r="45" spans="1:23" ht="13">
       <c r="A45" s="9" t="s">
         <v>56</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="12.75">
+    <row r="46" spans="1:23" ht="13">
       <c r="A46" s="9" t="s">
         <v>57</v>
       </c>
@@ -5124,7 +5126,7 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="12.75">
+    <row r="47" spans="1:23" ht="13">
       <c r="A47" s="9" t="s">
         <v>58</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="12.75">
+    <row r="48" spans="1:23" ht="13">
       <c r="A48" s="9" t="s">
         <v>59</v>
       </c>
@@ -5192,7 +5194,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="12.75">
+    <row r="49" spans="1:12" ht="13">
       <c r="A49" s="9" t="s">
         <v>60</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>4.0500000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12.75">
+    <row r="50" spans="1:12" ht="13">
       <c r="A50" s="9" t="s">
         <v>61</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.75">
+    <row r="51" spans="1:12" ht="13">
       <c r="A51" s="9" t="s">
         <v>62</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>1.3499999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="12.75">
+    <row r="52" spans="1:12" ht="13">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="12.75">
+    <row r="53" spans="1:12" ht="13">
       <c r="A53" s="9" t="s">
         <v>64</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>31.999999999999989</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.75">
+    <row r="54" spans="1:12" ht="13">
       <c r="A54" s="9" t="s">
         <v>65</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>23150</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.75">
+    <row r="55" spans="1:12" ht="13">
       <c r="A55" s="12"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5410,7 +5412,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" ht="12.75">
+    <row r="56" spans="1:12" ht="13">
       <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>0.71000000000000008</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.75">
+    <row r="57" spans="1:12" ht="13">
       <c r="A57" s="9" t="s">
         <v>67</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="12.75">
+    <row r="58" spans="1:12" ht="13">
       <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
@@ -5512,7 +5514,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.75">
+    <row r="59" spans="1:12" ht="13">
       <c r="A59" s="9" t="s">
         <v>69</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.75">
+    <row r="60" spans="1:12" ht="13">
       <c r="A60" s="12" t="s">
         <v>41</v>
       </c>
@@ -5575,21 +5577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13">
       <c r="C1" s="110" t="s">
         <v>89</v>
       </c>
@@ -5612,16 +5614,16 @@
       </c>
       <c r="B2" s="112"/>
       <c r="D2" s="111">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="111">
         <v>2019</v>
       </c>
+      <c r="E2" s="111" t="s">
+        <v>54</v>
+      </c>
       <c r="F2" s="111" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G2" s="111" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5967,24 +5969,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="28" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" customWidth="1"/>
+    <col min="15" max="28" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="13">
       <c r="C1" s="110" t="s">
         <v>90</v>
       </c>
@@ -7270,21 +7272,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="13" width="8.7109375" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" ht="13">
       <c r="C1" s="110" t="s">
         <v>44</v>
       </c>

--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D928C-49B9-483B-8047-2D0AC4963448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44B5F0-5C19-42F3-8DFB-40F9808E76C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP key" sheetId="1" r:id="rId1"/>
@@ -3937,7 +3937,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -5972,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6195,9 +6195,9 @@
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
@@ -6549,7 +6549,9 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="113" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E7" t="e">
         <f>VLOOKUP($C7,'Policy rate '!$A$8:$V$23,'Transform-Policy'!E$1,FALSE)</f>
         <v>#N/A</v>
@@ -7275,7 +7277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>

--- a/GDP, CPI, Policy rate - LATEST.xlsx
+++ b/GDP, CPI, Policy rate - LATEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44B5F0-5C19-42F3-8DFB-40F9808E76C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC07531-0E27-4D87-A6AE-0EBD9B809F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3938,7 +3938,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12"/>
@@ -4231,23 +4231,23 @@
         <v>14500</v>
       </c>
       <c r="J13" s="136">
-        <v>14429</v>
+        <v>14430</v>
       </c>
       <c r="K13" s="136">
-        <v>14357</v>
+        <v>14360</v>
       </c>
       <c r="L13" s="136">
-        <v>14286</v>
+        <v>14290</v>
       </c>
       <c r="M13" s="133"/>
       <c r="N13" s="136">
-        <v>14214</v>
+        <v>14210</v>
       </c>
       <c r="O13" s="136">
-        <v>14143</v>
+        <v>14140</v>
       </c>
       <c r="P13" s="136">
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="Q13" s="136">
         <v>14000</v>
@@ -4275,16 +4275,16 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="137">
-        <v>4.12</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J14" s="137">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="K14" s="137">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="L14" s="137">
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M14" s="133"/>
       <c r="N14" s="137">
@@ -4369,10 +4369,10 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="137">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J16" s="137">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K16" s="137">
         <v>1.35</v>
@@ -4416,29 +4416,29 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="136">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J17" s="136">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="K17" s="136">
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="L17" s="136">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="M17" s="138"/>
       <c r="N17" s="136">
-        <v>1115</v>
+        <v>1085</v>
       </c>
       <c r="O17" s="136">
-        <v>1114</v>
+        <v>1075</v>
       </c>
       <c r="P17" s="136">
-        <v>1114</v>
+        <v>1070</v>
       </c>
       <c r="Q17" s="136">
-        <v>1113</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
@@ -4510,29 +4510,29 @@
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="136">
-        <v>23200</v>
+        <v>23160</v>
       </c>
       <c r="J19" s="136">
-        <v>23150</v>
+        <v>23100</v>
       </c>
       <c r="K19" s="136">
-        <v>23100</v>
+        <v>23050</v>
       </c>
       <c r="L19" s="136">
-        <v>23050</v>
+        <v>22990</v>
       </c>
       <c r="M19" s="138"/>
       <c r="N19" s="136">
-        <v>23000</v>
+        <v>22940</v>
       </c>
       <c r="O19" s="136">
-        <v>22950</v>
+        <v>22890</v>
       </c>
       <c r="P19" s="136">
-        <v>22900</v>
+        <v>22840</v>
       </c>
       <c r="Q19" s="136">
-        <v>22850</v>
+        <v>22780</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1">
@@ -4581,23 +4581,23 @@
         <v>0.73</v>
       </c>
       <c r="K21" s="137">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="L21" s="137">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="M21" s="138"/>
       <c r="N21" s="137">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="O21" s="137">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="P21" s="137">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="Q21" s="137">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
@@ -4622,23 +4622,23 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="137">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="J22" s="137">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K22" s="137">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="L22" s="137">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M22" s="138"/>
       <c r="N22" s="137">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="O22" s="137">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P22" s="137">
         <v>1.24</v>
@@ -4716,29 +4716,29 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="137">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J24" s="137">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K24" s="137">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L24" s="137">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M24" s="139"/>
       <c r="N24" s="137">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O24" s="137">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P24" s="137">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q24" s="137">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="12" customFormat="1" ht="12.65" customHeight="1">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="K29" s="26">
         <f>-(G22/L22-1)*100</f>
-        <v>9.1666666666666572</v>
+        <v>9.9173553719008147</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" ref="L29:L37" si="0">K29+J29</f>
-        <v>9.9666666666666579</v>
+        <v>10.717355371900815</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1">
@@ -4839,11 +4839,11 @@
       </c>
       <c r="K30" s="17">
         <f>(G13/L13-1)*100</f>
-        <v>-1.3019739605207858</v>
+        <v>-1.3296011196641033</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>5.8980260394792143</v>
+        <v>5.8703988803358964</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="12" customFormat="1" ht="13">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="K31" s="17">
         <f>(G14/L14-1)*100</f>
-        <v>1.9656019656019597</v>
+        <v>2.2167487684729315</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>6.4656019656019597</v>
+        <v>6.7167487684729315</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="13">
@@ -4941,11 +4941,11 @@
       </c>
       <c r="K36" s="17">
         <f>(G17/L17-1)*100</f>
-        <v>4.9327354260089606</v>
+        <v>7.3394495412844041</v>
       </c>
       <c r="L36" s="26">
         <f t="shared" si="0"/>
-        <v>7.9327354260089606</v>
+        <v>10.339449541284404</v>
       </c>
       <c r="W36" s="18"/>
     </row>
@@ -7648,27 +7648,27 @@
       </c>
       <c r="E4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="F4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K4">
         <f>VLOOKUP($C4,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="V4" t="e">
         <f t="shared" si="1"/>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>4.12</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="AA4">
         <f t="shared" si="1"/>
-        <v>23200</v>
+        <v>23160</v>
       </c>
       <c r="AB4">
         <f t="shared" si="1"/>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AE4" s="141">
         <f>(Q4-Q$3)/Q$3</f>
-        <v>-4.2983252206913652E-2</v>
+        <v>-2.6482963451860422E-2</v>
       </c>
       <c r="AF4" s="121">
         <f>-(R4-R$3)/R$3</f>
@@ -7755,12 +7755,12 @@
       </c>
       <c r="AI4" s="121">
         <f t="shared" ref="AI4:AI11" si="5">-(U4-U$3)/U$3</f>
-        <v>-1.8116484503668213E-2</v>
+        <v>-1.0630333882317704E-2</v>
       </c>
       <c r="AJ4" s="121"/>
       <c r="AK4" s="121">
         <f t="shared" ref="AK4:AK11" si="6">-(W4-W$3)/W$3</f>
-        <v>-3.1375629591978232E-2</v>
+        <v>-3.0451457880874309E-2</v>
       </c>
       <c r="AL4" s="121">
         <f t="shared" ref="AL4:AL11" si="7">-(X4-X$3)/X$3</f>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="AM4" s="121">
         <f t="shared" ref="AM4:AM11" si="8">-(Y4-Y$3)/Y$3</f>
-        <v>-1.4278680452978785E-2</v>
+        <v>-1.1816838995568695E-2</v>
       </c>
       <c r="AN4" s="121">
         <f t="shared" ref="AN4:AN11" si="9">-(Z4-Z$3)/Z$3</f>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="AO4" s="121">
         <f t="shared" ref="AO4:AO11" si="10">-(AA4-AA$3)/AA$3</f>
-        <v>-3.4168072315211278E-3</v>
+        <v>-1.6867782535357468E-3</v>
       </c>
       <c r="AP4" s="121">
         <f t="shared" ref="AP4:AP11" si="11">-(AB4-AB$3)/AB$3</f>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V5" t="e">
         <f t="shared" si="1"/>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="Y5">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="Z5">
         <f t="shared" si="1"/>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="AA5">
         <f t="shared" si="1"/>
-        <v>23150</v>
+        <v>23100</v>
       </c>
       <c r="AB5">
         <f t="shared" si="1"/>
@@ -7886,11 +7886,11 @@
       </c>
       <c r="AC5">
         <f t="shared" si="1"/>
-        <v>14429</v>
+        <v>14430</v>
       </c>
       <c r="AE5" s="141">
         <f t="shared" ref="AE5:AE11" si="13">(Q5-Q$3)/Q$3</f>
-        <v>-3.4733107829387037E-2</v>
+        <v>-1.8232819074333807E-2</v>
       </c>
       <c r="AF5" s="121">
         <f t="shared" ref="AF5:AF11" si="14">-(R5-R$3)/R$3</f>
@@ -7906,12 +7906,12 @@
       </c>
       <c r="AI5" s="121">
         <f t="shared" si="5"/>
-        <v>-1.0630333882317704E-2</v>
+        <v>-3.1441832609671967E-3</v>
       </c>
       <c r="AJ5" s="121"/>
       <c r="AK5" s="121">
         <f t="shared" si="6"/>
-        <v>-3.1375629591978232E-2</v>
+        <v>-2.5830599325354694E-2</v>
       </c>
       <c r="AL5" s="121">
         <f t="shared" si="7"/>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="AM5" s="121">
         <f t="shared" si="8"/>
-        <v>-9.3549975381583862E-3</v>
+        <v>-6.8931560807482962E-3</v>
       </c>
       <c r="AN5" s="121">
         <f t="shared" si="9"/>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="AO5" s="121">
         <f t="shared" si="10"/>
-        <v>-1.2542710090394013E-3</v>
+        <v>9.0826521344232513E-4</v>
       </c>
       <c r="AP5" s="121">
         <f t="shared" si="11"/>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="AQ5" s="121">
         <f t="shared" si="12"/>
-        <v>-2.2970577809287487E-2</v>
+        <v>-2.3041474654377881E-2</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="Y6">
         <f t="shared" si="1"/>
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="Z6">
         <f t="shared" si="1"/>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="AA6">
         <f t="shared" si="1"/>
-        <v>23100</v>
+        <v>23050</v>
       </c>
       <c r="AB6">
         <f t="shared" si="1"/>
@@ -8037,11 +8037,11 @@
       </c>
       <c r="AC6">
         <f t="shared" si="1"/>
-        <v>14357</v>
+        <v>14360</v>
       </c>
       <c r="AE6" s="141">
         <f t="shared" si="13"/>
-        <v>-1.8232819074333807E-2</v>
+        <v>-9.982674696807194E-3</v>
       </c>
       <c r="AF6" s="121">
         <f t="shared" si="14"/>
@@ -8062,7 +8062,7 @@
       <c r="AJ6" s="121"/>
       <c r="AK6" s="121">
         <f t="shared" si="6"/>
-        <v>-3.1375629591978232E-2</v>
+        <v>-1.6588882214315464E-2</v>
       </c>
       <c r="AL6" s="121">
         <f t="shared" si="7"/>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AM6" s="121">
         <f t="shared" si="8"/>
-        <v>-6.8931560807482962E-3</v>
+        <v>-4.4313146233382061E-3</v>
       </c>
       <c r="AN6" s="121">
         <f t="shared" si="9"/>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AO6" s="121">
         <f t="shared" si="10"/>
-        <v>9.0826521344232513E-4</v>
+        <v>3.0708014359240518E-3</v>
       </c>
       <c r="AP6" s="121">
         <f t="shared" si="11"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="AQ6" s="121">
         <f t="shared" si="12"/>
-        <v>-1.7866004962779156E-2</v>
+        <v>-1.8078695498050336E-2</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="1"/>
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="Z7">
         <f t="shared" si="1"/>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="1"/>
-        <v>23050</v>
+        <v>22990</v>
       </c>
       <c r="AB7">
         <f t="shared" si="1"/>
@@ -8188,11 +8188,11 @@
       </c>
       <c r="AC7">
         <f t="shared" si="1"/>
-        <v>14286</v>
+        <v>14290</v>
       </c>
       <c r="AE7" s="141">
         <f t="shared" si="13"/>
-        <v>-9.982674696807194E-3</v>
+        <v>-1.7325303192805798E-3</v>
       </c>
       <c r="AF7" s="121">
         <f t="shared" si="14"/>
@@ -8213,7 +8213,7 @@
       <c r="AJ7" s="121"/>
       <c r="AK7" s="121">
         <f t="shared" si="6"/>
-        <v>-3.0451457880874309E-2</v>
+        <v>-7.3471651032762314E-3</v>
       </c>
       <c r="AL7" s="121">
         <f t="shared" si="7"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="AM7" s="121">
         <f t="shared" si="8"/>
-        <v>-1.9694731659281157E-3</v>
+        <v>4.9236829148219296E-4</v>
       </c>
       <c r="AN7" s="121">
         <f t="shared" si="9"/>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="AO7" s="121">
         <f t="shared" si="10"/>
-        <v>3.0708014359240518E-3</v>
+        <v>5.6658449029021235E-3</v>
       </c>
       <c r="AP7" s="121">
         <f t="shared" si="11"/>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="AQ7" s="121">
         <f t="shared" si="12"/>
-        <v>-1.283232896136122E-2</v>
+        <v>-1.3115916341722794E-2</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -8252,11 +8252,11 @@
       </c>
       <c r="E8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G8">
         <f>VLOOKUP($C8,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>1115</v>
+        <v>1085</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="AA8">
         <f t="shared" si="1"/>
-        <v>23000</v>
+        <v>22940</v>
       </c>
       <c r="AB8">
         <f t="shared" si="1"/>
@@ -8339,11 +8339,11 @@
       </c>
       <c r="AC8">
         <f t="shared" si="1"/>
-        <v>14214</v>
+        <v>14210</v>
       </c>
       <c r="AE8" s="141">
         <f t="shared" si="13"/>
-        <v>-1.7325303192805798E-3</v>
+        <v>6.5176140582460344E-3</v>
       </c>
       <c r="AF8" s="121">
         <f t="shared" si="14"/>
@@ -8364,7 +8364,7 @@
       <c r="AJ8" s="121"/>
       <c r="AK8" s="121">
         <f t="shared" si="6"/>
-        <v>-3.0451457880874309E-2</v>
+        <v>-2.7263065477566152E-3</v>
       </c>
       <c r="AL8" s="121">
         <f t="shared" si="7"/>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="AO8" s="121">
         <f t="shared" si="10"/>
-        <v>5.233337658405778E-3</v>
+        <v>7.8283811253838497E-3</v>
       </c>
       <c r="AP8" s="121">
         <f t="shared" si="11"/>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="AQ8" s="121">
         <f t="shared" si="12"/>
-        <v>-7.727756114852889E-3</v>
+        <v>-7.4441687344913151E-3</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>1114</v>
+        <v>1075</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="AA9">
         <f t="shared" si="1"/>
-        <v>22950</v>
+        <v>22890</v>
       </c>
       <c r="AB9">
         <f t="shared" si="1"/>
@@ -8488,11 +8488,11 @@
       </c>
       <c r="AC9">
         <f t="shared" si="1"/>
-        <v>14143</v>
+        <v>14140</v>
       </c>
       <c r="AE9" s="141">
         <f t="shared" si="13"/>
-        <v>6.5176140582460344E-3</v>
+        <v>1.4767758435772649E-2</v>
       </c>
       <c r="AF9" s="121">
         <f t="shared" si="14"/>
@@ -8513,7 +8513,7 @@
       <c r="AJ9" s="121"/>
       <c r="AK9" s="121">
         <f t="shared" si="6"/>
-        <v>-2.9527286169770385E-2</v>
+        <v>6.515410563282616E-3</v>
       </c>
       <c r="AL9" s="121">
         <f t="shared" si="7"/>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="AO9" s="121">
         <f t="shared" si="10"/>
-        <v>7.3958738808875052E-3</v>
+        <v>9.9909173478655768E-3</v>
       </c>
       <c r="AP9" s="121">
         <f t="shared" si="11"/>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="AQ9" s="121">
         <f t="shared" si="12"/>
-        <v>-2.6940801134349521E-3</v>
+        <v>-2.4813895781637717E-3</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -8552,35 +8552,35 @@
       </c>
       <c r="E10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="G10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="H10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="I10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>1115</v>
+        <v>1085</v>
       </c>
       <c r="J10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>1114</v>
+        <v>1075</v>
       </c>
       <c r="K10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>1114</v>
+        <v>1070</v>
       </c>
       <c r="L10">
         <f>VLOOKUP($C10,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
-        <v>1113</v>
+        <v>1060</v>
       </c>
       <c r="O10" s="117" t="s">
         <v>112</v>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>1114</v>
+        <v>1070</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="1"/>
-        <v>22900</v>
+        <v>22840</v>
       </c>
       <c r="AB10">
         <f t="shared" si="1"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="1"/>
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="AE10" s="141">
         <f t="shared" si="13"/>
@@ -8664,7 +8664,7 @@
       <c r="AJ10" s="121"/>
       <c r="AK10" s="121">
         <f t="shared" si="6"/>
-        <v>-2.9527286169770385E-2</v>
+        <v>1.1136269118802233E-2</v>
       </c>
       <c r="AL10" s="121">
         <f t="shared" si="7"/>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="AO10" s="121">
         <f t="shared" si="10"/>
-        <v>9.5584101033692314E-3</v>
+        <v>1.2153453570347304E-2</v>
       </c>
       <c r="AP10" s="121">
         <f t="shared" si="11"/>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="AQ10" s="121">
         <f t="shared" si="12"/>
-        <v>2.4104927330733782E-3</v>
+        <v>2.4813895781637717E-3</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>1113</v>
+        <v>1060</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="AA11">
         <f t="shared" si="1"/>
-        <v>22850</v>
+        <v>22780</v>
       </c>
       <c r="AB11">
         <f t="shared" si="1"/>
@@ -8815,7 +8815,7 @@
       <c r="AJ11" s="121"/>
       <c r="AK11" s="121">
         <f t="shared" si="6"/>
-        <v>-2.8603114458666465E-2</v>
+        <v>2.0377986229841463E-2</v>
       </c>
       <c r="AL11" s="121">
         <f t="shared" si="7"/>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="AO11" s="121">
         <f t="shared" si="10"/>
-        <v>1.1720946325850959E-2</v>
+        <v>1.4748497037325375E-2</v>
       </c>
       <c r="AP11" s="121">
         <f t="shared" si="11"/>
@@ -8854,19 +8854,19 @@
       </c>
       <c r="E12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>4.12</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="G12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="H12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>4.07</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="I12">
         <f>VLOOKUP($C12,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
@@ -8940,35 +8940,35 @@
       </c>
       <c r="E14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!E$1,FALSE)</f>
-        <v>23200</v>
+        <v>23160</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>23150</v>
+        <v>23100</v>
       </c>
       <c r="G14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>23100</v>
+        <v>23050</v>
       </c>
       <c r="H14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>23050</v>
+        <v>22990</v>
       </c>
       <c r="I14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>23000</v>
+        <v>22940</v>
       </c>
       <c r="J14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>22950</v>
+        <v>22890</v>
       </c>
       <c r="K14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>22900</v>
+        <v>22840</v>
       </c>
       <c r="L14">
         <f>VLOOKUP($C14,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
-        <v>22850</v>
+        <v>22780</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -9030,27 +9030,27 @@
       </c>
       <c r="F16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!F$1,FALSE)</f>
-        <v>14429</v>
+        <v>14430</v>
       </c>
       <c r="G16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!G$1,FALSE)</f>
-        <v>14357</v>
+        <v>14360</v>
       </c>
       <c r="H16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!H$1,FALSE)</f>
-        <v>14286</v>
+        <v>14290</v>
       </c>
       <c r="I16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!I$1,FALSE)</f>
-        <v>14214</v>
+        <v>14210</v>
       </c>
       <c r="J16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!J$1,FALSE)</f>
-        <v>14143</v>
+        <v>14140</v>
       </c>
       <c r="K16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!K$1,FALSE)</f>
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="L16">
         <f>VLOOKUP($C16,'FX rates'!$A$8:$Q$24,'Transform-FX'!L$1,FALSE)</f>
